--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_373.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_373.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g32655-d1197096-Reviews-Holiday_Inn_Express_Hotel_Suites_Woodland_Hills-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>202</t>
+  </si>
+  <si>
+    <t>124</t>
+  </si>
+  <si>
+    <t>221</t>
   </si>
   <si>
     <t>https://www.orbitz.com/Los-Angeles-Hotels-Holiday-Inn-Express-Hotel-Suites-Woodland-Hills.h2889705.Hotel-Information</t>
@@ -532,11 +541,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +573,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_373.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_373.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="869">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="988">
   <si>
     <t>STR#</t>
   </si>
@@ -148,6 +148,9 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>Rosemary W</t>
   </si>
   <si>
     <t>07/04/2018</t>
@@ -197,6 +200,9 @@
 Bathroom was big enough and the shower worked, but the floor was dangerously slippery. Yes, I used the mat provided, but just casually setting one slightly...We stayed here last year and didn't plan to come back, but a sudden change of plans forced us to find something with a vacancy at the last minute.Our "king suite" was not really a suite. The definition of a suite is multiple (at least two!) connected rooms. Look it up. This is just an extra-large room. Nothing wrong with a large room, and that's fine with us, but calling it a suite is incorrect and could be problematic for someone who actually needs a suite.Fortunately, the room was well furnished and the bed was comfortable. However, sleep was an issue because we could not use the fan for white noise. There is no way to make it stay on, so it goes on and off during the night, so it can't really be used to block out things like the loud TV in the next room or noises from outside. The dumpsters outside were serviced by a loud beepy truck at 6:30 am.We appreciate having breakfast included, but it was just sad here. Very poorly managed. The second morning, we were there at 8:45 (breakfast is supposed to last until 9:30). They were completely out of milk cartons and yogurt, and very low on other items. Better planning is needed.Bathroom was big enough and the shower worked, but the floor was dangerously slippery. Yes, I used the mat provided, but just casually setting one slightly damp foot down on the floor next to the mat caused a serious slip. Textured tile would be safer. The bathroom door seemed to be hung badly, made a horrible noise whenever the door opened or closed. (Room 327, in case management wants to fix it.)Overall, this hotel could use some updating.More</t>
   </si>
   <si>
+    <t>LuViPortland</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1197096-r569983250-Holiday_Inn_Express_Hotel_Suites_Woodland_Hills-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -221,6 +227,9 @@
     <t>They claim to offer the lowest price available, but the IHG central service was rude in contradicting that claim. I contacted the manager --he and Shania seem to be the two professionals on the staff-- and he attempted to treat me like a Priority Club member, which I am, instead of an annoying potential guest, as they had at the IHG central office. Would I stay here again? Yes, because it's close to my Woodland Hills reason for travel. But several things to note: 1) The front desk people are full of levity, and this appeals to many guests. 2) Attempts to up the healthy offerings at breakfast are as weak here as they are at other HIE properties: They were out of walnuts two of the three days, the one day with walnuts included only some ground walnuts, there were no raisins the third day. There was no shortage of other breakfast offerings. Those calorie-filled signature cinnamon rolls were always available. (Honestly, HIE Corporate, do your guests really accept them as a no-exceptions goodie, in spite of the unhealthiness?) 3) The breakfast attendant walked away from her phone immediately whenever a guest asked a question, or for a re-supply of something. 4) The property, itself, seems old and musty. 5) As another guest mentioned, guest rooms lack microwaves.More</t>
   </si>
   <si>
+    <t>Roy N</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1197096-r559418774-Holiday_Inn_Express_Hotel_Suites_Woodland_Hills-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -251,6 +260,9 @@
     <t>I am a IHG gold stars traveler so I stay in many Holiday Inns and Holiday Inn Expresses. This must be among the worst I have stayed in. It has the feel of a bad roadside motel.Positives - Large room and bathroom, good breakfast, good internet.Negatives - Water in the shower takes 5-7 minutes to get warm, in the sink 3-5 minute. The closet does not have a door, Despite having a reservation and arriving in the afternoon the only room clean and available was on the first floor. these rooms all have external doors which makes it easy for anyone to walk up to. The might front desk person was missing when I went to ask a question and returned in 5 minutes. After answering my question he went outside to smoke and was there another 5 minutes at least. I guess the only working staff member gets long breaks.I will never stay at this hotel again. I do not care if I have to drive an extra 30 minutes there are many other better options in and around Woodland Hills.More</t>
   </si>
   <si>
+    <t>JUDY M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1197096-r541887335-Holiday_Inn_Express_Hotel_Suites_Woodland_Hills-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -272,6 +284,9 @@
     <t xml:space="preserve"> traveled with family</t>
   </si>
   <si>
+    <t>Harry M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1197096-r537135990-Holiday_Inn_Express_Hotel_Suites_Woodland_Hills-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -290,6 +305,9 @@
     <t>October 2017</t>
   </si>
   <si>
+    <t>WEL29</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1197096-r536065785-Holiday_Inn_Express_Hotel_Suites_Woodland_Hills-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -305,6 +323,9 @@
     <t>Friendly staff, nice clean rooms &amp; accommodations.  Excellent customer service!   Close to Warner Center in Woodland Hills.   Good variety of restaurants and retail shops in the area.   Convenient parking at the hotel.</t>
   </si>
   <si>
+    <t>jecompu</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1197096-r522982941-Holiday_Inn_Express_Hotel_Suites_Woodland_Hills-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -323,6 +344,9 @@
     <t>September 2017</t>
   </si>
   <si>
+    <t>barbgoodkin</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1197096-r516343633-Holiday_Inn_Express_Hotel_Suites_Woodland_Hills-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -344,6 +368,9 @@
     <t>We stayed here for a number of days and found that the service was spotty some days and excellent on others.    The shower knob did not pull up and we had to get it repaired.  The hotel supplied clock disappeared and it took us 2 days for a service person to come up and find it lodged behind the night stand, and that was thanks to a very responsive manager.  Some days the wash cloths or soap were not replenished and we had to make a special request.   One day the trash was not emptied!   All in all, we were satisfied with the location and the cleanliness of the hotel.   The breakfasts were ample although the scrambled eggs were quite dry.  The location is excellent for our purposes and we will stay there again and hope that the service will have improved.   The parking underground is excellent.More</t>
   </si>
   <si>
+    <t>Shameka H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1197096-r514060338-Holiday_Inn_Express_Hotel_Suites_Woodland_Hills-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -368,6 +395,9 @@
     <t>If you want a comfortable bed, this is not the hotel. The bed is hard as rocks and the pillows need to be replaced. It's clean. The Air conditioner is dated and needs an update. If this hotel wasn't so close to my meeting, I would never stay here. More</t>
   </si>
   <si>
+    <t>EndTravel</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1197096-r496907144-Holiday_Inn_Express_Hotel_Suites_Woodland_Hills-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -386,6 +416,9 @@
     <t>June 2017</t>
   </si>
   <si>
+    <t>Bettina G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1197096-r495349667-Holiday_Inn_Express_Hotel_Suites_Woodland_Hills-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -401,6 +434,9 @@
     <t>We booked the HoInn Express "last Minute"; so we arrived late and left early. All I can say is that the rooms + bathroom were clean, very quiet and we slept well. Although we arrived late everybody was very friendly and helpful.</t>
   </si>
   <si>
+    <t>Yadiract</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1197096-r494405475-Holiday_Inn_Express_Hotel_Suites_Woodland_Hills-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -425,6 +461,9 @@
     <t>My family and I went to L.A for my brother's graduation and we stayed at this hotel on Saturday night. The graduation was on Sunday morning, we woke up early and I got ready and brushed my teeth with my Sonic Care Toothbrush. (We were running out of time and packed everything except my toothbrush which I left on the right hand side of the sink.)By the time we came home to the central valley, I unpacked my suitcase and my toothbrush box was empty. I immediately called to let them know that I had left my Sonic Care toothbrush and I was given the run around by multiple people. Is Monday afternoon and the lady, I spoke informed me that they did not have a Sonic Care tooth brush in their lost and found. I told her, I left the toothbrush in room 307 and house keeping should have it. Not all toothbrushes are the same. I was going to pay for shipping. It would have been less than buying a new one. No help! Please don't forget your items. More</t>
   </si>
   <si>
+    <t>Christos O</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1197096-r491100958-Holiday_Inn_Express_Hotel_Suites_Woodland_Hills-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -446,6 +485,9 @@
     <t>I chose this hotel for a 5 night stay but, I ended up staying for the duration of my visit to L.A. which amounted to 19 nights. The hotel was very comfy, the staff very friendly and the location just great.  The rooms were spacious, very clean and provided all the comforts that one would need. The hotel rate, which was very competitive, included a bkfst buffet with most everything on it, wi-fi and indoor parking.  It is not a resort-style hotel but, it is great to stay if you want to visit and explore the surrounding area. I enjoyed my stay there and will definitely stay there again on my next visit.More</t>
   </si>
   <si>
+    <t>Moogie95833</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1197096-r487156579-Holiday_Inn_Express_Hotel_Suites_Woodland_Hills-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -462,6 +504,9 @@
   </si>
   <si>
     <t>May 2017</t>
+  </si>
+  <si>
+    <t>59juliek7</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1197096-r468095311-Holiday_Inn_Express_Hotel_Suites_Woodland_Hills-Los_Angeles_California.html</t>
@@ -495,6 +540,9 @@
 She said we had been upgraded....two queen beds with a pull out couch in a very dark room.  The carpet was so dirty that I wore my flip-flops at all times.I don't think shampooing it would help much, it needs to be replaced. Wifi was good and the breakfast was typical of a Holiday Inn Express.  The pool is only about 6 feet wide...My husband travels for business and stays at Holiday Inn Expresses quite often so is a IHG sphere level member.  I came to Los Angeles with my daughter who is in college, for her spring break. This was the third hotel we stayed in (two nights in each of the three hotels) and was the worst.First, when I checked in with my confirmation in hand and identification in my wallet, I was asked where my husband was (we used his points for this stay) when I told her that he wasn't with us, she said she was going to call him to verify that it was okay that I use his points! How humiliating! She acted like I was in the principal's office doing something  wrong! He was shocked and told her to tell me that he loved me (to let me know he was sorry for the bad treatment).  Do you think if I had the confirmation with me and ID, I must be authorized to stay?! I have never had this happen before!She said we had been upgraded....two queen beds with a pull out couch in a very dark room.  The carpet was so dirty that I wore my flip-flops at all times.I don't think shampooing it would help much, it needs to be replaced. Wifi was good and the breakfast was typical of a Holiday Inn Express.  The pool is only about 6 feet wide with about 3 or 4 feet of cement around it and two lounge chairs.  It was sufficient for myself to get  a little sun for 45 minutes.  I brought my own beach towel from home.Location is close to the 101 freeway and there was no charge for parking.I wouldn't stay here again unless I was desperate.More</t>
   </si>
   <si>
+    <t>gordonpierre88</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1197096-r458912939-Holiday_Inn_Express_Hotel_Suites_Woodland_Hills-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -519,6 +567,9 @@
     <t>Hotel is on a strip with options for food, breakfast was offered by the hotel but wasn't appealing  .  Hotel itself is just basic, bathroom was a bit on the moldy side, bed was ok. I would stay again just for business but not for pleasure.More</t>
   </si>
   <si>
+    <t>Damini J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1197096-r443919061-Holiday_Inn_Express_Hotel_Suites_Woodland_Hills-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -546,6 +597,9 @@
     <t>We only stayed one night and I have always enjoyed Holiday Inn Express except this one. The air conditioner probably had not been turned on in months because when we turned it in, it sounded like a car engine and it was so loud we had to turn it off because the sound was to much. The bed was creaky and so uncomfortable. The blankets were sheets and no actual blankets. The pillows were flat and not firm at all. The walls were so thin you could hear people walking to their rooms and talking. We hear the neighbors radio. I did enjoyed having a fridge in the room. The breakfast in the morning only was until 9:30 which I thought was early most restaurants have a 10:00 cut off. The food was awesome and plenty to choose from. More</t>
   </si>
   <si>
+    <t>DannyHS</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1197096-r429899435-Holiday_Inn_Express_Hotel_Suites_Woodland_Hills-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -564,6 +618,9 @@
     <t>October 2016</t>
   </si>
   <si>
+    <t>Laura0609b</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1197096-r421354091-Holiday_Inn_Express_Hotel_Suites_Woodland_Hills-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -582,6 +639,9 @@
     <t>September 2016</t>
   </si>
   <si>
+    <t>colleenlovestravel</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1197096-r420721947-Holiday_Inn_Express_Hotel_Suites_Woodland_Hills-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -597,6 +657,9 @@
     <t>I selected this hotel because I was in town on business and it was close to where I needed to be.  I didn't need anything fancy and because I was traveling with my son, I wanted breakfast available. This was so much more than I expected.  WOW!  Whoever owns this gem puts lots of love into it.  This was nicer than some Marriott and Starwood hotels that I've stayed in.  Crown molding in the rooms and it is more than obvious they went high end on everything.  The mini-fridge was brand new and even had a freezer!  The service was good but sadly couldn't get a late checkout.</t>
   </si>
   <si>
+    <t>Nek S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1197096-r411245709-Holiday_Inn_Express_Hotel_Suites_Woodland_Hills-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -624,6 +687,9 @@
     <t>When I Google mapped the hotel i thinking about cancelling my reservation.. but i kept it and I was glad I did.. walking distance to do many little shops and less than a 5 minutes drive to the Westfield Topanga Mall..More</t>
   </si>
   <si>
+    <t>Richard C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1197096-r396399471-Holiday_Inn_Express_Hotel_Suites_Woodland_Hills-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -642,6 +708,9 @@
     <t>July 2016</t>
   </si>
   <si>
+    <t>Kim H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1197096-r386844750-Holiday_Inn_Express_Hotel_Suites_Woodland_Hills-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -669,6 +738,9 @@
     <t>We stayed here in May. the hotel room is very good with well maintained facilities. For us though, we ended up being a bit far from central Los Angeles. It is a bit out of the way and we found it a little difficult to find restaurants to eat at.The room was very clean and the staff good. They included a basic breakfast in the room rate.More</t>
   </si>
   <si>
+    <t>Chitown77</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1197096-r385688226-Holiday_Inn_Express_Hotel_Suites_Woodland_Hills-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -696,6 +768,9 @@
     <t>We chose this Holiday Inn for part of our family vacation in So. Cal. The price, even for their two bedroom suite was great compared to most L.A. hotels.I was concerned that the location would leave us seemingly in the middle of nowhere &amp; hours away from attractions.  We weren't.  It's L.A., you have to drive everywhere &amp; even with their 18 hour rush hour, we still found ourselves 45 minutes from a Universal Studios, Hollywood &amp; the ocean.The included breakfast helped save money, as well as the free covered parking.The staff was incredibly friendly to us, our kids &amp; helped with ideas on local restaurants.All in all, I couldn't be more pleased with our four night stay here &amp; would definitely consider it again, should we return to the area.More</t>
   </si>
   <si>
+    <t>mizbehr</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1197096-r384121022-Holiday_Inn_Express_Hotel_Suites_Woodland_Hills-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -720,6 +795,9 @@
     <t>Stayed here for a week for business. Very clean and spacious rooms. I made the mistake of leaving a drink in the freezer and it actually froze so the fridge works! The location is great with lots of places to eat. There is a grocery store right next door where you an get snacks. Front desk staff was super helpful with helping us decide on where to eat for the night. Special thanks to Carla for saving my co-workers life and holding on to his Vape that the Uber guy dropped off!!!! Thank Goodness for Andrew and Ali for helping us choose where to eat! We would have ended up eating Wendy's had it not been for them and would have missed out on the amazing Sushi place they recommended. They were always at the front desk with a smile. We enjoyed talking to them about the differences between Cali and Florida and about what the big deal is with In and out burger :)  If you are not sure if you want to stay here or not.....do it! you won't be sorry and there is a Starbucks right down the street and a Kurieg in the room. Can't go wrong with that! Not sure why others complained about the noise. We each had a room facing different directions and didn't have a complaint about noise at all. No traffic noise, etc.More</t>
   </si>
   <si>
+    <t>abeejay83</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1197096-r375526785-Holiday_Inn_Express_Hotel_Suites_Woodland_Hills-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -735,6 +813,9 @@
     <t>The rooms were adequate, the location was excellent and the staff was helpful.  The prices for the room were quite high.  Wen we needed to come for our son's funeral we felt that we were being gouged price wise, and found another hotel that was much better for us, and much less expensive.  we were also given a bereavement rate, for which we were very grateful.</t>
   </si>
   <si>
+    <t>Dawn F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1197096-r372703094-Holiday_Inn_Express_Hotel_Suites_Woodland_Hills-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -759,6 +840,9 @@
     <t>This was a great place to stay after a long flight .  Not to for from airport and car rental pickup .  Great stop off before starting our trip on route 1 ,  free parking which is a bonus in major cities .  Free breakfast and friendly staff More</t>
   </si>
   <si>
+    <t>philip2010</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1197096-r371454252-Holiday_Inn_Express_Hotel_Suites_Woodland_Hills-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -783,6 +867,9 @@
     <t>Stayed at woodland hills for one night after a late evening arrival to LA. Drove 40 minutes from LAX to the hotel I booked online based on trip advisor reviews. I was only looking for a hotel that was away from the airport before starting my drive the next day along the Pacific Coast Highway towards San Francisco.This room had a king size bed and was neat and clean and very comfortable. I was happy with the breakfast that was also included and it had fruit, cereal, porridge, bacon, eggs and juices and coffee. Overall it was a great place to stay!More</t>
   </si>
   <si>
+    <t>Zamigaos</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1197096-r364660265-Holiday_Inn_Express_Hotel_Suites_Woodland_Hills-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -810,6 +897,9 @@
     <t>Location is good and the staff makes this hotel!  When we arrived, Jared (I hope I have that correct) greeted us when we arrived.  We were there on business and one of our group had stayed there several times prior.  Jared greeted us like family and was very friendly.  He even called my room when a bag had been left at the front desk to see if it was ours.  I mentioned I had an issue with the fan on the A/C and he checked with me later to make sure it was OK.  Rooms were standard for HIE, but clean and well appointed.  The breakfast area was standard, but also very clean and filled often.  The work out area only has a few machines, but good enough if you just want to get in a quick run or session on the stairs.  Parking is available and easily accessible.  Wifi worked well.I would definitely stay here again - several restaurants within walking distance.More</t>
   </si>
   <si>
+    <t>Karen J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1197096-r355117234-Holiday_Inn_Express_Hotel_Suites_Woodland_Hills-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -837,6 +927,9 @@
     <t>Stayed here when Marriott and Hyatt were sold out due to Nancy Reagan's funeral.  It seemed recently remodeled. Staff was nice and gave me free coupons to The Habit Burger nearby because my room was not ready on time. Would stay again. Breakfast buffet, like most breakfast buffets that come included with room, was unappetizing and I had none of it. More</t>
   </si>
   <si>
+    <t>Nick D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1197096-r347239011-Holiday_Inn_Express_Hotel_Suites_Woodland_Hills-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -864,6 +957,9 @@
     <t>Stayed here with our two teenage sons for 3 nights in a double room. The room was a decent size but we found it got hot with four of us in there and the air con was too noisy to leave on. The hotel itself has a great parking garage and offers good value for money for guests although it really could do with a lock of paint to freshen it up a bit and maybe some quieter aircon installed. The staff were really helpful and friendly and all in all we got ok value for money here. My only other gripe is that my IHG platinum status didn't translate into any amenity or upgrade when I checked in. I did find out a few days later I'd been credited with 500 extra points but would have preferred a room upgrade ! Overall a good option for families and a good base to explore West LA !More</t>
   </si>
   <si>
+    <t>GP1357</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1197096-r343610751-Holiday_Inn_Express_Hotel_Suites_Woodland_Hills-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -885,6 +981,9 @@
     <t>We found this location good to get around the various areas of LA  for our meetings. The hotel room was a good size, clean and comfortable. We asked for different pillows and the staff were very good. The room had a fridge, ironing board etc, we stayed five days and would stay again, represented good value.One gripe is the wi fi, if you turn off your phone or iPad then you have to constantly log in and you can easily miss mails and calls you are waiting for. The breakfast has a good variety and is good enough to see you through, all in all we were pleased with our stay.More</t>
   </si>
   <si>
+    <t>Kelby J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1197096-r342160959-Holiday_Inn_Express_Hotel_Suites_Woodland_Hills-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -909,6 +1008,9 @@
     <t>First floor, window with see-through curtain, no privacy. Door opens to the outdoor pool area.  Pool?  4’ wide x 24’ long and 2-3’deep.   Staff was friendly, though not very knowledgeable about the area.  Breakfast – avoid anything they prepare, from mini-muffins to eggs and sausage – would classify all as hazardous waste (the yogurt and fresh fruit were safe).  First 4 choices in the area were booked, will return only as last resort.More</t>
   </si>
   <si>
+    <t>Travel_Critic83</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1197096-r324651305-Holiday_Inn_Express_Hotel_Suites_Woodland_Hills-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -933,6 +1035,9 @@
     <t>This hotel seems old and there is significant wear and tear that affects the exterior and interior conditions of the hotel.  The parking garage that the hotel uses underground is very small and feels claustrophobic.  Throughout our stay there was a leaky pipe in the garage that had water coming out of it every day.The room were assigned to had several issues.  The lamp in the middle of the beds didn't work for half of our stay.  We also discovered a cockroach in the bathroom sink late one night.  The complimentary breakfast offered in the morning is also not up to par with other Holiday Inn Express properties.  For instance, there was no brown sugar offered with the oatmeal, and other basic items were frequently unavailable.  One morning we went down to the breakfast area and discovered the hotel had run out of milk.The hotel’s Wi-Fi is also unreliable.  I even tried using the business center one morning and one of the computers had no Internet.    More</t>
   </si>
   <si>
+    <t>GpaWoo</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1197096-r314713011-Holiday_Inn_Express_Hotel_Suites_Woodland_Hills-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -960,6 +1065,9 @@
     <t>I travel on business a lot. Room was clean, fresh sheets, very acceptable just like every other competitor of theirs. What makes me come back to a hotel is the workout room. This one has one treadmill, two bikes, and a broken weight machine. Not what i was hoping for.More</t>
   </si>
   <si>
+    <t>snappytaco</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1197096-r299242931-Holiday_Inn_Express_Hotel_Suites_Woodland_Hills-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -981,6 +1089,9 @@
     <t>After being on freeways the entire weekend, it was nice to settle down at this hotel.  Although it is located on a pretty major thoroughfare, our room was quiet and there was surprisingly little traffic for a Saturday night.  The room was quite clean although the sofa bed was not made (not sure if that was to ensure that we knew the sheets were clean?).  The size of the room was adequate with a separate area for the coffee maker.  The breakfast was pretty standard and the breakfast room rather small so we ended up taking our food upstairs.  One thing I did appreciate was the parking garage (as opposed to a dimly lit parking lot as is often the case with other hotels).  This hotel was not cheap on a Saturday night, but that seems to be the case with all weekend rates for southern California hotels.  The staff was very friendly!More</t>
   </si>
   <si>
+    <t>hhurricane58</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1197096-r288287596-Holiday_Inn_Express_Hotel_Suites_Woodland_Hills-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -999,6 +1110,9 @@
     <t>July 2015</t>
   </si>
   <si>
+    <t>BeenThere_Didntdoit</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1197096-r286172179-Holiday_Inn_Express_Hotel_Suites_Woodland_Hills-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1020,6 +1134,9 @@
     <t>This is a hidden gem, Literally. I drove right past it. Twice. (Others have mentioned the same problem. I think the sign needs to be bigger or higher.) It is tucked in right beside the Wendy's.The lobby entrance is through the drive under parking entrance.Nicely appointed though. Neat clean lobby and breakfast area. In fact the entire hotel seemed fresh and new.  Breakfast was OK but not more than that.  The breakfast area was crowded most days.The room was nicely appointed clean and comfortable and quite quiet despite being on Ventura boulevard. There are some nearby restaurants but you will probably want to drive.  Still lots of choices within 15 minutes.The street level parking is quite limited although there are below ground spaces. Not nearly as many as advertised. (Half the space blocked by other spaces.) If the hotel fills up this could be an issue. (I believe they have an arrangement with the Wendy's for overnight parking.)The hotels location was ideal for me with business in Canoga Park, but the are is very accessible with multiple freeway entrances nearby.Overall a nice place if a little overpriced but still the lowest cost in the vicinity.More</t>
   </si>
   <si>
+    <t>Anthony D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1197096-r283002607-Holiday_Inn_Express_Hotel_Suites_Woodland_Hills-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1044,6 +1161,9 @@
     <t>Very pleasant staff, room was upgraded to a suite which was nice.  Room was comfortable, clean, view of the parking lot (Wendy's).  Breakfast was standard holiday inn express stuff.  Parking lot: if you were lucky enough to get the main lot with 20 spaces, good.  The basement parking was TIGHT, and there was also out doors but if you wanted to  use the elevator you had to either use the basement or front lobby.More</t>
   </si>
   <si>
+    <t>24Becky</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1197096-r278402969-Holiday_Inn_Express_Hotel_Suites_Woodland_Hills-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1059,6 +1179,9 @@
     <t>Really nice clean tidy rooms. Reasonably spacious for a holiday inn express. Staff were very helpful &amp; polite. Nice continental breakfast, plenty of options &amp; tables. Free covered parking &amp; wifi.Located on a main road, it has a supermarket on one side and a Wendy's on the other. They have a guest washing machine &amp; dryer available at reasonable rates.Can't think of anything else we could have needed there. Dependent on traffic (avoiding peak times) it took about an hour to drive to Disneyland. It took half an hour to universal via ventura blvd.We would definitely choose to stay here again.</t>
   </si>
   <si>
+    <t>drivingsunset</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1197096-r277866610-Holiday_Inn_Express_Hotel_Suites_Woodland_Hills-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1101,6 +1224,9 @@
     <t>The hotel is located in an area that makes it accessible to many areas locally.  The room was comfortable, the employees were there to help.  We had trouble with our door not locking properly and talked to the desk.  They had someone up immediately and thought it was fixed but when we returned that night, we could push the door open.  I talked with the desk again and they apologized profusely.  I was told that if it was not repaired that they would have someone sit outside the door until we returned then we would be moved to another room.  Fortunately, they fixed it. The only downside is that parking is limited and overflow has to park at the Wendys restaurant next door.More</t>
   </si>
   <si>
+    <t>SeanAZ</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1197096-r265964697-Holiday_Inn_Express_Hotel_Suites_Woodland_Hills-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1122,6 +1248,9 @@
     <t>Needed a hotel in the valley last minute and looked for either SPG or IHG properties and found this one.  Overall this was a great option and I wouldn't hesitate to stay here again, however, I don't know why I would be in the area again and need a hotel.  If you don't mind driving through a canyon, this hotel is convenient for Topanga State Park/Beach and the PCH area.  I would not use this hotel as a base to explore the greater LA area, you will spend a lot of time in traffic on either the 101, the 405, or both.  Excellent option if you have business at the Warner Center area that will require a few nights stay.I will give a big thumbs up to the staff who found themselves dealing with a power outage on the morning of our stay.  They were great, unflappable, and even kept the breakfast room stocked up with cereal and milk as best as possible.More</t>
   </si>
   <si>
+    <t>Karen G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1197096-r265946783-Holiday_Inn_Express_Hotel_Suites_Woodland_Hills-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1137,6 +1266,9 @@
     <t>We stayed overnight at this hotel and were happy with our service and accommodations.  The room was clean and I do not mind a noisy air conditioner - I prefer it actually as it produces white noise to help me sleep.  The bed was comfortable.  The parking was tight and we had to park in the overflow parking at Wendy's at night but the car was fine and it is really close to the hotel.  Breakfast was decent with eggs that were better than most of these breakfast buffets.  The power had gone out that morning but they extended the breakfast time so we still got to have a hot breakfast.  I would stay there again. It isn't a destination motel but good for an overnight stay.More</t>
   </si>
   <si>
+    <t>Seniority97</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1197096-r263874558-Holiday_Inn_Express_Hotel_Suites_Woodland_Hills-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1155,6 +1287,9 @@
     <t>I did a lot of research on where to stay. We wanted a place close enough to Universal Studios where we could wake up and be there shortly. Place right by Universal are way too much for us, so we tried this place and we are glad we did!Chances are you will drive right by it since it does not look like an area of town that will have a hotel. We drove right by it and had to turn around. We were worried based on the outside appearance of the place, However, our fears were assuaged once we were in the hotel. Allie was very nice when we were checking in and we were on our way quickly. Others have had a problem with parking but that was not an issue for us. There were plenty of spaces available in the lower lot. The rooms itself was very nice and roomy complete with fridge. The beds were fairly comfortable and there was plenty of shower pressure. The room was cleaned well while we were at Universal. The free breakfast had a good selection fo foods including pancakes, bagels, fruit, cereal and other things. There was also plenty of room to sit and enjoy your meal. We would not hesitate to stay here again!More</t>
   </si>
   <si>
+    <t>luvsun28</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1197096-r245165752-Holiday_Inn_Express_Hotel_Suites_Woodland_Hills-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1177,6 +1312,9 @@
   </si>
   <si>
     <t>I have stayed at this hotel 3 times over the last few years. Rooms are clean, ambience nice, and a fair free breakfast included. The price of rooms has gone up so this isn't as good a value as it was a few years ago. Pool is tiny with minimal lounge chairs. Gym is small also. There are a few places to eat within walking distance and close to bus stops. The biggest problem is that their two level parking structure is too small for this hotel. If you happen to be out for the evening and return after 8pm, there are no parking spots left. They have arranged additional parking at the Wendy's burgers next door available until 11am. Of course, the night I needed to do this, it was raining! More</t>
+  </si>
+  <si>
+    <t>TravelwKids4</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1197096-r242011426-Holiday_Inn_Express_Hotel_Suites_Woodland_Hills-Los_Angeles_California.html</t>
@@ -1214,6 +1352,9 @@
 Room:  Beds are fine, bedding good, pillows fine.  AC unit awfully loud – don’t get how hotels think this is acceptable.  It seems many have really bad air/heat units. And since the windows open 5 inches you need to turn on the air.  Makes for poor sleeping  -though we did not hear guests in the hall or next door due to the loud AC.  Believe rooms are on two levels – lower level on one side faces a blank wall,...Judgment of hotel value is of course dependent on price.  I don’t find this a pleasurable stay, but it’s on budget.Location: On a rather unlovely urban street.  But right door is a grocery store, frozen yogurt store and The Habit (good low cost decent burgers/fries/shakes). No pool, hot tub. This is probably a convenient location if the cost is right compared to other hotel locations. Note to those who do not know LA, the hotel is in the valley, off the 101 which is a very busy freeway and it will take you 45-60 minutes into Santa Monica. If you have a short window of time one night where you DON"T wnat to go war, Calabasas has a cute small main street and a small attractive shopping area with restaurants, cinema and bookstore. Parking: under hotel – can fit SUV (but probably not one w a rack on top). Breakfast: I find all the free breakfasts pretty much inedible.  Room:  Beds are fine, bedding good, pillows fine.  AC unit awfully loud – don’t get how hotels think this is acceptable.  It seems many have really bad air/heat units. And since the windows open 5 inches you need to turn on the air.  Makes for poor sleeping  -though we did not hear guests in the hall or next door due to the loud AC.  Believe rooms are on two levels – lower level on one side faces a blank wall, don’t know about the other side.More</t>
   </si>
   <si>
+    <t>Marcos B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1197096-r241261628-Holiday_Inn_Express_Hotel_Suites_Woodland_Hills-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1232,6 +1373,9 @@
     <t>October 2014</t>
   </si>
   <si>
+    <t>PhoenisSunDog</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1197096-r232159315-Holiday_Inn_Express_Hotel_Suites_Woodland_Hills-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1247,6 +1391,9 @@
     <t>Staff was very nice when checking in. Rooms were a good size with refrigerator. No microwave. Typical wall air conditioning unit. Room was clean. Looked pretty new. No worn spots. Bed was good and firm. Quiet rooms. No freeway noise in odd number rooms.</t>
   </si>
   <si>
+    <t>James K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1197096-r230501167-Holiday_Inn_Express_Hotel_Suites_Woodland_Hills-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1265,6 +1412,9 @@
     <t>September 2014</t>
   </si>
   <si>
+    <t>akidcagal</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1197096-r229849800-Holiday_Inn_Express_Hotel_Suites_Woodland_Hills-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1281,6 +1431,9 @@
   </si>
   <si>
     <t>I stayed with my daughter and her friend. They attended a concert at the Rose Bowl. We arrive shortly after 3:00 pm and our room was ready. Both the person on the phone when I called ahead and the front desk person were very friendly and professional. It was nice having a fridge in the room and the outlets were easy to find to charge our phones with. The room was clean and even though there is a Wendy's next door, we did not hear any noise from it. We ate at the Whole Foods Market a couple of miles east on Ventura Blvd at Canoga Ave. They have delicious healthy selections and tables both inside and outside. We arrive back late (around 2:00 pm) and we called the front desk person if they had any make-up remover towelettes. He said that he would bring them up to us and he did in just minutes! We also asked for a late check out and he arranged that for us as well. The on-site parking is free and in a garage. If the spots fill up, I was told that we could park at Wendy's next door. This hotel is convenient to the 101 freeway which is something I really like. We did not wake up in time for the breakfast but from previous experience, it is nothing worth waking up early for. We went to Whole Foods again to eat....I stayed with my daughter and her friend. They attended a concert at the Rose Bowl. We arrive shortly after 3:00 pm and our room was ready. Both the person on the phone when I called ahead and the front desk person were very friendly and professional. It was nice having a fridge in the room and the outlets were easy to find to charge our phones with. The room was clean and even though there is a Wendy's next door, we did not hear any noise from it. We ate at the Whole Foods Market a couple of miles east on Ventura Blvd at Canoga Ave. They have delicious healthy selections and tables both inside and outside. We arrive back late (around 2:00 pm) and we called the front desk person if they had any make-up remover towelettes. He said that he would bring them up to us and he did in just minutes! We also asked for a late check out and he arranged that for us as well. The on-site parking is free and in a garage. If the spots fill up, I was told that we could park at Wendy's next door. This hotel is convenient to the 101 freeway which is something I really like. We did not wake up in time for the breakfast but from previous experience, it is nothing worth waking up early for. We went to Whole Foods again to eat. The hotel is not fancy but it suited our needs just fine. Oh and according to Gas Buddy, two of the cheapest places to get gas in Woodland Hills were just a couple of blocks away at the Shell and USA at Ventura Blvd and Shoup Ave (Shoup is the closest off-ramp from the 101 also). We are staying here again in a couple of weeks because we liked it so much.More</t>
+  </si>
+  <si>
+    <t>E_Donald_Stein</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1197096-r224917305-Holiday_Inn_Express_Hotel_Suites_Woodland_Hills-Los_Angeles_California.html</t>
@@ -1306,6 +1459,9 @@
 My main critique is environmental.  The Holiday Inn Express model for breakfasts includes using all disposable dishes (rather than dedicate space to a kitchen).  The...I stayed in this hotel for ten days while visiting family and touring LA.  We had two rooms - one for the kids and one for the parents.  The rooms were very comfortable with all of the usual extras (coffee machine, cable tv, toiletries).  The beds were new and stocked with many pillows marked "soft" and "firm".  The front desk staff was friendly and reasonably helpful.  We arrived early and camped out in the lobby (jet lag) and since our rooms were not ready, they gave us free vouchers for the great burger place next door.  The pool was tiny and only worth one visit with our eight-year-old.  The surroundings are loaded with local, cheap restaurants (chain and independent), stores, salons, Starbucks and 7-eleven.  They are walking distance, though the street is unshaded and wide and HOT in the summer (LA is not a walker-friendly city).  The breakfast was diverse and good enough (it is standard across all Holiday Inn Expresses), but the hot dishes were low end (powdered eggs, maybe?).  Otherwise, there were bagels and muffins and biscuits, cereal and fruits.  The longer we stayed the more we relied on the fruit and breads.  There was parking, but we always seemed to grab the last spot, so I'm not sure if they have enough.My main critique is environmental.  The Holiday Inn Express model for breakfasts includes using all disposable dishes (rather than dedicate space to a kitchen).  The amount of trash that moves out of the dining room is huge.  Aside from the environmental impact of generating waste, the disposables give the whole breakfast experience a "cheap" feeling.  Its nicer to eat off of ceramic plates and to drink from glasses and mugs.  Surely they can/should reconsider the model.More</t>
   </si>
   <si>
+    <t>sumanl</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1197096-r222530121-Holiday_Inn_Express_Hotel_Suites_Woodland_Hills-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1333,6 +1489,9 @@
     <t>Stayed at this hotel on our way to SFO from LA. Hotel was centrally located from a lot of eateries. There is a decent grocery shop next door which also has few more restaurants which we did not check out. Our room on 3rd floor has a view of the back of the grocery store. So, when when we stayed in room, we saw people loading and unloading groceries all morning.Room amenities were all at per so is the standard breakfast. There is pretty decent laundry facility downstairs which we used for our trip.Staffs were great to deal with. Southwest lost our suitcase and we had to wait for it even after normal checkout time. They accommodated our need very well.Only real con is the staircase. Please do not use it. The smell horrible and looks terrible as well. Management should spend some time to tidy up these stairs.More</t>
   </si>
   <si>
+    <t>gnomo_hammer</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1197096-r221797784-Holiday_Inn_Express_Hotel_Suites_Woodland_Hills-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1351,6 +1510,9 @@
     <t>I stayed 5 nights at this hotel and I think is an excellent choice, the room was very confortable and clean, and it has a good size I mean not small but not too big, the staff was very friendly and ready to help specialy the people in care of the breakfast they were very helpul to me, the location was ideal to go to Universal Studios and other locations, I only found a couple of small issues, there were water bottles when we arrived to the hotel but they didn't replenish them  on the following days and my room was right beside the supermarket, so early at the morning we could hear the noise, it is not very loud and it wasn't specially a problem for me because we waked up early to visit the city.More</t>
   </si>
   <si>
+    <t>Andrew W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1197096-r219025515-Holiday_Inn_Express_Hotel_Suites_Woodland_Hills-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1375,6 +1537,9 @@
     <t>Booked a rate which included a beach kit, on checking in, no beach kit. Was also told that a Microwave was going to be put in my room, never happened. Room was great in a great location, bins not emptied first couple of days. Breakfast was adequate, but have to get in early as not only does the food run out, there is not much room to sit. Not enough no smoking signs in an area where ashtrays were but smoking is not allowed.More</t>
   </si>
   <si>
+    <t>CABozeman</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1197096-r218881505-Holiday_Inn_Express_Hotel_Suites_Woodland_Hills-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1393,6 +1558,9 @@
     <t>In the vast wasteland(strip malls, gas stations, fast food and Starbucks) that is LA, this hotel is dropped down right in the middle of a rather cheap area of Woodland Hills(there was a nice wine shop across the st.). In fact, it's easy to miss it's entrance between the Wendy's and Smart and Final. The people are friendly(thanks, Damon, for your help). The rooms are OK. Wi-fi is unstable, but there. Free breakfast is not exciting, and the staff can't seem to keep the food coming fast enough. But it is better than the "continental breakfast" of other places. There is only one elevator which leads to long wait times(use the stairs, it's only has 2 floors of rooms). We appreciated the senior rate which starts at age 62. If you need to stay in the San Fernando Valley, I'd recommend the Staybridge suites off Topanga Blvd. in Chatsworth. See my review there. We found the HIE fair, but the Suites better. We didn't stay there this time because it was full.More</t>
   </si>
   <si>
+    <t>JoThompson2014</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1197096-r217694618-Holiday_Inn_Express_Hotel_Suites_Woodland_Hills-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1408,6 +1576,9 @@
     <t>Huge bedroom, with added bonus of connecting second bedroom for a family of four, meant plenty of space for our 3 day stay. Bed linen and towels were spotless. Staff friendly and helpful, printing of directions for all our trips. Complimentary breakfast was a great surprise with plenty of choice for 2 of the family who are vegetarians.</t>
   </si>
   <si>
+    <t>Tristina L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1197096-r198382435-Holiday_Inn_Express_Hotel_Suites_Woodland_Hills-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1435,6 +1606,9 @@
     <t>This hotel looked to be brand new on the inside.  All current and new room amenities; very comfortable.  Staff was terrific and friendly.  Easy access with plenty of parking.  Good location to freeways for travel.More</t>
   </si>
   <si>
+    <t>Leon020201</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1197096-r196171783-Holiday_Inn_Express_Hotel_Suites_Woodland_Hills-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1450,6 +1624,9 @@
     <t>The room was great, but it was on the first floor, and outside.  A few families were staying in the nearby rooms and their kids were going in and coming out of the room so there was lots of audible door slamming/shutting.  They also were playing in the hot tub which was right outside the door.  Room was comfy, zero complaints there...breakfast was plentiful and enough food for both breakfast and lunch.  I wouldn't have minded paying the hotel $50 more for the food for my 3-day stay.  I appreciated the low price of $94 per night, booked on Priceline. Staff was very accommodating.</t>
   </si>
   <si>
+    <t>JimmyEatsitall</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1197096-r195737116-Holiday_Inn_Express_Hotel_Suites_Woodland_Hills-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1468,6 +1645,9 @@
     <t>October 2013</t>
   </si>
   <si>
+    <t>widowedglobetrotter</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1197096-r189928360-Holiday_Inn_Express_Hotel_Suites_Woodland_Hills-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1495,6 +1675,9 @@
     <t>I booked in late afternoon on the 31st so I could go the Rose Bowl Parade and Football game early the next morning.  My room was well maintained, shower worked, towels good sized and fluffy (yeah!), had a small frig (I brought lots of celebratory hors d'ourves, etc.);  lots of channels on tv.  Good mattress.  Very good breakfast selection and I just shared a table with another guest and read a complimentary newspaper.  Good reception staff.  All my needs taken care of.More</t>
   </si>
   <si>
+    <t>Steve V</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1197096-r189401623-Holiday_Inn_Express_Hotel_Suites_Woodland_Hills-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1517,6 +1700,9 @@
   </si>
   <si>
     <t>My son and I stayed for 4 nites and overall were very happy with the experience.  Our two queen room was spacious, well maintained and clean.  The location is very good as a base for the valley and is very close to both Topanga Canyon Blvd (beautiful drive to the coast north of Santa Monica) and the 101.  Breakfast is good but the dining area isn't very large and it can be difficult to get a table.  If you're looking for a pool to lounge by this isn't the right hotel.More</t>
+  </si>
+  <si>
+    <t>Adam M</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1197096-r187843821-Holiday_Inn_Express_Hotel_Suites_Woodland_Hills-Los_Angeles_California.html</t>
@@ -1547,6 +1733,9 @@
 Until I went down for breakfast, I was ready to give 4 dots. Then I got downstairs. At 9:05 AM, well within the serving time until 9:30, I saw runny "scrambled" eggs; no bacon or sausage; one hard biscuit; no gravy; one cinnamon roll; and a broken pancake machine. I've stayed at enough Holiday Inn Express hotels to know the brand standards....Searching IHG properties, this place had a low Saturday night rate, so I thought I'd try it out. The neighborhood isn't pretty, but isn't bad. If you're coming from downtown LA, the entrance to parking is after the hotel building. Before the building is the Wendy's. There's a lower level of parking if the roughly 20 spaces on top are all taken.I was assigned a top level room, so I had no upstairs neighbor problem. I strongly suggest asking for the top floor. Given that I could easily hear people in the hall, I suspect wall thickness is a problem. My room was huge, with a microwave, extra sink, and two refrigerators. I'm not sure why anyone would ever need two mini-fridges. Furnishings were new, including the bathroom tub. Sometimes renovations don't replace the tub. Here, the owners did. I particularly enjoyed the bed, which was firm. I prefer firm beds and so slept very well. Having DirectTV is also nice. The station choices include many Spanish options and Korean KBS, though not Fuse or Al-Jazeera America.Until I went down for breakfast, I was ready to give 4 dots. Then I got downstairs. At 9:05 AM, well within the serving time until 9:30, I saw runny "scrambled" eggs; no bacon or sausage; one hard biscuit; no gravy; one cinnamon roll; and a broken pancake machine. I've stayed at enough Holiday Inn Express hotels to know the brand standards. Some places - such as HIX Solana Beach - meet or exceed them. This fell well, well short. Maybe I just arrived at a bad time, but it's what I saw. I'd like to recommend this place as a good budget option, but it became just a budget option in the neighborhood.More</t>
   </si>
   <si>
+    <t>DevonSurfGirl</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1197096-r181993224-Holiday_Inn_Express_Hotel_Suites_Woodland_Hills-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1562,6 +1751,9 @@
     <t>Good clean hotel, spacious room, our room was on the third floor, and was quiet, good breakfast which included fresh pancakes, eggs, cinnamon buns, muffins, cereal, yoghurt, bananas, and more all food was topped up.  All staff were very helpful especially with directions.  We had a good Italian meal just 5 mins walk past smart and final which is next door.  We had a good wifi connection.  Easy drive to Malibu and surrounding areas.  We would stay again.</t>
   </si>
   <si>
+    <t>TNJtraveler111</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1197096-r180227069-Holiday_Inn_Express_Hotel_Suites_Woodland_Hills-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1586,6 +1778,9 @@
     <t>Friendly welcome from the front desk.  I had no problem finding parking downstairs.  When I got to the room, it was clean and the bed was decent.  I like to have the fan running throughout the night to overcome any noise during the night, but this was not an option with the air conditioner (it only came on when the temperature got too warm).   Also, I could hear the people above me, and it interrupted my sleep.   It was hard to go to sleep because it sounded like they were re-arranging the furniture above me, and in the morning, I could hear other activities from above that woke me up.  So, I did not get the full night of sleep that I would have hoped.More</t>
   </si>
   <si>
+    <t>Linus198</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1197096-r179651373-Holiday_Inn_Express_Hotel_Suites_Woodland_Hills-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1601,6 +1796,9 @@
     <t xml:space="preserve">Best hotel I have ever stayed. Patrick the GM went beyond our expectation to make our stay fabulous. Mr Patel was very nice and made sure that the room was Clean, service was good and breakfast was perfect . Nice and clean hotel . Free parking and breakfast was awesome . This will be my only place to stay in LA in future LA visits . Thank you Patrick And Mr Patel for making my stay enjoyable and  pleasant . </t>
   </si>
   <si>
+    <t>LMcCart</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1197096-r175990191-Holiday_Inn_Express_Hotel_Suites_Woodland_Hills-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1628,6 +1826,9 @@
     <t>The location was great for us and the room was comfortable, but the breakfast choices were substandard compared to other like hotels.Room was clean.One night, we were the last car to get a parking space and the next morning I overhead a guest complain about not getting a spot and getting a parking ticket on the street.Also, the first set of nights we were there, the Internet access speed was unusable.  They said they were changing Internet providers and sure enough when we came back several days later, the Internet speeds were much better.More</t>
   </si>
   <si>
+    <t>Tom W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1197096-r175409876-Holiday_Inn_Express_Hotel_Suites_Woodland_Hills-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1646,6 +1847,9 @@
     <t>July 2013</t>
   </si>
   <si>
+    <t>AlmondBlossomCapital</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1197096-r175177997-Holiday_Inn_Express_Hotel_Suites_Woodland_Hills-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1661,6 +1865,9 @@
     <t>Stayed here one night as we were attending a wedding in the area.  Room and whole hotel was very clean and well taken care of.  Nice decor throughout.  Bed was very comfortable for a good nights sleep. We'd stay here again if in the area.</t>
   </si>
   <si>
+    <t>CSTZug_Switzerland</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1197096-r172837803-Holiday_Inn_Express_Hotel_Suites_Woodland_Hills-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1688,6 +1895,9 @@
     <t>We stayed here twice. The room was neat and clean, but nothing special. Good WiFi signal. Friendly and helpful staff throughout.  The rooms in the back are definitely better as far as noise immissions from the street goes. This place is definitely OK, does the job,  but no more.More</t>
   </si>
   <si>
+    <t>specialk252</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1197096-r172614671-Holiday_Inn_Express_Hotel_Suites_Woodland_Hills-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1712,6 +1922,9 @@
     <t>I stayed here back in 2011 and my stay was wonderful so I decided to try it again. Bad idea! I checked in on Monday, August 12, 2013 and the representative was friendly; however, I did not find that to be true throughout my visit. The breakfast was okay, nothing exciting. On Friday, August 17, 2013, I returned to my room around 3:50pm and I was shocked to see my room in the same condition I left it that morning. I had tickets to a game in downtown LA, so I wanted to shower and be on my way as soon as possible. At 4:00pm there was a knock at my door. The person asked if someone could come in and clean my room. I said give me 10-15 minutes to take a quick shower. She said the person leaves at 4:30pm. I rushed to take a shower and upon leaving my room I did not see anyone from housekeeping. I stopped by the front desk on my way out to ensure my room would be cleaned. The front desk representative assured me that the ladies had not left and my room would be cleaned. Upon returning to my room around 11:00pm, my room was the same way I left it earlier. No one bothered to clean the room. At that point not only was it late, I was tired and my flight was scheduled for 7:30am. I called the...I stayed here back in 2011 and my stay was wonderful so I decided to try it again. Bad idea! I checked in on Monday, August 12, 2013 and the representative was friendly; however, I did not find that to be true throughout my visit. The breakfast was okay, nothing exciting. On Friday, August 17, 2013, I returned to my room around 3:50pm and I was shocked to see my room in the same condition I left it that morning. I had tickets to a game in downtown LA, so I wanted to shower and be on my way as soon as possible. At 4:00pm there was a knock at my door. The person asked if someone could come in and clean my room. I said give me 10-15 minutes to take a quick shower. She said the person leaves at 4:30pm. I rushed to take a shower and upon leaving my room I did not see anyone from housekeeping. I stopped by the front desk on my way out to ensure my room would be cleaned. The front desk representative assured me that the ladies had not left and my room would be cleaned. Upon returning to my room around 11:00pm, my room was the same way I left it earlier. No one bothered to clean the room. At that point not only was it late, I was tired and my flight was scheduled for 7:30am. I called the front desk to express my frustrations. The representative (I believe to be the manager) asked if I had left the "do not disturb" sign on my door. I said no and he said he was sorry and asked what I wanted him to do about it. I said I needed someone to come and clean my room. He said he was sending someone up. I went to give him an overview while the person cleaned my room. The manager appeared to be upset that I was not in my room waiting on the person to clean my room. He said I needed to go let the person in to clean my room. I went back to my room and someone came in and put towels in the bathroom and removed the trash. Needless to say, I will not stay here again. That was poor service. I paid the same as everyone else staying there and yet I did not get the same service as every other paying customer. The manager could have even offered to place me in a different room if he had no one to clean my room.More</t>
   </si>
   <si>
+    <t>Thomas H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1197096-r172191379-Holiday_Inn_Express_Hotel_Suites_Woodland_Hills-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1736,6 +1949,9 @@
     <t>My wife and I stayed here a total of four nights recently.  The room was neat and clean, as you would expect, with simple amenities.  We took advantage of the complimentary breakfast which was the usual assortment of motel food.  Not fancy, but ample.  The best thing about this hotel is it's location.  Lots of restaurants and conveniences close by.  Very friendly staff here.More</t>
   </si>
   <si>
+    <t>Lbca23</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1197096-r168548665-Holiday_Inn_Express_Hotel_Suites_Woodland_Hills-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1751,6 +1967,9 @@
     <t xml:space="preserve">We spent a few weekends in this Woodland Hills Hotel, and it was a nice place to return to after long drives and hectic days. The friendly desk staff gave us clear directions to every place we needed to go: Starbucks, church, and an awesome shopping mall right down the street. We truly enjoyed our stay at this hotel and would highly recommend it to anyone who needs to stay near West LA for any reason. </t>
   </si>
   <si>
+    <t>Mehrzad M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1197096-r168316831-Holiday_Inn_Express_Hotel_Suites_Woodland_Hills-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1766,6 +1985,9 @@
     <t>We had a very great experience staying at this location. The staff were very polite, professional and friendly. Damon at the reception was very helpful. Melissa in the great room for breakfast was really awesome. Room service staff were always obliging. The free internet, HBO and business center were great too.Overall a very clean and nice place to stay.Thank you for a great stay and making it easy for us.</t>
   </si>
   <si>
+    <t>ccardnut</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1197096-r166859277-Holiday_Inn_Express_Hotel_Suites_Woodland_Hills-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1790,6 +2012,9 @@
     <t>We chose this site because it was very close to all of the area we wanted to visit.  We were  here to visit friends and area my friend had grown up in.  For 4th of July went to Sherman Oaks for bus trip to Hollywood Bowl.  Rooms were ok.  Air condition was loud.  To be fair we had to run it most of our stay (100 degrees outside) Parking was fine and complimentary breakfast was good.  Staff was very helpful and very nice.More</t>
   </si>
   <si>
+    <t>Frederick B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1197096-r165052039-Holiday_Inn_Express_Hotel_Suites_Woodland_Hills-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1811,6 +2036,9 @@
     <t>We have stayed at Holiday Inn Express in many places over the years, and we have been satisfied every time. This is our second stay at the Holiday Inn Express in Woodland Hills, California.  It’s a great hotel and the staff are friendly and efficient.  The room was clean and well appointed.  The king sized bed was very comfortable.  We forgot to bring toothbrushes so one of the cleaning staff went to the front desk to get them instead of telling us where to get them. The front desk even called us an hour after check-in to see that everything was satisfactory.  The free WiFi runs at about 8Mbps (fast enough for watching videos).  The free Breakfast is standard HIE fare.  It’s only a twenty minute drive to the beach and the prices are reasonable.   What more could you want from a hotel?More</t>
   </si>
   <si>
+    <t>Roshambo1-2-3</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1197096-r164625838-Holiday_Inn_Express_Hotel_Suites_Woodland_Hills-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1827,6 +2055,9 @@
   </si>
   <si>
     <t>Not a resort that you would stay at, but, was a good value for an overnight stay while attending a college graduation. King Room was roomy and clean. Free Wi-Fi and Breakfast. Wi0Fi was easy and steady and breakfast was acceptable, noting fancy. Fresh Pancake Machine and scambled eggs were fairly good. I've been to Hampton Inns where the eggs did not taste like real eggs, these tasted like real eggs. Not enough fresh fruit however. Bathrooms were huge, however, needs towel bars near the tubs. $105 a night on a weekend night. Prices were $300+ in West LA, so for 20 minute drive, saved $200.  They ran out of parking so had to park in overflow parking at next door Wendy's.More</t>
+  </si>
+  <si>
+    <t>JCLi</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1197096-r163992985-Holiday_Inn_Express_Hotel_Suites_Woodland_Hills-Los_Angeles_California.html</t>
@@ -1853,6 +2084,9 @@
 Then looking directly into the main room is an armchair and square wooden table.  Upon entering the main room, to the right is a wooden end table where a plastic tray with an ice bucket and disposable cups are located.  Next to the end table is a loveseat (which can pull out for an extra bed).  A rectangular wooden coffee table is in front of the loveseat. Then a California King bed (with immaculately clean white sheets) is flanked by 2 granite top bedstands (the bedstand between the loveseat and bed has a lamp, phone, and digital clock and the other bedstand just has a lamp).  Opposite the bedstand between thand bed...The location is great being a couple blocks off the Shoup exit of the 101 Freeway.  The hotel has ample secure parking.  The hotel is in a safe area.The check-in was quick.  Sara was very efficient despite having a group of tourists and someone else on the phone as I arrived.The room is extremely spacious (#219).  A very large clean &amp; roomy bathroom is immediately to the right upon entering the room.  Past the bathroom is a nice little wet bar area with a little sink, mini-fridge, and microwave (the interior of the microwave was absolutely pristine).  The cabinent next to the microwave housed paper plates, bowls, plastic utensils, napkins, and styrofoam cups courtesy of houusekeeping.  The coffee maker was also located on the granite countertop.Then looking directly into the main room is an armchair and square wooden table.  Upon entering the main room, to the right is a wooden end table where a plastic tray with an ice bucket and disposable cups are located.  Next to the end table is a loveseat (which can pull out for an extra bed).  A rectangular wooden coffee table is in front of the loveseat. Then a California King bed (with immaculately clean white sheets) is flanked by 2 granite top bedstands (the bedstand between the loveseat and bed has a lamp, phone, and digital clock and the other bedstand just has a lamp).  Opposite the bedstand between thand bed loveseat is a small wooden shuttered closet.  Next to the closet is a large granite top dresser which a flat screen TV rests.  There is another mini-fridge occupying the left 1/3 of the dresser unit.  Next to the dresser is a small padded wooden bench (which functions great as a luggage rack).  Next to the bench is a wooden desk with a phone and a lamp.  Opposite the desk is an armchair with footrest, floorlamp, and small circular wooden end table.The breakfast is good.  Ample food on all days used (6:45am, 8:15am and 9am).  There is coffee tea, and juices (apple, orange, and passion-guava).  There is a pancake machine. There are hard-boiled eggs, yogurt, and milk in a mini-fridge.  There are fresh warm cinnamon buns under a heating lamp.  There are scrambled eggs, fresh biscuits, and either bacon or sausages in a heated case.  There are bagels, muffins, white &amp; wheat bread, and english muffins in a bread case.  The lady who tends to the breakfast area is very accommodating, friendly, and attentive.  The breakfast area is very well maintained and clean.  There are approximately 8 tables (most seating 2 and a couple seating 4) and fills up rather quickly but I had no problems taking food to the room.The stay was pleasant.  Only note that (1) there were lots of tables in the room and (2) the bed makes 'crinkly' noises when used because of the mattress pad/topper.  Otherwise, after getting used to the crinkling noises, the bed is comfortable and is appointed with 4 pillows (2 soft and 2 firm - and the pillowcases are embroidered with the words 'soft' and 'firm'!!!!).  It was nice to not have extraneous decorative pillows on the bed which aren't cleaned after each guest!  The housekeeping team is to be commended for the high standards provided in keeping the room clean.  I tipped a few dollars each day and received 'thank you' notes left on the bedstand.The only complaint (and this is NOT due to any fault on the hotel) was that the people who stayed above #219 were very heavy-footed (stomp stomp stomp).  Thankfully the stomping did not run throughout the night.The hotel is next to a Wendy's and little plaza with a lot of dining choices but of special note is the White Harte Public House at 22456 Ventura Blvd just a block up the street towards the freeway - good food within walking distance!More</t>
   </si>
   <si>
+    <t>Sharon C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1197096-r160852312-Holiday_Inn_Express_Hotel_Suites_Woodland_Hills-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1871,6 +2105,9 @@
     <t>May 2013</t>
   </si>
   <si>
+    <t>tu2rgirl</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1197096-r159431292-Holiday_Inn_Express_Hotel_Suites_Woodland_Hills-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1898,6 +2135,9 @@
     <t>We chose this area to be close to family living in Woodland hills and other nearby suburbs. Since we were staying for a week, we also chose a suite and that worked out really well. It was big, clean, comfortable and quiet, and all the features looked as if they were updated in the last couple of years. The immediate area, while not fancy, is near many restaurants and a large mall. It is quite a drive, because of traffic, to Hollywood (or anywhere else that might be on a tourist's list), but we managed to see quite a bit anyway. The staff was friendly and helpful, and we liked the security of the elevator key. The breakfast area, while we were there, always had tables available, even on the weekend, and the only thing lacking on the menu (for me) was fruit. We discovered, though, that there was a grocery store two doors down, and were able to keep extra food in the refrigerator. We also discovered that the pool was more of a spa, so if you're taking kids, don't promise them a great pool experience. Overall, a very satisfying week.More</t>
   </si>
   <si>
+    <t>Courtenay O</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1197096-r158976943-Holiday_Inn_Express_Hotel_Suites_Woodland_Hills-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1916,6 +2156,9 @@
     <t>Driving into this location we were concerned about parking - didn't seem to be enough spaces for all the rooms. We did find a space, and felt secure underneath the hotel.  The room was large enough for the two of us, and everything was in working order. It was a typical Holiday Inn Express, which meant it was everything we wanted and needed for one night. The only distressing part of the visit was the breakfast area: 5 tables for 4, and 4 tables for 2.  When we went down for breakfast, we had no place to sit, and we were offended by the sign which indicated we should NOT bring the food to our room. It was only 8AM, and most of the food was gone. When we talked to the manager, she apologized for no hot food or breads or pancakes - she noted that they had a big influx of people at once. They young woman servicing the area, Melissa, brought out more food as quickly as was humanly possible - all the while she was pleasant, not flustered, and highly efficient. Oh! Don't turn in your key until you are ready to leave.  You need your key in the small elevator to access any floor higher than the reception &amp; breakfast floor. Thankfully we did not need it to go to the basement area for our car.More</t>
   </si>
   <si>
+    <t>FCExplorer</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1197096-r155565092-Holiday_Inn_Express_Hotel_Suites_Woodland_Hills-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1934,6 +2177,9 @@
     <t>January 2013</t>
   </si>
   <si>
+    <t>Beckie M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1197096-r155440490-Holiday_Inn_Express_Hotel_Suites_Woodland_Hills-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1961,6 +2207,9 @@
     <t>We spend a great deal of time in the area and could not be more pleased with this hotel.  The rooms are updated and very clean.  The complimentary breakfast is an added bonus. The staff has always been helpful. The parking is free and there are good restaurants nearby,  I would recommend this hotel to couples or families alike.More</t>
   </si>
   <si>
+    <t>Gil T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1197096-r155392837-Holiday_Inn_Express_Hotel_Suites_Woodland_Hills-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1973,6 +2222,9 @@
     <t>My 2nd time at the Woodland Hills Holiday Inn express. Location is convinient for visiting friends and business at the valley, rooms are equipped with new and modern furniture and amenities. Staff is very willing to help and asist with anything. They helped me this time with a technical problem I had with my car.I always use the fitness room which is also convinient.Breakfast is complimentary - but a bit plane and perhaps too simple</t>
   </si>
   <si>
+    <t>gapforever</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1197096-r152621169-Holiday_Inn_Express_Hotel_Suites_Woodland_Hills-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -2000,6 +2252,9 @@
     <t>The hotel was clean and the staff friendly; however the mini-fridge had been moved and left a huge space where it had been.  Not an inconvenience, just and eyesore.  There were a minimum number of "prime" parking spaces on the ground level.  Those would have been nice to use had the housekeeping staff not been parking in them EVERYDAY (we saw them each day leaving). Staff at any business should never take up front and center parking (that's just a common knowledge business practice).  The morning continental breakfast was just ok.  Nothing to brag about.More</t>
   </si>
   <si>
+    <t>BigdawgChicago</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1197096-r152344719-Holiday_Inn_Express_Hotel_Suites_Woodland_Hills-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -2018,6 +2273,9 @@
     <t>Stayed here for three nights.  The room was clean, the bed acceptable, bathroom sink quite large and the free breakfast was a cut above the rest.  The room was quiet at night.  Good choice of cable TV stations.The parking garage fills up at night but from reading TA I knew I could get  a pass from the front desk to park next door at Wendy's and did so one night. This is not a problem as I parked literally right next to the hotel and the Wendy's lot is well lit . I did have problems with the WI FI being slow at times.  Also, the bathroom door swings out into the room so that you constantly have to close it to walk past it to get to the bathroom, then open it to enter the bathroom.  I have stayed in many, many hotels and do not remember encountering such an annoyance.  It is not a deal breaker but did get to be a royal pain. The lobby is fairly small and not conducive to sitting around  and relaxing.  Hotel is just a few minutes from the 101 Freeway.  There are many restaurants within a ten minute drive of the hotel, particularly east on Ventura Blvd in Woodland Hills.More</t>
   </si>
   <si>
+    <t>marcthea</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1197096-r151509262-Holiday_Inn_Express_Hotel_Suites_Woodland_Hills-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -2034,6 +2292,9 @@
   </si>
   <si>
     <t>When visiting the US, we like to stay in Holiday Inn Express hotels. This hotel has got everything we have come to expect from HI Express. The hotel is relatively new and it shows in decoration and furniture. We liked our room very much. There was obviously little space to create a hotel here: while making reservations we knew there would be no real pool, but the large spa gets no sun at all in the afternoon, which is a drawback. On the other hand, the price is right, the location is fine (close to the freeway, close to the Westfield Topanga Mall, close to Malibu) and everything else is OK. We would stay here again.More</t>
+  </si>
+  <si>
+    <t>rfriedmount</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1197096-r147521762-Holiday_Inn_Express_Hotel_Suites_Woodland_Hills-Los_Angeles_California.html</t>
@@ -2067,6 +2328,9 @@
 When we arrived, the man at the front desk had no information about our reservation and the confirmation number we were given, didn't help him pull up any of our information.  We spent another hour calling the customer service line to figure out what was going on.  When he was finally able to check us in, he put us in a room that was surprisingly nice.  It had a fridge, microwave and was clean.  We unpacked and took a nap and let our dog out of his carrier to walk around.  A few hours later, my husband took the dog outside for a walk and the same man at the front desk told my husband, "There are no dogs allowed in this hotel."  My husband was shocked at this and told him that we...We booked this hotel through a "pet-friendly hotel" website and were told by the customer service rep who booked the reservation that there was NO pet deposit at all.  We found this unusual because there is always a pet deposit of some kind.  We booked a king size room for three days and paid with a credit card, getting a confirmation number to check in later that day.  From the outside, this place can easily be missed.  It looks like a stuccoed condo shoved in between some local businesses.  There is nothing charming or pleasing to the eye about the outside of this shoebox sized hotel.  When we arrived, the man at the front desk had no information about our reservation and the confirmation number we were given, didn't help him pull up any of our information.  We spent another hour calling the customer service line to figure out what was going on.  When he was finally able to check us in, he put us in a room that was surprisingly nice.  It had a fridge, microwave and was clean.  We unpacked and took a nap and let our dog out of his carrier to walk around.  A few hours later, my husband took the dog outside for a walk and the same man at the front desk told my husband, "There are no dogs allowed in this hotel."  My husband was shocked at this and told him that we booked this place on a pet-friendly website. The man then said, "It used to be a pet-friendly" hotel, but no longer was. They proceeded to go back and forth and this man refused to listen to my husband and exclaimed that we would have to move out of our room to the deserted bottom floor, rooms that one enters from the outside.  At first we were open to this, until we went and checked the rooms which all smelled like the inside of a monkey's cage.  Each one of the six rooms reeked of perspiration and nastiness.  The man at the front desk, insisted we had to stay in one of these rooms and refused to give us a refund, so we could move to another hotel.  He then had the nerve to tell us that we had to pay a pet fee, after we'd been told there wasn't any pet fee.  He was rude, nasty and not at all trained in giving proper customer service to customers.   He blamed the website for telling us that this was a pet-friendly hotel...though it is up to the hotel to notify the website if their status changes.   Instead of dealing with him, we called the website and got our money back.  I should write the name of this man we dealt with, but just knowing that hotels are hiring people like this to run their business, is enough of an incentive not to come back to a place that treats it's customers terribly.More</t>
   </si>
   <si>
+    <t>Loooooper</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1197096-r145655835-Holiday_Inn_Express_Hotel_Suites_Woodland_Hills-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -2085,6 +2349,9 @@
     <t>We stayed here for two nights to visit Los Angeles. Because every single Hotel in the city was booked out on that weekend, we decided to stay in this Hotel for our stay. The room was okay and clean.The hotel is situated a little bit outside of the city so you need to drive for half an hour or so to get to Hollywood, Beverly Hills etc.. But there is a nice curvy road where you can drive through the Topanga canyon.However the we only used this Hotel for sleeping and visited LA the whole day. There are probably better Hotels then this, but if everything is booked out this may still be a fair alternative.Breakfast was average....price okay.More</t>
   </si>
   <si>
+    <t>D S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1197096-r145340780-Holiday_Inn_Express_Hotel_Suites_Woodland_Hills-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -2100,6 +2367,9 @@
     <t>The front desk people were very nice and helpful.  The hotel is very well maintain, we were surprised it was 3 years old, it seems very new.  The parking is easy and free and very well lit.  We go out to that area very often to visit our daughter and usually stay at the Hilton but not any more, over all this was very nice.  It was quiet and did not smell.</t>
   </si>
   <si>
+    <t>KJ_TX_1</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1197096-r143477982-Holiday_Inn_Express_Hotel_Suites_Woodland_Hills-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -2127,6 +2397,9 @@
     <t>My wife and I stayed here for a few days to celebrate our anniversary and we could not have been more pleased with this hotel! It is practically brand new and the rooms are very modern and comfortable. The hotel staff was very nice and accommodating. In particular, Kaushi was one of the nicest and helpful people at the hotel.More</t>
   </si>
   <si>
+    <t>Michael G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1197096-r143195100-Holiday_Inn_Express_Hotel_Suites_Woodland_Hills-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -2142,6 +2415,9 @@
     <t>Good, clean, fairly priced hotels are hard to find in the San Fernando valley. This hotel was all of the above. Clean, Quiet and comfortable. I was able to relax after work and get a good nights sleep. I paid $117 a night which was a little expensive for a holiday inn express property, bubt it was good enough and within my budget for my business trip. The challenge was parking.It was free, but a challenge to find a parking spot. I had zero issues and would stay there again if I needed to be in that area.</t>
   </si>
   <si>
+    <t>J David A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1197096-r138020342-Holiday_Inn_Express_Hotel_Suites_Woodland_Hills-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -2160,6 +2436,9 @@
     <t>August 2012</t>
   </si>
   <si>
+    <t>nanchantress77</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1197096-r133538669-Holiday_Inn_Express_Hotel_Suites_Woodland_Hills-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -2178,6 +2457,9 @@
     <t>May 2012</t>
   </si>
   <si>
+    <t>hamed g</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1197096-r129880992-Holiday_Inn_Express_Hotel_Suites_Woodland_Hills-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -2205,6 +2487,9 @@
     <t>i stayed here about a month ago, i originally booked for 2 double beds and left a note on the reservation that i do need 2 double beds. when i get to the hotel late at night around 1am, the front desk agents tells me that they are sold out of 2 double beds and put me in king room. i was okay with until i asked for a rollaway bed and the front desk agent told me that he will charge me for the rollaway bed. they never corrected this and never called during my stay to ask me to move to a 2 double beds room. i was there for 4 nights.More</t>
   </si>
   <si>
+    <t>Onthegovalleymom</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1197096-r129862209-Holiday_Inn_Express_Hotel_Suites_Woodland_Hills-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -2226,6 +2511,9 @@
     <t>Didn't rest much here since my room was by a loading dock.  I had to listen to people unload trucks at 9:30 at night and 7:30 in the morning.  Also, the bed has a pad that is lumpy and makes noise every time you roll over since in has a plastic backing. Worst night rest ever!More</t>
   </si>
   <si>
+    <t>bigdogishere</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1197096-r128669032-Holiday_Inn_Express_Hotel_Suites_Woodland_Hills-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -2244,6 +2532,9 @@
     <t>Traveled here twice now for business and stayed here both times, one for couple of days, the other two weeks stay.  Rooms are nice and staff is very nice and I always get checked in very quickly.  Lots of places to eat on Ventura Blvd or just a mile away at the Fallbrook shopping area. Easy to reach off the 101 and commuting from here to LAX on weekends and nights takes around 30 minutes, during the week much longer around 1 hour to 2 hours.  Breakfast is fairly simple and free so not sure why some people complain, you have several places around to grab something else.  I would recommend the Jersey Mike's shop next door or the English pub down the street.More</t>
   </si>
   <si>
+    <t>KSG123</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1197096-r128444961-Holiday_Inn_Express_Hotel_Suites_Woodland_Hills-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -2259,6 +2550,9 @@
     <t>I stayed here one night on business.  The hotel staff were pleasant and appropriate.My room was quite nice and comfortable.  Noise was not an issue.  I felt quite safe here as well.I did not partake of the free breakfast, but it looked nicely put on.  Stabucks was a 2 minute walk down the street.  That was very convenient</t>
   </si>
   <si>
+    <t>salvaje838</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1197096-r126207674-Holiday_Inn_Express_Hotel_Suites_Woodland_Hills-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -2280,6 +2574,9 @@
     <t>After doing a lot of research and comparing prices and reviews, I decided this hotel was the best deal for what I was willing to spend. The hotel is close to freeway access and I definitely took into account that they had free parking as well. We spent 4 nights there and the first few days the parking lot was empty. The last night we were there the parking lot was full and the guy at the front desk was nice enough to let us park in a part of the garage that wasn't supposed to be a parking space. The alternative was parking next door at Wendy's, which we really didn't want to do. The rooms were very clean and the bed was very comfortable. The drive to L.A. takes about 20 minutes with no traffic. But if you have been to L.A. before, yo,s know there's always traffic, so make sure to take that into account.More</t>
   </si>
   <si>
+    <t>KnightHunter</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1197096-r124945401-Holiday_Inn_Express_Hotel_Suites_Woodland_Hills-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -2298,6 +2595,9 @@
     <t>We needed a place to sleep overnight that was reasonable and a short drive to West Los Angeles and this was the best we could find within 20 minutes drive. The rooms were nice and clean. The king bed was a bit soft and I woke up with a stiff back the next day. The room included a breakfast and it would have been better if they didn't bother because it looked like they weren't even trying. We've stayed at many other HI Express and have never had a bad word to say about the service or the breakfast. This place was the exception. Everything was bad from the frozen ready made simulated cheese omelet to the watered down juices. Most breakfast items had been consumed and not replenished  No bowls for cereal, no utensils until we asked. Overflowing garbage bins, generally untidy area. The single woman attendant was obviously overwhelmed. The desk manager didn't appear to notice or care. This was 8 am on a Sunday and the hotel was far from full. Disappointing.More</t>
   </si>
   <si>
+    <t>PopTopBob</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1197096-r124276998-Holiday_Inn_Express_Hotel_Suites_Woodland_Hills-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -2313,6 +2613,9 @@
     <t>Stayed 2 nights using points but had stayed here before a couple of years ago. Beautiful rooms with tv that has huge number of channels. Very comfortable stay. Room decore is really nice. Recommend.</t>
   </si>
   <si>
+    <t>iluvhunni</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1197096-r123907619-Holiday_Inn_Express_Hotel_Suites_Woodland_Hills-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -2331,6 +2634,9 @@
     <t>July 2011</t>
   </si>
   <si>
+    <t>Deanna C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1197096-r123274934-Holiday_Inn_Express_Hotel_Suites_Woodland_Hills-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -2352,6 +2658,9 @@
     <t>I recently stayed at this hotel with a soccer team.  We had a block of 16 rooms set aside and had no issue with the rooms.  We did, however, have and issue with the treatment we received as a group.  The team was looking for a place to hold the team dinner and because of football playoffs, we were unable to get into a pizza place for our large group.  There is a breakfast room that is not used in the evening.  We asked if the team could order pizza's and eat them in the breakfast room.  We were told no.  The manager at the front desk said we could sit in the lobby and eat the pizza there, which we did.  He then, however, said  beer could not be consumed in the lobby.  No big deal, the beer got put away. I should point out that there were very few other cars in the parking lot other than those from the team so I do not think the hotel was overflowing with customers and that we would be causing an inconvience by eating at tables instead of the lobby.  This hotel managment was not customer friendly and certainly did not go out of it's way to make a group that had paid for 16 rooms for two nights feel welcome.  I cannot imagine how a solo traveler would be treated.More</t>
   </si>
   <si>
+    <t>Kazoo_Bruce</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1197096-r123140330-Holiday_Inn_Express_Hotel_Suites_Woodland_Hills-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -2370,6 +2679,9 @@
     <t>Better than average Holiday Inn express. The entire property look brand new. The furnishing were very nice and the bathrooms upscale stand alone basins. Good wifi speeds. And very well lit ample underground free parking. Hotel is located in the center of Woodland Hills on Ventura Boulevard right off the Ventura (US101) freeway. The street noise while fairly loud does not seem to be detectable from the rooms. This location doesn’t have much to offer other then easy access to the area. It does however have two or three very nice restaurants within walking distance. The area seem safe at night, and I  saw several men and woman  walking after 9 pm alone. Usually a good sign of safety.The English pub just to the east two blocks was very hospitable. The wait staff and were friendly and I had a nice conversation with two of the pub guests. If you go, get the sautéed mushrooms, they are fantastic! There is a Argentine restaurant next door, which is rated very highly. Drug stores and supermarkets within ½ mile, and major shopping only a mile away. If you are working up in Thousand Oaks, the drive west is very easy in the morning.More</t>
   </si>
   <si>
+    <t>Natasha_Blue20</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1197096-r122938010-Holiday_Inn_Express_Hotel_Suites_Woodland_Hills-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -2385,6 +2697,9 @@
     <t>I used this hotel as a base to get around LA, Venice, Santa M.Spaciuos room, great channel selection. Clean, nice furniture.The shower does not have a good pressure and the internet is too slow.The breakfast is HIE pattern, was ok.I'd return to this hotel. Has easy access to the 101.</t>
   </si>
   <si>
+    <t>Pansas</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1197096-r119962371-Holiday_Inn_Express_Hotel_Suites_Woodland_Hills-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -2403,6 +2718,9 @@
     <t>October 2011</t>
   </si>
   <si>
+    <t>Viking94708</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1197096-r119371489-Holiday_Inn_Express_Hotel_Suites_Woodland_Hills-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -2424,6 +2742,9 @@
     <t>I stayed here on points and it took about 5-10 minutes to find it.  If you're familiar with that section on Ventura Blvd between Fallbrook Avenue and Topanga Canyon, it is congested and impossible to see specific businesses.  I say, look for the Wendy's, it is next/behind it.  The hotel is a recent re-do and is quiet and has probably the best cable selection I have ever seen at a hotel and I've been to many "real" 5 star hotels.  They have top notch security, so it would be hard for any sketchy types to loiter around on go straight to the rooms.  The staff are great except for this one tool, "Ali".  Highly recommended.More</t>
   </si>
   <si>
+    <t>CM2228</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1197096-r118910960-Holiday_Inn_Express_Hotel_Suites_Woodland_Hills-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -2442,6 +2763,9 @@
     <t>My partner and I stayed here for a total of 9 nights in Sep 2011.  The rooms are clean and functional - We had a normal room for 7 days and came back at the end of our trip for 2 nights in a suite.  The suite was much larger, which suited us with our huge amount of luggage!  The breakfast is complimentary but was pretty average....We only had it a couple of days and just had toast and a juice.  Parking is free, which is great.  The pool is tiny so if you are looking for a place to lounge around the pool, this would probably not be the place for you.  The only real downside to this hotel is that the free wireless cut out about every 5 minutes so we had to constantly keep logging back on.  We spoke to reception about this and they said they had re-set it but it made no difference.  They have a computer room if you get sick of the wifi playing up or need to print tickets, etc.  Right next door to the hotel is a supermarket and a burger place, which is convenient.  We would stay at this hotel again.More</t>
   </si>
   <si>
+    <t>vmiller1961</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1197096-r118151103-Holiday_Inn_Express_Hotel_Suites_Woodland_Hills-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -2457,6 +2781,9 @@
     <t>I stayed here in July 2011with my 17 year old. It was very clean and quiet. Breakfast had much more variety than I expected- pancakes,omelettes,scarmbled eggs depending on the day. Hotel staff were very courteous and friendly- definitely recommend!Exrtremely convenient for visiting the Malibu area- less than 30 minutes to the beach!</t>
   </si>
   <si>
+    <t>Tibersun23</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1197096-r117962350-Holiday_Inn_Express_Hotel_Suites_Woodland_Hills-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -2475,6 +2802,9 @@
     <t>August 2011</t>
   </si>
   <si>
+    <t>Kingofku</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1197096-r116282243-Holiday_Inn_Express_Hotel_Suites_Woodland_Hills-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -2493,6 +2823,9 @@
     <t>This is a one year new HI Express.  Rooms are comfortable and large.  Windows views are minimal as this complex is squeezed into a rather narrow lot.  Upstairs parking is very limited and it's very easy to get fooled into driving all the way to the end and discover that all the spaces are taken.  There is ample parking in the underground garage.  Recommend going that route first.  Breakfast was a bit shy north of mediocore.  Eggs tasted premade,  sausage was greasy.  Their pancake making machine was kind of unique and made decent flapjacks.  The king bed I had was adequate as best.....it was on the firm side and felt as though there was a plastic sheet beneath the fitted sheet.  I also found it odd that there was a floor drain in the bathroom that constantly gurgled from water flushing through it.  No pay tv, but oodles of free cable channels including a handful of HBO channels.  Signage for hotel is minimalist at best.  I drove right past the place when I first arrived.  Desk clerk said that the city made them take down their big sign.  This is the San Fernando Valley....there are no signage rules.  Anyway, when I'm back in the area I would consider staying here.  Hot Tip....if you looking for a good breakfast place....try Bobby's.....it's about a half-mile west from the hotel.  Great food!More</t>
   </si>
   <si>
+    <t>richnanners</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1197096-r113633283-Holiday_Inn_Express_Hotel_Suites_Woodland_Hills-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -2514,6 +2847,9 @@
     <t>Upon driving up the hotel. I noticed the Hotel is shaped like a shoe box. Thoughts started running run through my head of how I treat my shoes. I had thoughts of me be placed in a shoe rack. Like I do at home with my shoes. I checked into my room &amp; was greeted by a amonia soaked wash cloth in the bathroom. There were also towels that were wildly folded as if, my bathroom was expecting company over to my room. The air condition unit attatched to wall hummed &amp; spoke in tongues through the night. I felt I was at some sort of Southern Church Revival. I also had to hear the guests rant &amp; rave till midnight. The walls were so thin they could've been roomates. Trying to find channels on the television I felt that I was trying to navigate the internet for the first time. I had to leave it one channel for fear that the television would be mocking me. trying to get on the internet was like getting directions to climb Mt. Everest. Thank god, I have a wireless card.More</t>
   </si>
   <si>
+    <t>Av84u</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1197096-r113391357-Holiday_Inn_Express_Hotel_Suites_Woodland_Hills-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -2532,6 +2868,9 @@
     <t>Good hotel.  Great on and off access to Hi-way 101 and over the hill to the beach via Topanga Canyon.  Lot's of choices to eat in and around area.  Westfield shopping "mecca" just a few miles away...Parking was great, AND FREE~ The KING SUITE was nice and clean,  with a comfortable bed, a good size bathroom,  a good size TV, with two refrigerator's, and a microwave...but the sofa bed was pretty bad...front desk staff ,and the girls who help out with the breakfast, in the am, were all wonderful!!!  Housekeeping was great, and delivered towels, pillows and an extra blanket, and made beds, never heard a vac...that was nice!!!Stayed with our family of 4, and thought it was good for our needs.More</t>
   </si>
   <si>
+    <t>sast_traveller</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1197096-r112744595-Holiday_Inn_Express_Hotel_Suites_Woodland_Hills-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -2550,6 +2889,9 @@
     <t>May 2011</t>
   </si>
   <si>
+    <t>Extreme122</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1197096-r99332028-Holiday_Inn_Express_Hotel_Suites_Woodland_Hills-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -2571,6 +2913,9 @@
     <t xml:space="preserve"> traveled with friends</t>
   </si>
   <si>
+    <t>Floweringplant</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1197096-r99036046-Holiday_Inn_Express_Hotel_Suites_Woodland_Hills-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -2586,6 +2931,9 @@
     <t>My son needed a place to stay while we were remodeling his new wheelchair accessible bathroom &amp; bedroom. The staff, management &amp; housekeeping services couldn't have been more accommodating for all. They moved things around &amp; made life easier for him &amp; us. Not many motels have all the amenities for paraplegics... but with a newer facility &amp; great location; this is a winner!</t>
   </si>
   <si>
+    <t>Jon E</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1197096-r84659270-Holiday_Inn_Express_Hotel_Suites_Woodland_Hills-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -2601,6 +2949,9 @@
     <t>Clean, new, and a bargain.Pros: easy access from the 101; clean with that "new room" smell; free decently fast Internet; helpful, pleasant front desk staff; easy covered parking; good rate ($109 IIRC)Cons: uninspiring breakfast that drew an equally uninspiring breakfast crowd; awful on-room coffeeCobs</t>
   </si>
   <si>
+    <t>BusyBee07</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1197096-r60911616-Holiday_Inn_Express_Hotel_Suites_Woodland_Hills-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -2622,6 +2973,9 @@
     <t>Our family took a 4 day trip to visit family and to sightsee. Our room was amazingly clean and new.  You could smell the new carpet as soon as you got off the elevator. Our room looked exactly like the pictures they have posted. The beds were more comfortable than the Paris Hotel, Las Vegas. The only down side was the air conditioner was loud during the first night. The second night with the weather being nice we turned off the a/c and slept with the window cracked opened. The free breakfast was good for being free. We mostly stuck with the cinnamon rolls, biscuits and gravy, yogurt, juice and coffee. The staff was friendly and helpful. We will definitely come back again when we return to L.A.More</t>
   </si>
   <si>
+    <t>professorroyhinkley</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1197096-r57129103-Holiday_Inn_Express_Hotel_Suites_Woodland_Hills-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -2638,6 +2992,9 @@
   </si>
   <si>
     <t>February 2010</t>
+  </si>
+  <si>
+    <t>waytoofun</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1197096-r52145153-Holiday_Inn_Express_Hotel_Suites_Woodland_Hills-Los_Angeles_California.html</t>
@@ -3163,43 +3520,47 @@
       <c r="A2" t="n">
         <v>58520</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>15460</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>3</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="n">
         <v>3</v>
@@ -3217,56 +3578,60 @@
         <v>0</v>
       </c>
       <c r="W2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Y2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>58520</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>192434</v>
+      </c>
+      <c r="C3" t="s">
+        <v>58</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="J3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M3" t="n">
         <v>4</v>
       </c>
       <c r="N3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="O3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -3284,50 +3649,54 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>58520</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>192435</v>
+      </c>
+      <c r="C4" t="s">
+        <v>67</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="J4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="K4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="L4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="M4" t="n">
         <v>1</v>
       </c>
       <c r="N4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="O4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P4" t="n">
         <v>1</v>
@@ -3345,56 +3714,60 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="X4" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Y4" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>58520</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>192436</v>
+      </c>
+      <c r="C5" t="s">
+        <v>78</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="J5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="K5" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="L5" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="M5" t="n">
         <v>5</v>
       </c>
       <c r="N5" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="O5" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -3414,50 +3787,54 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>58520</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>39245</v>
+      </c>
+      <c r="C6" t="s">
+        <v>86</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="J6" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="K6" t="s">
+        <v>90</v>
+      </c>
+      <c r="L6" t="s">
+        <v>91</v>
+      </c>
+      <c r="M6" t="n">
+        <v>4</v>
+      </c>
+      <c r="N6" t="s">
+        <v>92</v>
+      </c>
+      <c r="O6" t="s">
         <v>85</v>
-      </c>
-      <c r="L6" t="s">
-        <v>86</v>
-      </c>
-      <c r="M6" t="n">
-        <v>4</v>
-      </c>
-      <c r="N6" t="s">
-        <v>87</v>
-      </c>
-      <c r="O6" t="s">
-        <v>81</v>
       </c>
       <c r="P6" t="n">
         <v>3</v>
@@ -3477,50 +3854,54 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>58520</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>192437</v>
+      </c>
+      <c r="C7" t="s">
+        <v>93</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="J7" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="K7" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="L7" t="s">
+        <v>98</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
         <v>92</v>
       </c>
-      <c r="M7" t="n">
-        <v>5</v>
-      </c>
-      <c r="N7" t="s">
-        <v>87</v>
-      </c>
       <c r="O7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -3540,50 +3921,54 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>58520</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>192438</v>
+      </c>
+      <c r="C8" t="s">
+        <v>99</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="J8" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="K8" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="L8" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="M8" t="n">
         <v>5</v>
       </c>
       <c r="N8" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="O8" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="n">
@@ -3601,50 +3986,54 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>58520</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>192439</v>
+      </c>
+      <c r="C9" t="s">
+        <v>106</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="J9" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="K9" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="L9" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="M9" t="n">
         <v>4</v>
       </c>
       <c r="N9" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="O9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P9" t="n">
         <v>5</v>
@@ -3662,50 +4051,54 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>58520</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>192440</v>
+      </c>
+      <c r="C10" t="s">
+        <v>114</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="J10" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="K10" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="L10" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="M10" t="n">
         <v>3</v>
       </c>
       <c r="N10" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="O10" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
@@ -3717,56 +4110,60 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="X10" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="Y10" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>58520</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>192441</v>
+      </c>
+      <c r="C11" t="s">
+        <v>123</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="J11" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="K11" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="L11" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="M11" t="n">
         <v>4</v>
       </c>
       <c r="N11" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="O11" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -3780,50 +4177,54 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>58520</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>192442</v>
+      </c>
+      <c r="C12" t="s">
+        <v>130</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="J12" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="K12" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="L12" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="M12" t="n">
         <v>4</v>
       </c>
       <c r="N12" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="O12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="n">
@@ -3843,50 +4244,54 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>58520</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>192443</v>
+      </c>
+      <c r="C13" t="s">
+        <v>136</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="J13" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="K13" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="L13" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
       <c r="N13" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="O13" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
@@ -3898,56 +4303,60 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="X13" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="Y13" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>58520</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>192444</v>
+      </c>
+      <c r="C14" t="s">
+        <v>145</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="J14" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="K14" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="L14" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="M14" t="n">
         <v>4</v>
       </c>
       <c r="N14" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="O14" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
@@ -3967,50 +4376,54 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>58520</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>192445</v>
+      </c>
+      <c r="C15" t="s">
+        <v>153</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>140</v>
+        <v>154</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>141</v>
+        <v>155</v>
       </c>
       <c r="J15" t="s">
-        <v>142</v>
+        <v>156</v>
       </c>
       <c r="K15" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="L15" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="M15" t="n">
         <v>5</v>
       </c>
       <c r="N15" t="s">
-        <v>145</v>
+        <v>159</v>
       </c>
       <c r="O15" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
@@ -4030,50 +4443,54 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>58520</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>192446</v>
+      </c>
+      <c r="C16" t="s">
+        <v>160</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>146</v>
+        <v>161</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="J16" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="K16" t="s">
-        <v>149</v>
+        <v>164</v>
       </c>
       <c r="L16" t="s">
-        <v>150</v>
+        <v>165</v>
       </c>
       <c r="M16" t="n">
         <v>2</v>
       </c>
       <c r="N16" t="s">
-        <v>151</v>
+        <v>166</v>
       </c>
       <c r="O16" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="P16" t="n">
         <v>2</v>
@@ -4091,56 +4508,60 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>152</v>
+        <v>167</v>
       </c>
       <c r="X16" t="s">
-        <v>153</v>
+        <v>168</v>
       </c>
       <c r="Y16" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>58520</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>192447</v>
+      </c>
+      <c r="C17" t="s">
+        <v>170</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>155</v>
+        <v>171</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>156</v>
+        <v>172</v>
       </c>
       <c r="J17" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
       <c r="K17" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
       <c r="L17" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="M17" t="n">
         <v>3</v>
       </c>
       <c r="N17" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="O17" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="n">
@@ -4156,56 +4577,60 @@
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>160</v>
+        <v>176</v>
       </c>
       <c r="X17" t="s">
-        <v>161</v>
+        <v>177</v>
       </c>
       <c r="Y17" t="s">
-        <v>162</v>
+        <v>178</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>58520</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>192448</v>
+      </c>
+      <c r="C18" t="s">
+        <v>179</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>163</v>
+        <v>180</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>164</v>
+        <v>181</v>
       </c>
       <c r="J18" t="s">
-        <v>165</v>
+        <v>182</v>
       </c>
       <c r="K18" t="s">
-        <v>166</v>
+        <v>183</v>
       </c>
       <c r="L18" t="s">
-        <v>167</v>
+        <v>184</v>
       </c>
       <c r="M18" t="n">
         <v>2</v>
       </c>
       <c r="N18" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="O18" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
@@ -4217,56 +4642,60 @@
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>169</v>
+        <v>186</v>
       </c>
       <c r="X18" t="s">
-        <v>170</v>
+        <v>187</v>
       </c>
       <c r="Y18" t="s">
-        <v>171</v>
+        <v>188</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>58520</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>192449</v>
+      </c>
+      <c r="C19" t="s">
+        <v>189</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>172</v>
+        <v>190</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>173</v>
+        <v>191</v>
       </c>
       <c r="J19" t="s">
-        <v>174</v>
+        <v>192</v>
       </c>
       <c r="K19" t="s">
-        <v>175</v>
+        <v>193</v>
       </c>
       <c r="L19" t="s">
-        <v>176</v>
+        <v>194</v>
       </c>
       <c r="M19" t="n">
         <v>4</v>
       </c>
       <c r="N19" t="s">
-        <v>177</v>
+        <v>195</v>
       </c>
       <c r="O19" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P19" t="n">
         <v>4</v>
@@ -4286,50 +4715,54 @@
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>176</v>
+        <v>194</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>58520</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>192450</v>
+      </c>
+      <c r="C20" t="s">
+        <v>196</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>178</v>
+        <v>197</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>179</v>
+        <v>198</v>
       </c>
       <c r="J20" t="s">
-        <v>180</v>
+        <v>199</v>
       </c>
       <c r="K20" t="s">
-        <v>181</v>
+        <v>200</v>
       </c>
       <c r="L20" t="s">
-        <v>182</v>
+        <v>201</v>
       </c>
       <c r="M20" t="n">
         <v>4</v>
       </c>
       <c r="N20" t="s">
-        <v>183</v>
+        <v>202</v>
       </c>
       <c r="O20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="s"/>
@@ -4343,50 +4776,54 @@
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>182</v>
+        <v>201</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>58520</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>192451</v>
+      </c>
+      <c r="C21" t="s">
+        <v>203</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>184</v>
+        <v>204</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>185</v>
+        <v>205</v>
       </c>
       <c r="J21" t="s">
-        <v>186</v>
+        <v>206</v>
       </c>
       <c r="K21" t="s">
-        <v>187</v>
+        <v>207</v>
       </c>
       <c r="L21" t="s">
-        <v>188</v>
+        <v>208</v>
       </c>
       <c r="M21" t="n">
         <v>5</v>
       </c>
       <c r="N21" t="s">
-        <v>183</v>
+        <v>202</v>
       </c>
       <c r="O21" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P21" t="n">
         <v>5</v>
@@ -4406,50 +4843,54 @@
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>188</v>
+        <v>208</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>58520</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>192452</v>
+      </c>
+      <c r="C22" t="s">
+        <v>209</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>189</v>
+        <v>210</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>190</v>
+        <v>211</v>
       </c>
       <c r="J22" t="s">
-        <v>191</v>
+        <v>212</v>
       </c>
       <c r="K22" t="s">
-        <v>192</v>
+        <v>213</v>
       </c>
       <c r="L22" t="s">
-        <v>193</v>
+        <v>214</v>
       </c>
       <c r="M22" t="n">
         <v>4</v>
       </c>
       <c r="N22" t="s">
-        <v>194</v>
+        <v>215</v>
       </c>
       <c r="O22" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="s"/>
@@ -4461,56 +4902,60 @@
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>195</v>
+        <v>216</v>
       </c>
       <c r="X22" t="s">
-        <v>196</v>
+        <v>217</v>
       </c>
       <c r="Y22" t="s">
-        <v>197</v>
+        <v>218</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>58520</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>9635</v>
+      </c>
+      <c r="C23" t="s">
+        <v>219</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>198</v>
+        <v>220</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>199</v>
+        <v>221</v>
       </c>
       <c r="J23" t="s">
-        <v>200</v>
+        <v>222</v>
       </c>
       <c r="K23" t="s">
-        <v>201</v>
+        <v>223</v>
       </c>
       <c r="L23" t="s">
-        <v>202</v>
+        <v>224</v>
       </c>
       <c r="M23" t="n">
         <v>4</v>
       </c>
       <c r="N23" t="s">
-        <v>203</v>
+        <v>225</v>
       </c>
       <c r="O23" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="s"/>
@@ -4524,50 +4969,54 @@
       <c r="W23" t="s"/>
       <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>202</v>
+        <v>224</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>58520</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>2349</v>
+      </c>
+      <c r="C24" t="s">
+        <v>226</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>204</v>
+        <v>227</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>205</v>
+        <v>228</v>
       </c>
       <c r="J24" t="s">
-        <v>206</v>
+        <v>229</v>
       </c>
       <c r="K24" t="s">
-        <v>207</v>
+        <v>230</v>
       </c>
       <c r="L24" t="s">
-        <v>208</v>
+        <v>231</v>
       </c>
       <c r="M24" t="n">
         <v>4</v>
       </c>
       <c r="N24" t="s">
-        <v>209</v>
+        <v>232</v>
       </c>
       <c r="O24" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P24" t="n">
         <v>4</v>
@@ -4585,56 +5034,60 @@
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>210</v>
+        <v>233</v>
       </c>
       <c r="X24" t="s">
-        <v>211</v>
+        <v>234</v>
       </c>
       <c r="Y24" t="s">
-        <v>212</v>
+        <v>235</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>58520</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>192453</v>
+      </c>
+      <c r="C25" t="s">
+        <v>236</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>213</v>
+        <v>237</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>214</v>
+        <v>238</v>
       </c>
       <c r="J25" t="s">
-        <v>215</v>
+        <v>239</v>
       </c>
       <c r="K25" t="s">
-        <v>216</v>
+        <v>240</v>
       </c>
       <c r="L25" t="s">
-        <v>217</v>
+        <v>241</v>
       </c>
       <c r="M25" t="n">
         <v>5</v>
       </c>
       <c r="N25" t="s">
-        <v>218</v>
+        <v>242</v>
       </c>
       <c r="O25" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="P25" t="s"/>
       <c r="Q25" t="s"/>
@@ -4650,56 +5103,60 @@
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>219</v>
+        <v>243</v>
       </c>
       <c r="X25" t="s">
-        <v>220</v>
+        <v>244</v>
       </c>
       <c r="Y25" t="s">
-        <v>221</v>
+        <v>245</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>58520</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>192454</v>
+      </c>
+      <c r="C26" t="s">
+        <v>246</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>222</v>
+        <v>247</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>223</v>
+        <v>248</v>
       </c>
       <c r="J26" t="s">
-        <v>224</v>
+        <v>249</v>
       </c>
       <c r="K26" t="s">
-        <v>225</v>
+        <v>250</v>
       </c>
       <c r="L26" t="s">
-        <v>226</v>
+        <v>251</v>
       </c>
       <c r="M26" t="n">
         <v>5</v>
       </c>
       <c r="N26" t="s">
-        <v>218</v>
+        <v>242</v>
       </c>
       <c r="O26" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P26" t="n">
         <v>4</v>
@@ -4715,47 +5172,51 @@
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>227</v>
+        <v>252</v>
       </c>
       <c r="X26" t="s">
-        <v>228</v>
+        <v>253</v>
       </c>
       <c r="Y26" t="s">
-        <v>229</v>
+        <v>254</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>58520</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>192455</v>
+      </c>
+      <c r="C27" t="s">
+        <v>255</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>230</v>
+        <v>256</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>231</v>
+        <v>257</v>
       </c>
       <c r="J27" t="s">
-        <v>232</v>
+        <v>258</v>
       </c>
       <c r="K27" t="s">
-        <v>233</v>
+        <v>259</v>
       </c>
       <c r="L27" t="s">
-        <v>234</v>
+        <v>260</v>
       </c>
       <c r="M27" t="n">
         <v>4</v>
@@ -4774,50 +5235,54 @@
       <c r="W27" t="s"/>
       <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>234</v>
+        <v>260</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>58520</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>79935</v>
+      </c>
+      <c r="C28" t="s">
+        <v>261</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>235</v>
+        <v>262</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>236</v>
+        <v>263</v>
       </c>
       <c r="J28" t="s">
-        <v>237</v>
+        <v>264</v>
       </c>
       <c r="K28" t="s">
-        <v>238</v>
+        <v>265</v>
       </c>
       <c r="L28" t="s">
-        <v>239</v>
+        <v>266</v>
       </c>
       <c r="M28" t="n">
         <v>4</v>
       </c>
       <c r="N28" t="s">
-        <v>209</v>
+        <v>232</v>
       </c>
       <c r="O28" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P28" t="s"/>
       <c r="Q28" t="s"/>
@@ -4829,56 +5294,60 @@
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>240</v>
+        <v>267</v>
       </c>
       <c r="X28" t="s">
-        <v>241</v>
+        <v>268</v>
       </c>
       <c r="Y28" t="s">
-        <v>242</v>
+        <v>269</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>58520</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>192456</v>
+      </c>
+      <c r="C29" t="s">
+        <v>270</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>243</v>
+        <v>271</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>244</v>
+        <v>272</v>
       </c>
       <c r="J29" t="s">
-        <v>245</v>
+        <v>273</v>
       </c>
       <c r="K29" t="s">
-        <v>246</v>
+        <v>274</v>
       </c>
       <c r="L29" t="s">
-        <v>247</v>
+        <v>275</v>
       </c>
       <c r="M29" t="n">
         <v>5</v>
       </c>
       <c r="N29" t="s">
-        <v>209</v>
+        <v>232</v>
       </c>
       <c r="O29" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P29" t="s"/>
       <c r="Q29" t="n">
@@ -4894,56 +5363,60 @@
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>248</v>
+        <v>276</v>
       </c>
       <c r="X29" t="s">
-        <v>249</v>
+        <v>277</v>
       </c>
       <c r="Y29" t="s">
-        <v>250</v>
+        <v>278</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>58520</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>118516</v>
+      </c>
+      <c r="C30" t="s">
+        <v>279</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>251</v>
+        <v>280</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>252</v>
+        <v>281</v>
       </c>
       <c r="J30" t="s">
-        <v>253</v>
+        <v>282</v>
       </c>
       <c r="K30" t="s">
-        <v>254</v>
+        <v>283</v>
       </c>
       <c r="L30" t="s">
-        <v>255</v>
+        <v>284</v>
       </c>
       <c r="M30" t="n">
         <v>4</v>
       </c>
       <c r="N30" t="s">
-        <v>256</v>
+        <v>285</v>
       </c>
       <c r="O30" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P30" t="s"/>
       <c r="Q30" t="s"/>
@@ -4959,56 +5432,60 @@
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>257</v>
+        <v>286</v>
       </c>
       <c r="X30" t="s">
-        <v>258</v>
+        <v>287</v>
       </c>
       <c r="Y30" t="s">
-        <v>259</v>
+        <v>288</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>58520</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>22683</v>
+      </c>
+      <c r="C31" t="s">
+        <v>289</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>260</v>
+        <v>290</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>261</v>
+        <v>291</v>
       </c>
       <c r="J31" t="s">
-        <v>262</v>
+        <v>292</v>
       </c>
       <c r="K31" t="s">
-        <v>263</v>
+        <v>293</v>
       </c>
       <c r="L31" t="s">
-        <v>264</v>
+        <v>294</v>
       </c>
       <c r="M31" t="n">
         <v>3</v>
       </c>
       <c r="N31" t="s">
-        <v>265</v>
+        <v>295</v>
       </c>
       <c r="O31" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P31" t="s"/>
       <c r="Q31" t="s"/>
@@ -5020,56 +5497,60 @@
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>266</v>
+        <v>296</v>
       </c>
       <c r="X31" t="s">
-        <v>267</v>
+        <v>297</v>
       </c>
       <c r="Y31" t="s">
-        <v>268</v>
+        <v>298</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>58520</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>51332</v>
+      </c>
+      <c r="C32" t="s">
+        <v>299</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>269</v>
+        <v>300</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>270</v>
+        <v>301</v>
       </c>
       <c r="J32" t="s">
-        <v>271</v>
+        <v>302</v>
       </c>
       <c r="K32" t="s">
-        <v>272</v>
+        <v>303</v>
       </c>
       <c r="L32" t="s">
-        <v>273</v>
+        <v>304</v>
       </c>
       <c r="M32" t="n">
         <v>3</v>
       </c>
       <c r="N32" t="s">
-        <v>274</v>
+        <v>305</v>
       </c>
       <c r="O32" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="P32" t="s"/>
       <c r="Q32" t="s"/>
@@ -5081,56 +5562,60 @@
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>275</v>
+        <v>306</v>
       </c>
       <c r="X32" t="s">
-        <v>276</v>
+        <v>307</v>
       </c>
       <c r="Y32" t="s">
-        <v>277</v>
+        <v>308</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>58520</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>192457</v>
+      </c>
+      <c r="C33" t="s">
+        <v>309</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>278</v>
+        <v>310</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>279</v>
+        <v>311</v>
       </c>
       <c r="J33" t="s">
-        <v>280</v>
+        <v>312</v>
       </c>
       <c r="K33" t="s">
-        <v>281</v>
+        <v>313</v>
       </c>
       <c r="L33" t="s">
-        <v>282</v>
+        <v>314</v>
       </c>
       <c r="M33" t="n">
         <v>4</v>
       </c>
       <c r="N33" t="s">
-        <v>283</v>
+        <v>315</v>
       </c>
       <c r="O33" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P33" t="s"/>
       <c r="Q33" t="s"/>
@@ -5144,50 +5629,54 @@
       <c r="W33" t="s"/>
       <c r="X33" t="s"/>
       <c r="Y33" t="s">
-        <v>284</v>
+        <v>316</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>58520</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>192458</v>
+      </c>
+      <c r="C34" t="s">
+        <v>317</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>285</v>
+        <v>318</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>286</v>
+        <v>319</v>
       </c>
       <c r="J34" t="s">
-        <v>287</v>
+        <v>320</v>
       </c>
       <c r="K34" t="s">
-        <v>288</v>
+        <v>321</v>
       </c>
       <c r="L34" t="s">
-        <v>289</v>
+        <v>322</v>
       </c>
       <c r="M34" t="n">
         <v>2</v>
       </c>
       <c r="N34" t="s">
-        <v>283</v>
+        <v>315</v>
       </c>
       <c r="O34" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P34" t="n">
         <v>2</v>
@@ -5205,47 +5694,51 @@
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>290</v>
+        <v>323</v>
       </c>
       <c r="X34" t="s">
-        <v>291</v>
+        <v>324</v>
       </c>
       <c r="Y34" t="s">
-        <v>292</v>
+        <v>325</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>58520</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>192459</v>
+      </c>
+      <c r="C35" t="s">
+        <v>326</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>293</v>
+        <v>327</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s">
-        <v>294</v>
+        <v>328</v>
       </c>
       <c r="J35" t="s">
-        <v>295</v>
+        <v>329</v>
       </c>
       <c r="K35" t="s">
-        <v>296</v>
+        <v>330</v>
       </c>
       <c r="L35" t="s">
-        <v>297</v>
+        <v>331</v>
       </c>
       <c r="M35" t="n">
         <v>2</v>
@@ -5262,56 +5755,60 @@
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>298</v>
+        <v>332</v>
       </c>
       <c r="X35" t="s">
-        <v>299</v>
+        <v>333</v>
       </c>
       <c r="Y35" t="s">
-        <v>300</v>
+        <v>334</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>58520</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>192460</v>
+      </c>
+      <c r="C36" t="s">
+        <v>335</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>301</v>
+        <v>336</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I36" t="s">
-        <v>302</v>
+        <v>337</v>
       </c>
       <c r="J36" t="s">
-        <v>303</v>
+        <v>338</v>
       </c>
       <c r="K36" t="s">
-        <v>304</v>
+        <v>339</v>
       </c>
       <c r="L36" t="s">
-        <v>305</v>
+        <v>340</v>
       </c>
       <c r="M36" t="n">
         <v>3</v>
       </c>
       <c r="N36" t="s">
-        <v>306</v>
+        <v>341</v>
       </c>
       <c r="O36" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P36" t="s"/>
       <c r="Q36" t="s"/>
@@ -5323,56 +5820,60 @@
         <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>307</v>
+        <v>342</v>
       </c>
       <c r="X36" t="s">
-        <v>308</v>
+        <v>343</v>
       </c>
       <c r="Y36" t="s">
-        <v>309</v>
+        <v>344</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>58520</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>181866</v>
+      </c>
+      <c r="C37" t="s">
+        <v>345</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>310</v>
+        <v>346</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I37" t="s">
-        <v>311</v>
+        <v>347</v>
       </c>
       <c r="J37" t="s">
-        <v>312</v>
+        <v>348</v>
       </c>
       <c r="K37" t="s">
-        <v>313</v>
+        <v>349</v>
       </c>
       <c r="L37" t="s">
-        <v>314</v>
+        <v>350</v>
       </c>
       <c r="M37" t="n">
         <v>4</v>
       </c>
       <c r="N37" t="s">
-        <v>315</v>
+        <v>351</v>
       </c>
       <c r="O37" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="P37" t="s"/>
       <c r="Q37" t="s"/>
@@ -5390,50 +5891,54 @@
       <c r="W37" t="s"/>
       <c r="X37" t="s"/>
       <c r="Y37" t="s">
-        <v>316</v>
+        <v>352</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>58520</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>192461</v>
+      </c>
+      <c r="C38" t="s">
+        <v>353</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>317</v>
+        <v>354</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I38" t="s">
-        <v>318</v>
+        <v>355</v>
       </c>
       <c r="J38" t="s">
-        <v>319</v>
+        <v>356</v>
       </c>
       <c r="K38" t="s">
-        <v>320</v>
+        <v>357</v>
       </c>
       <c r="L38" t="s">
-        <v>321</v>
+        <v>358</v>
       </c>
       <c r="M38" t="n">
         <v>4</v>
       </c>
       <c r="N38" t="s">
-        <v>322</v>
+        <v>359</v>
       </c>
       <c r="O38" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P38" t="s"/>
       <c r="Q38" t="s"/>
@@ -5447,50 +5952,54 @@
       <c r="W38" t="s"/>
       <c r="X38" t="s"/>
       <c r="Y38" t="s">
-        <v>321</v>
+        <v>358</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>58520</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>192462</v>
+      </c>
+      <c r="C39" t="s">
+        <v>360</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>323</v>
+        <v>361</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I39" t="s">
-        <v>324</v>
+        <v>362</v>
       </c>
       <c r="J39" t="s">
-        <v>325</v>
+        <v>363</v>
       </c>
       <c r="K39" t="s">
-        <v>326</v>
+        <v>364</v>
       </c>
       <c r="L39" t="s">
-        <v>327</v>
+        <v>365</v>
       </c>
       <c r="M39" t="n">
         <v>4</v>
       </c>
       <c r="N39" t="s">
-        <v>328</v>
+        <v>366</v>
       </c>
       <c r="O39" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P39" t="n">
         <v>3</v>
@@ -5508,50 +6017,54 @@
       <c r="W39" t="s"/>
       <c r="X39" t="s"/>
       <c r="Y39" t="s">
-        <v>329</v>
+        <v>367</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>58520</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>1665</v>
+      </c>
+      <c r="C40" t="s">
+        <v>368</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F40" t="s">
-        <v>330</v>
+        <v>369</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I40" t="s">
-        <v>331</v>
+        <v>370</v>
       </c>
       <c r="J40" t="s">
-        <v>332</v>
+        <v>371</v>
       </c>
       <c r="K40" t="s">
-        <v>333</v>
+        <v>372</v>
       </c>
       <c r="L40" t="s">
-        <v>334</v>
+        <v>373</v>
       </c>
       <c r="M40" t="n">
         <v>3</v>
       </c>
       <c r="N40" t="s">
-        <v>328</v>
+        <v>366</v>
       </c>
       <c r="O40" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P40" t="n">
         <v>3</v>
@@ -5567,56 +6080,60 @@
         <v>0</v>
       </c>
       <c r="W40" t="s">
-        <v>335</v>
+        <v>374</v>
       </c>
       <c r="X40" t="s">
-        <v>336</v>
+        <v>375</v>
       </c>
       <c r="Y40" t="s">
-        <v>337</v>
+        <v>376</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>58520</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>192463</v>
+      </c>
+      <c r="C41" t="s">
+        <v>377</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F41" t="s">
-        <v>338</v>
+        <v>378</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I41" t="s">
-        <v>339</v>
+        <v>379</v>
       </c>
       <c r="J41" t="s">
-        <v>340</v>
+        <v>380</v>
       </c>
       <c r="K41" t="s">
-        <v>341</v>
+        <v>381</v>
       </c>
       <c r="L41" t="s">
-        <v>342</v>
+        <v>382</v>
       </c>
       <c r="M41" t="n">
         <v>4</v>
       </c>
       <c r="N41" t="s">
-        <v>328</v>
+        <v>366</v>
       </c>
       <c r="O41" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="P41" t="n">
         <v>4</v>
@@ -5636,50 +6153,54 @@
       <c r="W41" t="s"/>
       <c r="X41" t="s"/>
       <c r="Y41" t="s">
-        <v>342</v>
+        <v>382</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>58520</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>66626</v>
+      </c>
+      <c r="C42" t="s">
+        <v>383</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F42" t="s">
-        <v>343</v>
+        <v>384</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I42" t="s">
-        <v>344</v>
+        <v>385</v>
       </c>
       <c r="J42" t="s">
-        <v>345</v>
+        <v>386</v>
       </c>
       <c r="K42" t="s">
-        <v>346</v>
+        <v>387</v>
       </c>
       <c r="L42" t="s">
-        <v>347</v>
+        <v>388</v>
       </c>
       <c r="M42" t="n">
         <v>4</v>
       </c>
       <c r="N42" t="s">
-        <v>348</v>
+        <v>389</v>
       </c>
       <c r="O42" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="P42" t="s"/>
       <c r="Q42" t="s"/>
@@ -5697,7 +6218,7 @@
       <c r="W42" t="s"/>
       <c r="X42" t="s"/>
       <c r="Y42" t="s">
-        <v>349</v>
+        <v>390</v>
       </c>
     </row>
     <row r="43">
@@ -5710,37 +6231,37 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F43" t="s">
-        <v>350</v>
+        <v>391</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I43" t="s">
-        <v>351</v>
+        <v>392</v>
       </c>
       <c r="J43" t="s">
-        <v>352</v>
+        <v>393</v>
       </c>
       <c r="K43" t="s">
-        <v>353</v>
+        <v>394</v>
       </c>
       <c r="L43" t="s">
-        <v>354</v>
+        <v>395</v>
       </c>
       <c r="M43" t="n">
         <v>4</v>
       </c>
       <c r="N43" t="s">
-        <v>355</v>
+        <v>396</v>
       </c>
       <c r="O43" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="P43" t="n">
         <v>4</v>
@@ -5760,50 +6281,54 @@
       <c r="W43" t="s"/>
       <c r="X43" t="s"/>
       <c r="Y43" t="s">
-        <v>356</v>
+        <v>397</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>58520</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>192464</v>
+      </c>
+      <c r="C44" t="s">
+        <v>398</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F44" t="s">
-        <v>357</v>
+        <v>399</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I44" t="s">
-        <v>358</v>
+        <v>400</v>
       </c>
       <c r="J44" t="s">
-        <v>359</v>
+        <v>401</v>
       </c>
       <c r="K44" t="s">
-        <v>360</v>
+        <v>402</v>
       </c>
       <c r="L44" t="s">
-        <v>361</v>
+        <v>403</v>
       </c>
       <c r="M44" t="n">
         <v>4</v>
       </c>
       <c r="N44" t="s">
-        <v>362</v>
+        <v>404</v>
       </c>
       <c r="O44" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P44" t="s"/>
       <c r="Q44" t="s"/>
@@ -5823,50 +6348,54 @@
       <c r="W44" t="s"/>
       <c r="X44" t="s"/>
       <c r="Y44" t="s">
-        <v>363</v>
+        <v>405</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>58520</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>1688</v>
+      </c>
+      <c r="C45" t="s">
+        <v>406</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F45" t="s">
-        <v>364</v>
+        <v>407</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I45" t="s">
-        <v>365</v>
+        <v>408</v>
       </c>
       <c r="J45" t="s">
-        <v>359</v>
+        <v>401</v>
       </c>
       <c r="K45" t="s">
-        <v>366</v>
+        <v>409</v>
       </c>
       <c r="L45" t="s">
-        <v>367</v>
+        <v>410</v>
       </c>
       <c r="M45" t="n">
         <v>4</v>
       </c>
       <c r="N45" t="s">
-        <v>362</v>
+        <v>404</v>
       </c>
       <c r="O45" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="P45" t="s"/>
       <c r="Q45" t="s"/>
@@ -5886,50 +6415,54 @@
       <c r="W45" t="s"/>
       <c r="X45" t="s"/>
       <c r="Y45" t="s">
-        <v>368</v>
+        <v>411</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>58520</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>192465</v>
+      </c>
+      <c r="C46" t="s">
+        <v>412</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>369</v>
+        <v>413</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I46" t="s">
-        <v>370</v>
+        <v>414</v>
       </c>
       <c r="J46" t="s">
-        <v>371</v>
+        <v>415</v>
       </c>
       <c r="K46" t="s">
-        <v>372</v>
+        <v>416</v>
       </c>
       <c r="L46" t="s">
-        <v>373</v>
+        <v>417</v>
       </c>
       <c r="M46" t="n">
         <v>4</v>
       </c>
       <c r="N46" t="s">
-        <v>348</v>
+        <v>389</v>
       </c>
       <c r="O46" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="P46" t="s"/>
       <c r="Q46" t="s"/>
@@ -5943,41 +6476,45 @@
       <c r="W46" t="s"/>
       <c r="X46" t="s"/>
       <c r="Y46" t="s">
-        <v>374</v>
+        <v>418</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>58520</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>192466</v>
+      </c>
+      <c r="C47" t="s">
+        <v>419</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F47" t="s">
-        <v>375</v>
+        <v>420</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I47" t="s">
-        <v>376</v>
+        <v>421</v>
       </c>
       <c r="J47" t="s">
-        <v>377</v>
+        <v>422</v>
       </c>
       <c r="K47" t="s">
-        <v>378</v>
+        <v>423</v>
       </c>
       <c r="L47" t="s">
-        <v>379</v>
+        <v>424</v>
       </c>
       <c r="M47" t="n">
         <v>4</v>
@@ -5994,56 +6531,60 @@
         <v>0</v>
       </c>
       <c r="W47" t="s">
-        <v>380</v>
+        <v>425</v>
       </c>
       <c r="X47" t="s">
-        <v>381</v>
+        <v>426</v>
       </c>
       <c r="Y47" t="s">
-        <v>382</v>
+        <v>427</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>58520</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>192467</v>
+      </c>
+      <c r="C48" t="s">
+        <v>428</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F48" t="s">
-        <v>383</v>
+        <v>429</v>
       </c>
       <c r="G48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I48" t="s">
-        <v>384</v>
+        <v>430</v>
       </c>
       <c r="J48" t="s">
-        <v>385</v>
+        <v>431</v>
       </c>
       <c r="K48" t="s">
-        <v>386</v>
+        <v>432</v>
       </c>
       <c r="L48" t="s">
-        <v>387</v>
+        <v>433</v>
       </c>
       <c r="M48" t="n">
         <v>3</v>
       </c>
       <c r="N48" t="s">
-        <v>388</v>
+        <v>434</v>
       </c>
       <c r="O48" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="P48" t="n">
         <v>3</v>
@@ -6061,56 +6602,60 @@
         <v>0</v>
       </c>
       <c r="W48" t="s">
-        <v>389</v>
+        <v>435</v>
       </c>
       <c r="X48" t="s">
-        <v>390</v>
+        <v>436</v>
       </c>
       <c r="Y48" t="s">
-        <v>391</v>
+        <v>437</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>58520</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>48209</v>
+      </c>
+      <c r="C49" t="s">
+        <v>438</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F49" t="s">
-        <v>392</v>
+        <v>439</v>
       </c>
       <c r="G49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I49" t="s">
-        <v>393</v>
+        <v>440</v>
       </c>
       <c r="J49" t="s">
-        <v>394</v>
+        <v>441</v>
       </c>
       <c r="K49" t="s">
-        <v>395</v>
+        <v>442</v>
       </c>
       <c r="L49" t="s">
-        <v>396</v>
+        <v>443</v>
       </c>
       <c r="M49" t="n">
         <v>4</v>
       </c>
       <c r="N49" t="s">
-        <v>397</v>
+        <v>444</v>
       </c>
       <c r="O49" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="P49" t="s"/>
       <c r="Q49" t="n">
@@ -6128,50 +6673,54 @@
       <c r="W49" t="s"/>
       <c r="X49" t="s"/>
       <c r="Y49" t="s">
-        <v>396</v>
+        <v>443</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>58520</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>117578</v>
+      </c>
+      <c r="C50" t="s">
+        <v>445</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F50" t="s">
-        <v>398</v>
+        <v>446</v>
       </c>
       <c r="G50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I50" t="s">
-        <v>399</v>
+        <v>447</v>
       </c>
       <c r="J50" t="s">
-        <v>400</v>
+        <v>448</v>
       </c>
       <c r="K50" t="s">
-        <v>401</v>
+        <v>449</v>
       </c>
       <c r="L50" t="s">
-        <v>402</v>
+        <v>450</v>
       </c>
       <c r="M50" t="n">
         <v>4</v>
       </c>
       <c r="N50" t="s">
-        <v>397</v>
+        <v>444</v>
       </c>
       <c r="O50" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P50" t="n">
         <v>4</v>
@@ -6191,50 +6740,54 @@
       <c r="W50" t="s"/>
       <c r="X50" t="s"/>
       <c r="Y50" t="s">
-        <v>402</v>
+        <v>450</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>58520</v>
       </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
+      <c r="B51" t="n">
+        <v>8006</v>
+      </c>
+      <c r="C51" t="s">
+        <v>451</v>
+      </c>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F51" t="s">
-        <v>403</v>
+        <v>452</v>
       </c>
       <c r="G51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I51" t="s">
-        <v>404</v>
+        <v>453</v>
       </c>
       <c r="J51" t="s">
-        <v>405</v>
+        <v>454</v>
       </c>
       <c r="K51" t="s">
-        <v>406</v>
+        <v>455</v>
       </c>
       <c r="L51" t="s">
-        <v>407</v>
+        <v>456</v>
       </c>
       <c r="M51" t="n">
         <v>5</v>
       </c>
       <c r="N51" t="s">
-        <v>408</v>
+        <v>457</v>
       </c>
       <c r="O51" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="P51" t="s"/>
       <c r="Q51" t="s"/>
@@ -6248,50 +6801,54 @@
       <c r="W51" t="s"/>
       <c r="X51" t="s"/>
       <c r="Y51" t="s">
-        <v>407</v>
+        <v>456</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>58520</v>
       </c>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
+      <c r="B52" t="n">
+        <v>192468</v>
+      </c>
+      <c r="C52" t="s">
+        <v>458</v>
+      </c>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F52" t="s">
-        <v>409</v>
+        <v>459</v>
       </c>
       <c r="G52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H52" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I52" t="s">
-        <v>410</v>
+        <v>460</v>
       </c>
       <c r="J52" t="s">
-        <v>411</v>
+        <v>461</v>
       </c>
       <c r="K52" t="s">
-        <v>412</v>
+        <v>462</v>
       </c>
       <c r="L52" t="s">
-        <v>413</v>
+        <v>463</v>
       </c>
       <c r="M52" t="n">
         <v>5</v>
       </c>
       <c r="N52" t="s">
-        <v>408</v>
+        <v>457</v>
       </c>
       <c r="O52" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="P52" t="s"/>
       <c r="Q52" t="n">
@@ -6311,50 +6868,54 @@
       <c r="W52" t="s"/>
       <c r="X52" t="s"/>
       <c r="Y52" t="s">
-        <v>414</v>
+        <v>464</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>58520</v>
       </c>
-      <c r="B53" t="s"/>
-      <c r="C53" t="s"/>
+      <c r="B53" t="n">
+        <v>192469</v>
+      </c>
+      <c r="C53" t="s">
+        <v>465</v>
+      </c>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F53" t="s">
-        <v>415</v>
+        <v>466</v>
       </c>
       <c r="G53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H53" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I53" t="s">
-        <v>416</v>
+        <v>467</v>
       </c>
       <c r="J53" t="s">
-        <v>417</v>
+        <v>468</v>
       </c>
       <c r="K53" t="s">
-        <v>418</v>
+        <v>469</v>
       </c>
       <c r="L53" t="s">
-        <v>419</v>
+        <v>470</v>
       </c>
       <c r="M53" t="n">
         <v>4</v>
       </c>
       <c r="N53" t="s">
-        <v>420</v>
+        <v>471</v>
       </c>
       <c r="O53" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="P53" t="n">
         <v>3</v>
@@ -6374,50 +6935,54 @@
       <c r="W53" t="s"/>
       <c r="X53" t="s"/>
       <c r="Y53" t="s">
-        <v>421</v>
+        <v>472</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>58520</v>
       </c>
-      <c r="B54" t="s"/>
-      <c r="C54" t="s"/>
+      <c r="B54" t="n">
+        <v>192470</v>
+      </c>
+      <c r="C54" t="s">
+        <v>473</v>
+      </c>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F54" t="s">
-        <v>422</v>
+        <v>474</v>
       </c>
       <c r="G54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H54" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I54" t="s">
-        <v>423</v>
+        <v>475</v>
       </c>
       <c r="J54" t="s">
-        <v>424</v>
+        <v>476</v>
       </c>
       <c r="K54" t="s">
-        <v>425</v>
+        <v>477</v>
       </c>
       <c r="L54" t="s">
-        <v>426</v>
+        <v>478</v>
       </c>
       <c r="M54" t="n">
         <v>3</v>
       </c>
       <c r="N54" t="s">
-        <v>427</v>
+        <v>479</v>
       </c>
       <c r="O54" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="P54" t="s"/>
       <c r="Q54" t="s"/>
@@ -6433,56 +6998,60 @@
         <v>0</v>
       </c>
       <c r="W54" t="s">
-        <v>428</v>
+        <v>480</v>
       </c>
       <c r="X54" t="s">
-        <v>429</v>
+        <v>481</v>
       </c>
       <c r="Y54" t="s">
-        <v>430</v>
+        <v>482</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>58520</v>
       </c>
-      <c r="B55" t="s"/>
-      <c r="C55" t="s"/>
+      <c r="B55" t="n">
+        <v>192471</v>
+      </c>
+      <c r="C55" t="s">
+        <v>483</v>
+      </c>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F55" t="s">
-        <v>431</v>
+        <v>484</v>
       </c>
       <c r="G55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H55" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I55" t="s">
-        <v>432</v>
+        <v>485</v>
       </c>
       <c r="J55" t="s">
-        <v>433</v>
+        <v>486</v>
       </c>
       <c r="K55" t="s">
-        <v>434</v>
+        <v>487</v>
       </c>
       <c r="L55" t="s">
-        <v>435</v>
+        <v>488</v>
       </c>
       <c r="M55" t="n">
         <v>5</v>
       </c>
       <c r="N55" t="s">
-        <v>427</v>
+        <v>479</v>
       </c>
       <c r="O55" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="P55" t="n">
         <v>4</v>
@@ -6502,50 +7071,54 @@
       <c r="W55" t="s"/>
       <c r="X55" t="s"/>
       <c r="Y55" t="s">
-        <v>436</v>
+        <v>489</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>58520</v>
       </c>
-      <c r="B56" t="s"/>
-      <c r="C56" t="s"/>
+      <c r="B56" t="n">
+        <v>4621</v>
+      </c>
+      <c r="C56" t="s">
+        <v>490</v>
+      </c>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F56" t="s">
-        <v>437</v>
+        <v>491</v>
       </c>
       <c r="G56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H56" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I56" t="s">
-        <v>438</v>
+        <v>492</v>
       </c>
       <c r="J56" t="s">
-        <v>439</v>
+        <v>493</v>
       </c>
       <c r="K56" t="s">
-        <v>440</v>
+        <v>494</v>
       </c>
       <c r="L56" t="s">
-        <v>441</v>
+        <v>495</v>
       </c>
       <c r="M56" t="n">
         <v>3</v>
       </c>
       <c r="N56" t="s">
-        <v>420</v>
+        <v>471</v>
       </c>
       <c r="O56" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P56" t="s"/>
       <c r="Q56" t="s"/>
@@ -6561,56 +7134,60 @@
         <v>0</v>
       </c>
       <c r="W56" t="s">
-        <v>442</v>
+        <v>496</v>
       </c>
       <c r="X56" t="s">
-        <v>443</v>
+        <v>497</v>
       </c>
       <c r="Y56" t="s">
-        <v>444</v>
+        <v>498</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>58520</v>
       </c>
-      <c r="B57" t="s"/>
-      <c r="C57" t="s"/>
+      <c r="B57" t="n">
+        <v>192472</v>
+      </c>
+      <c r="C57" t="s">
+        <v>499</v>
+      </c>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F57" t="s">
-        <v>445</v>
+        <v>500</v>
       </c>
       <c r="G57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H57" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I57" t="s">
-        <v>446</v>
+        <v>501</v>
       </c>
       <c r="J57" t="s">
-        <v>447</v>
+        <v>502</v>
       </c>
       <c r="K57" t="s">
-        <v>448</v>
+        <v>503</v>
       </c>
       <c r="L57" t="s">
-        <v>449</v>
+        <v>504</v>
       </c>
       <c r="M57" t="n">
         <v>3</v>
       </c>
       <c r="N57" t="s">
-        <v>420</v>
+        <v>471</v>
       </c>
       <c r="O57" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="P57" t="s"/>
       <c r="Q57" t="s"/>
@@ -6626,56 +7203,60 @@
         <v>0</v>
       </c>
       <c r="W57" t="s">
-        <v>442</v>
+        <v>496</v>
       </c>
       <c r="X57" t="s">
-        <v>443</v>
+        <v>497</v>
       </c>
       <c r="Y57" t="s">
-        <v>450</v>
+        <v>505</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>58520</v>
       </c>
-      <c r="B58" t="s"/>
-      <c r="C58" t="s"/>
+      <c r="B58" t="n">
+        <v>192473</v>
+      </c>
+      <c r="C58" t="s">
+        <v>506</v>
+      </c>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F58" t="s">
-        <v>451</v>
+        <v>507</v>
       </c>
       <c r="G58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H58" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I58" t="s">
-        <v>452</v>
+        <v>508</v>
       </c>
       <c r="J58" t="s">
-        <v>453</v>
+        <v>509</v>
       </c>
       <c r="K58" t="s">
-        <v>454</v>
+        <v>510</v>
       </c>
       <c r="L58" t="s">
-        <v>455</v>
+        <v>511</v>
       </c>
       <c r="M58" t="n">
         <v>5</v>
       </c>
       <c r="N58" t="s">
-        <v>420</v>
+        <v>471</v>
       </c>
       <c r="O58" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="P58" t="s"/>
       <c r="Q58" t="s"/>
@@ -6695,50 +7276,54 @@
       <c r="W58" t="s"/>
       <c r="X58" t="s"/>
       <c r="Y58" t="s">
-        <v>455</v>
+        <v>511</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>58520</v>
       </c>
-      <c r="B59" t="s"/>
-      <c r="C59" t="s"/>
+      <c r="B59" t="n">
+        <v>192474</v>
+      </c>
+      <c r="C59" t="s">
+        <v>512</v>
+      </c>
       <c r="D59" t="n">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F59" t="s">
-        <v>456</v>
+        <v>513</v>
       </c>
       <c r="G59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H59" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I59" t="s">
-        <v>457</v>
+        <v>514</v>
       </c>
       <c r="J59" t="s">
-        <v>458</v>
+        <v>515</v>
       </c>
       <c r="K59" t="s">
-        <v>459</v>
+        <v>516</v>
       </c>
       <c r="L59" t="s">
-        <v>460</v>
+        <v>517</v>
       </c>
       <c r="M59" t="n">
         <v>5</v>
       </c>
       <c r="N59" t="s">
-        <v>461</v>
+        <v>518</v>
       </c>
       <c r="O59" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P59" t="n">
         <v>5</v>
@@ -6760,56 +7345,60 @@
         <v>0</v>
       </c>
       <c r="W59" t="s">
-        <v>462</v>
+        <v>519</v>
       </c>
       <c r="X59" t="s">
-        <v>463</v>
+        <v>520</v>
       </c>
       <c r="Y59" t="s">
-        <v>464</v>
+        <v>521</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>58520</v>
       </c>
-      <c r="B60" t="s"/>
-      <c r="C60" t="s"/>
+      <c r="B60" t="n">
+        <v>192475</v>
+      </c>
+      <c r="C60" t="s">
+        <v>522</v>
+      </c>
       <c r="D60" t="n">
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F60" t="s">
-        <v>465</v>
+        <v>523</v>
       </c>
       <c r="G60" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H60" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I60" t="s">
-        <v>466</v>
+        <v>524</v>
       </c>
       <c r="J60" t="s">
-        <v>467</v>
+        <v>525</v>
       </c>
       <c r="K60" t="s">
-        <v>468</v>
+        <v>526</v>
       </c>
       <c r="L60" t="s">
-        <v>469</v>
+        <v>527</v>
       </c>
       <c r="M60" t="n">
         <v>4</v>
       </c>
       <c r="N60" t="s">
-        <v>461</v>
+        <v>518</v>
       </c>
       <c r="O60" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P60" t="n">
         <v>5</v>
@@ -6833,50 +7422,54 @@
       <c r="W60" t="s"/>
       <c r="X60" t="s"/>
       <c r="Y60" t="s">
-        <v>469</v>
+        <v>527</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>58520</v>
       </c>
-      <c r="B61" t="s"/>
-      <c r="C61" t="s"/>
+      <c r="B61" t="n">
+        <v>192476</v>
+      </c>
+      <c r="C61" t="s">
+        <v>528</v>
+      </c>
       <c r="D61" t="n">
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F61" t="s">
-        <v>470</v>
+        <v>529</v>
       </c>
       <c r="G61" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H61" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I61" t="s">
-        <v>471</v>
+        <v>530</v>
       </c>
       <c r="J61" t="s">
-        <v>472</v>
+        <v>531</v>
       </c>
       <c r="K61" t="s">
-        <v>473</v>
+        <v>532</v>
       </c>
       <c r="L61" t="s">
-        <v>474</v>
+        <v>533</v>
       </c>
       <c r="M61" t="n">
         <v>5</v>
       </c>
       <c r="N61" t="s">
-        <v>475</v>
+        <v>534</v>
       </c>
       <c r="O61" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P61" t="n">
         <v>4</v>
@@ -6900,50 +7493,54 @@
       <c r="W61" t="s"/>
       <c r="X61" t="s"/>
       <c r="Y61" t="s">
-        <v>474</v>
+        <v>533</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>58520</v>
       </c>
-      <c r="B62" t="s"/>
-      <c r="C62" t="s"/>
+      <c r="B62" t="n">
+        <v>192477</v>
+      </c>
+      <c r="C62" t="s">
+        <v>535</v>
+      </c>
       <c r="D62" t="n">
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F62" t="s">
-        <v>476</v>
+        <v>536</v>
       </c>
       <c r="G62" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H62" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I62" t="s">
-        <v>477</v>
+        <v>537</v>
       </c>
       <c r="J62" t="s">
-        <v>478</v>
+        <v>538</v>
       </c>
       <c r="K62" t="s">
-        <v>479</v>
+        <v>539</v>
       </c>
       <c r="L62" t="s">
-        <v>480</v>
+        <v>540</v>
       </c>
       <c r="M62" t="n">
         <v>3</v>
       </c>
       <c r="N62" t="s">
-        <v>481</v>
+        <v>541</v>
       </c>
       <c r="O62" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P62" t="n">
         <v>4</v>
@@ -6965,56 +7562,60 @@
         <v>0</v>
       </c>
       <c r="W62" t="s">
-        <v>482</v>
+        <v>542</v>
       </c>
       <c r="X62" t="s">
-        <v>483</v>
+        <v>543</v>
       </c>
       <c r="Y62" t="s">
-        <v>484</v>
+        <v>544</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
         <v>58520</v>
       </c>
-      <c r="B63" t="s"/>
-      <c r="C63" t="s"/>
+      <c r="B63" t="n">
+        <v>21941</v>
+      </c>
+      <c r="C63" t="s">
+        <v>545</v>
+      </c>
       <c r="D63" t="n">
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F63" t="s">
-        <v>485</v>
+        <v>546</v>
       </c>
       <c r="G63" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H63" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I63" t="s">
-        <v>486</v>
+        <v>547</v>
       </c>
       <c r="J63" t="s">
-        <v>487</v>
+        <v>548</v>
       </c>
       <c r="K63" t="s">
-        <v>488</v>
+        <v>549</v>
       </c>
       <c r="L63" t="s">
-        <v>489</v>
+        <v>550</v>
       </c>
       <c r="M63" t="n">
         <v>4</v>
       </c>
       <c r="N63" t="s">
-        <v>481</v>
+        <v>541</v>
       </c>
       <c r="O63" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="P63" t="n">
         <v>3</v>
@@ -7036,56 +7637,60 @@
         <v>0</v>
       </c>
       <c r="W63" t="s">
-        <v>490</v>
+        <v>551</v>
       </c>
       <c r="X63" t="s">
-        <v>491</v>
+        <v>552</v>
       </c>
       <c r="Y63" t="s">
-        <v>492</v>
+        <v>553</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
         <v>58520</v>
       </c>
-      <c r="B64" t="s"/>
-      <c r="C64" t="s"/>
+      <c r="B64" t="n">
+        <v>21074</v>
+      </c>
+      <c r="C64" t="s">
+        <v>554</v>
+      </c>
       <c r="D64" t="n">
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F64" t="s">
-        <v>493</v>
+        <v>555</v>
       </c>
       <c r="G64" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H64" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I64" t="s">
-        <v>494</v>
+        <v>556</v>
       </c>
       <c r="J64" t="s">
-        <v>495</v>
+        <v>557</v>
       </c>
       <c r="K64" t="s">
-        <v>496</v>
+        <v>558</v>
       </c>
       <c r="L64" t="s">
-        <v>497</v>
+        <v>559</v>
       </c>
       <c r="M64" t="n">
         <v>3</v>
       </c>
       <c r="N64" t="s">
-        <v>481</v>
+        <v>541</v>
       </c>
       <c r="O64" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P64" t="n">
         <v>4</v>
@@ -7107,47 +7712,51 @@
         <v>0</v>
       </c>
       <c r="W64" t="s">
-        <v>498</v>
+        <v>560</v>
       </c>
       <c r="X64" t="s">
-        <v>499</v>
+        <v>561</v>
       </c>
       <c r="Y64" t="s">
-        <v>500</v>
+        <v>562</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
         <v>58520</v>
       </c>
-      <c r="B65" t="s"/>
-      <c r="C65" t="s"/>
+      <c r="B65" t="n">
+        <v>192478</v>
+      </c>
+      <c r="C65" t="s">
+        <v>563</v>
+      </c>
       <c r="D65" t="n">
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F65" t="s">
-        <v>501</v>
+        <v>564</v>
       </c>
       <c r="G65" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H65" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I65" t="s">
-        <v>502</v>
+        <v>565</v>
       </c>
       <c r="J65" t="s">
-        <v>503</v>
+        <v>566</v>
       </c>
       <c r="K65" t="s">
-        <v>504</v>
+        <v>567</v>
       </c>
       <c r="L65" t="s">
-        <v>505</v>
+        <v>568</v>
       </c>
       <c r="M65" t="n">
         <v>5</v>
@@ -7176,50 +7785,54 @@
       <c r="W65" t="s"/>
       <c r="X65" t="s"/>
       <c r="Y65" t="s">
-        <v>505</v>
+        <v>568</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
         <v>58520</v>
       </c>
-      <c r="B66" t="s"/>
-      <c r="C66" t="s"/>
+      <c r="B66" t="n">
+        <v>192479</v>
+      </c>
+      <c r="C66" t="s">
+        <v>569</v>
+      </c>
       <c r="D66" t="n">
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F66" t="s">
-        <v>506</v>
+        <v>570</v>
       </c>
       <c r="G66" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H66" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I66" t="s">
-        <v>507</v>
+        <v>571</v>
       </c>
       <c r="J66" t="s">
-        <v>508</v>
+        <v>572</v>
       </c>
       <c r="K66" t="s">
-        <v>509</v>
+        <v>573</v>
       </c>
       <c r="L66" t="s">
-        <v>510</v>
+        <v>574</v>
       </c>
       <c r="M66" t="n">
         <v>2</v>
       </c>
       <c r="N66" t="s">
-        <v>475</v>
+        <v>534</v>
       </c>
       <c r="O66" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P66" t="n">
         <v>2</v>
@@ -7241,47 +7854,51 @@
         <v>0</v>
       </c>
       <c r="W66" t="s">
-        <v>511</v>
+        <v>575</v>
       </c>
       <c r="X66" t="s">
-        <v>512</v>
+        <v>576</v>
       </c>
       <c r="Y66" t="s">
-        <v>513</v>
+        <v>577</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
         <v>58520</v>
       </c>
-      <c r="B67" t="s"/>
-      <c r="C67" t="s"/>
+      <c r="B67" t="n">
+        <v>192480</v>
+      </c>
+      <c r="C67" t="s">
+        <v>578</v>
+      </c>
       <c r="D67" t="n">
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F67" t="s">
-        <v>514</v>
+        <v>579</v>
       </c>
       <c r="G67" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H67" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I67" t="s">
-        <v>515</v>
+        <v>580</v>
       </c>
       <c r="J67" t="s">
-        <v>516</v>
+        <v>581</v>
       </c>
       <c r="K67" t="s">
-        <v>517</v>
+        <v>582</v>
       </c>
       <c r="L67" t="s">
-        <v>518</v>
+        <v>583</v>
       </c>
       <c r="M67" t="n">
         <v>5</v>
@@ -7310,50 +7927,54 @@
       <c r="W67" t="s"/>
       <c r="X67" t="s"/>
       <c r="Y67" t="s">
-        <v>518</v>
+        <v>583</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
         <v>58520</v>
       </c>
-      <c r="B68" t="s"/>
-      <c r="C68" t="s"/>
+      <c r="B68" t="n">
+        <v>192481</v>
+      </c>
+      <c r="C68" t="s">
+        <v>584</v>
+      </c>
       <c r="D68" t="n">
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F68" t="s">
-        <v>519</v>
+        <v>585</v>
       </c>
       <c r="G68" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H68" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I68" t="s">
-        <v>520</v>
+        <v>586</v>
       </c>
       <c r="J68" t="s">
-        <v>521</v>
+        <v>587</v>
       </c>
       <c r="K68" t="s">
-        <v>522</v>
+        <v>588</v>
       </c>
       <c r="L68" t="s">
-        <v>523</v>
+        <v>589</v>
       </c>
       <c r="M68" t="n">
         <v>3</v>
       </c>
       <c r="N68" t="s">
-        <v>524</v>
+        <v>590</v>
       </c>
       <c r="O68" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="P68" t="n">
         <v>3</v>
@@ -7375,56 +7996,60 @@
         <v>0</v>
       </c>
       <c r="W68" t="s">
-        <v>525</v>
+        <v>591</v>
       </c>
       <c r="X68" t="s">
-        <v>526</v>
+        <v>592</v>
       </c>
       <c r="Y68" t="s">
-        <v>527</v>
+        <v>593</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
         <v>58520</v>
       </c>
-      <c r="B69" t="s"/>
-      <c r="C69" t="s"/>
+      <c r="B69" t="n">
+        <v>14423</v>
+      </c>
+      <c r="C69" t="s">
+        <v>594</v>
+      </c>
       <c r="D69" t="n">
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F69" t="s">
-        <v>528</v>
+        <v>595</v>
       </c>
       <c r="G69" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H69" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I69" t="s">
-        <v>529</v>
+        <v>596</v>
       </c>
       <c r="J69" t="s">
-        <v>530</v>
+        <v>597</v>
       </c>
       <c r="K69" t="s">
-        <v>531</v>
+        <v>598</v>
       </c>
       <c r="L69" t="s">
-        <v>532</v>
+        <v>599</v>
       </c>
       <c r="M69" t="n">
         <v>5</v>
       </c>
       <c r="N69" t="s">
-        <v>533</v>
+        <v>600</v>
       </c>
       <c r="O69" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="P69" t="s"/>
       <c r="Q69" t="s"/>
@@ -7438,50 +8063,54 @@
       <c r="W69" t="s"/>
       <c r="X69" t="s"/>
       <c r="Y69" t="s">
-        <v>532</v>
+        <v>599</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
         <v>58520</v>
       </c>
-      <c r="B70" t="s"/>
-      <c r="C70" t="s"/>
+      <c r="B70" t="n">
+        <v>192482</v>
+      </c>
+      <c r="C70" t="s">
+        <v>601</v>
+      </c>
       <c r="D70" t="n">
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F70" t="s">
-        <v>534</v>
+        <v>602</v>
       </c>
       <c r="G70" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H70" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I70" t="s">
-        <v>535</v>
+        <v>603</v>
       </c>
       <c r="J70" t="s">
-        <v>536</v>
+        <v>604</v>
       </c>
       <c r="K70" t="s">
-        <v>537</v>
+        <v>605</v>
       </c>
       <c r="L70" t="s">
-        <v>538</v>
+        <v>606</v>
       </c>
       <c r="M70" t="n">
         <v>5</v>
       </c>
       <c r="N70" t="s">
-        <v>524</v>
+        <v>590</v>
       </c>
       <c r="O70" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P70" t="n">
         <v>4</v>
@@ -7505,50 +8134,54 @@
       <c r="W70" t="s"/>
       <c r="X70" t="s"/>
       <c r="Y70" t="s">
-        <v>538</v>
+        <v>606</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
         <v>58520</v>
       </c>
-      <c r="B71" t="s"/>
-      <c r="C71" t="s"/>
+      <c r="B71" t="n">
+        <v>192483</v>
+      </c>
+      <c r="C71" t="s">
+        <v>607</v>
+      </c>
       <c r="D71" t="n">
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F71" t="s">
-        <v>539</v>
+        <v>608</v>
       </c>
       <c r="G71" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H71" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I71" t="s">
-        <v>540</v>
+        <v>609</v>
       </c>
       <c r="J71" t="s">
-        <v>541</v>
+        <v>610</v>
       </c>
       <c r="K71" t="s">
-        <v>542</v>
+        <v>611</v>
       </c>
       <c r="L71" t="s">
-        <v>543</v>
+        <v>612</v>
       </c>
       <c r="M71" t="n">
         <v>3</v>
       </c>
       <c r="N71" t="s">
-        <v>544</v>
+        <v>613</v>
       </c>
       <c r="O71" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P71" t="s"/>
       <c r="Q71" t="s"/>
@@ -7560,56 +8193,60 @@
         <v>0</v>
       </c>
       <c r="W71" t="s">
-        <v>545</v>
+        <v>614</v>
       </c>
       <c r="X71" t="s">
-        <v>546</v>
+        <v>615</v>
       </c>
       <c r="Y71" t="s">
-        <v>547</v>
+        <v>616</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
         <v>58520</v>
       </c>
-      <c r="B72" t="s"/>
-      <c r="C72" t="s"/>
+      <c r="B72" t="n">
+        <v>192484</v>
+      </c>
+      <c r="C72" t="s">
+        <v>617</v>
+      </c>
       <c r="D72" t="n">
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F72" t="s">
-        <v>548</v>
+        <v>618</v>
       </c>
       <c r="G72" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H72" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I72" t="s">
-        <v>549</v>
+        <v>619</v>
       </c>
       <c r="J72" t="s">
-        <v>550</v>
+        <v>620</v>
       </c>
       <c r="K72" t="s">
-        <v>551</v>
+        <v>621</v>
       </c>
       <c r="L72" t="s">
-        <v>552</v>
+        <v>622</v>
       </c>
       <c r="M72" t="n">
         <v>2</v>
       </c>
       <c r="N72" t="s">
-        <v>544</v>
+        <v>613</v>
       </c>
       <c r="O72" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P72" t="n">
         <v>2</v>
@@ -7631,56 +8268,60 @@
         <v>0</v>
       </c>
       <c r="W72" t="s">
-        <v>553</v>
+        <v>623</v>
       </c>
       <c r="X72" t="s">
-        <v>554</v>
+        <v>624</v>
       </c>
       <c r="Y72" t="s">
-        <v>555</v>
+        <v>625</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
         <v>58520</v>
       </c>
-      <c r="B73" t="s"/>
-      <c r="C73" t="s"/>
+      <c r="B73" t="n">
+        <v>26891</v>
+      </c>
+      <c r="C73" t="s">
+        <v>626</v>
+      </c>
       <c r="D73" t="n">
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F73" t="s">
-        <v>556</v>
+        <v>627</v>
       </c>
       <c r="G73" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H73" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I73" t="s">
-        <v>557</v>
+        <v>628</v>
       </c>
       <c r="J73" t="s">
-        <v>558</v>
+        <v>629</v>
       </c>
       <c r="K73" t="s">
-        <v>559</v>
+        <v>630</v>
       </c>
       <c r="L73" t="s">
-        <v>560</v>
+        <v>631</v>
       </c>
       <c r="M73" t="n">
         <v>3</v>
       </c>
       <c r="N73" t="s">
-        <v>544</v>
+        <v>613</v>
       </c>
       <c r="O73" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="P73" t="n">
         <v>3</v>
@@ -7702,47 +8343,51 @@
         <v>0</v>
       </c>
       <c r="W73" t="s">
-        <v>561</v>
+        <v>632</v>
       </c>
       <c r="X73" t="s">
-        <v>562</v>
+        <v>633</v>
       </c>
       <c r="Y73" t="s">
-        <v>563</v>
+        <v>634</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
         <v>58520</v>
       </c>
-      <c r="B74" t="s"/>
-      <c r="C74" t="s"/>
+      <c r="B74" t="n">
+        <v>192485</v>
+      </c>
+      <c r="C74" t="s">
+        <v>635</v>
+      </c>
       <c r="D74" t="n">
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F74" t="s">
-        <v>564</v>
+        <v>636</v>
       </c>
       <c r="G74" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H74" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I74" t="s">
-        <v>565</v>
+        <v>637</v>
       </c>
       <c r="J74" t="s">
-        <v>566</v>
+        <v>638</v>
       </c>
       <c r="K74" t="s">
-        <v>567</v>
+        <v>639</v>
       </c>
       <c r="L74" t="s">
-        <v>568</v>
+        <v>640</v>
       </c>
       <c r="M74" t="n">
         <v>5</v>
@@ -7771,50 +8416,54 @@
       <c r="W74" t="s"/>
       <c r="X74" t="s"/>
       <c r="Y74" t="s">
-        <v>568</v>
+        <v>640</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
         <v>58520</v>
       </c>
-      <c r="B75" t="s"/>
-      <c r="C75" t="s"/>
+      <c r="B75" t="n">
+        <v>192486</v>
+      </c>
+      <c r="C75" t="s">
+        <v>641</v>
+      </c>
       <c r="D75" t="n">
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F75" t="s">
-        <v>569</v>
+        <v>642</v>
       </c>
       <c r="G75" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H75" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I75" t="s">
-        <v>570</v>
+        <v>643</v>
       </c>
       <c r="J75" t="s">
-        <v>571</v>
+        <v>644</v>
       </c>
       <c r="K75" t="s">
-        <v>572</v>
+        <v>645</v>
       </c>
       <c r="L75" t="s">
-        <v>573</v>
+        <v>646</v>
       </c>
       <c r="M75" t="n">
         <v>5</v>
       </c>
       <c r="N75" t="s">
-        <v>533</v>
+        <v>600</v>
       </c>
       <c r="O75" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="P75" t="n">
         <v>5</v>
@@ -7838,50 +8487,54 @@
       <c r="W75" t="s"/>
       <c r="X75" t="s"/>
       <c r="Y75" t="s">
-        <v>573</v>
+        <v>646</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
         <v>58520</v>
       </c>
-      <c r="B76" t="s"/>
-      <c r="C76" t="s"/>
+      <c r="B76" t="n">
+        <v>192487</v>
+      </c>
+      <c r="C76" t="s">
+        <v>647</v>
+      </c>
       <c r="D76" t="n">
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F76" t="s">
-        <v>574</v>
+        <v>648</v>
       </c>
       <c r="G76" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H76" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I76" t="s">
-        <v>575</v>
+        <v>649</v>
       </c>
       <c r="J76" t="s">
-        <v>576</v>
+        <v>650</v>
       </c>
       <c r="K76" t="s">
-        <v>577</v>
+        <v>651</v>
       </c>
       <c r="L76" t="s">
-        <v>578</v>
+        <v>652</v>
       </c>
       <c r="M76" t="n">
         <v>3</v>
       </c>
       <c r="N76" t="s">
-        <v>533</v>
+        <v>600</v>
       </c>
       <c r="O76" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P76" t="n">
         <v>3</v>
@@ -7903,56 +8556,60 @@
         <v>0</v>
       </c>
       <c r="W76" t="s">
-        <v>579</v>
+        <v>653</v>
       </c>
       <c r="X76" t="s">
-        <v>580</v>
+        <v>654</v>
       </c>
       <c r="Y76" t="s">
-        <v>581</v>
+        <v>655</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
         <v>58520</v>
       </c>
-      <c r="B77" t="s"/>
-      <c r="C77" t="s"/>
+      <c r="B77" t="n">
+        <v>22818</v>
+      </c>
+      <c r="C77" t="s">
+        <v>656</v>
+      </c>
       <c r="D77" t="n">
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F77" t="s">
-        <v>582</v>
+        <v>657</v>
       </c>
       <c r="G77" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H77" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I77" t="s">
-        <v>583</v>
+        <v>658</v>
       </c>
       <c r="J77" t="s">
-        <v>584</v>
+        <v>659</v>
       </c>
       <c r="K77" t="s">
-        <v>585</v>
+        <v>660</v>
       </c>
       <c r="L77" t="s">
-        <v>586</v>
+        <v>661</v>
       </c>
       <c r="M77" t="n">
         <v>5</v>
       </c>
       <c r="N77" t="s">
-        <v>587</v>
+        <v>662</v>
       </c>
       <c r="O77" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P77" t="n">
         <v>5</v>
@@ -7976,50 +8633,54 @@
       <c r="W77" t="s"/>
       <c r="X77" t="s"/>
       <c r="Y77" t="s">
-        <v>588</v>
+        <v>663</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
         <v>58520</v>
       </c>
-      <c r="B78" t="s"/>
-      <c r="C78" t="s"/>
+      <c r="B78" t="n">
+        <v>192488</v>
+      </c>
+      <c r="C78" t="s">
+        <v>664</v>
+      </c>
       <c r="D78" t="n">
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F78" t="s">
-        <v>589</v>
+        <v>665</v>
       </c>
       <c r="G78" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H78" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I78" t="s">
-        <v>590</v>
+        <v>666</v>
       </c>
       <c r="J78" t="s">
-        <v>591</v>
+        <v>667</v>
       </c>
       <c r="K78" t="s">
-        <v>592</v>
+        <v>668</v>
       </c>
       <c r="L78" t="s">
-        <v>593</v>
+        <v>669</v>
       </c>
       <c r="M78" t="n">
         <v>4</v>
       </c>
       <c r="N78" t="s">
-        <v>587</v>
+        <v>662</v>
       </c>
       <c r="O78" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="P78" t="n">
         <v>4</v>
@@ -8043,50 +8704,54 @@
       <c r="W78" t="s"/>
       <c r="X78" t="s"/>
       <c r="Y78" t="s">
-        <v>594</v>
+        <v>670</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
         <v>58520</v>
       </c>
-      <c r="B79" t="s"/>
-      <c r="C79" t="s"/>
+      <c r="B79" t="n">
+        <v>192489</v>
+      </c>
+      <c r="C79" t="s">
+        <v>671</v>
+      </c>
       <c r="D79" t="n">
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F79" t="s">
-        <v>595</v>
+        <v>672</v>
       </c>
       <c r="G79" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H79" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I79" t="s">
-        <v>596</v>
+        <v>673</v>
       </c>
       <c r="J79" t="s">
-        <v>597</v>
+        <v>674</v>
       </c>
       <c r="K79" t="s">
-        <v>598</v>
+        <v>675</v>
       </c>
       <c r="L79" t="s">
-        <v>599</v>
+        <v>676</v>
       </c>
       <c r="M79" t="n">
         <v>4</v>
       </c>
       <c r="N79" t="s">
-        <v>587</v>
+        <v>662</v>
       </c>
       <c r="O79" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P79" t="n">
         <v>5</v>
@@ -8110,50 +8775,54 @@
       <c r="W79" t="s"/>
       <c r="X79" t="s"/>
       <c r="Y79" t="s">
-        <v>600</v>
+        <v>677</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
         <v>58520</v>
       </c>
-      <c r="B80" t="s"/>
-      <c r="C80" t="s"/>
+      <c r="B80" t="n">
+        <v>36801</v>
+      </c>
+      <c r="C80" t="s">
+        <v>678</v>
+      </c>
       <c r="D80" t="n">
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F80" t="s">
-        <v>601</v>
+        <v>679</v>
       </c>
       <c r="G80" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H80" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I80" t="s">
-        <v>602</v>
+        <v>680</v>
       </c>
       <c r="J80" t="s">
-        <v>603</v>
+        <v>681</v>
       </c>
       <c r="K80" t="s">
-        <v>604</v>
+        <v>682</v>
       </c>
       <c r="L80" t="s">
-        <v>605</v>
+        <v>683</v>
       </c>
       <c r="M80" t="n">
         <v>5</v>
       </c>
       <c r="N80" t="s">
-        <v>606</v>
+        <v>684</v>
       </c>
       <c r="O80" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P80" t="n">
         <v>4</v>
@@ -8177,50 +8846,54 @@
       <c r="W80" t="s"/>
       <c r="X80" t="s"/>
       <c r="Y80" t="s">
-        <v>605</v>
+        <v>683</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
         <v>58520</v>
       </c>
-      <c r="B81" t="s"/>
-      <c r="C81" t="s"/>
+      <c r="B81" t="n">
+        <v>117902</v>
+      </c>
+      <c r="C81" t="s">
+        <v>685</v>
+      </c>
       <c r="D81" t="n">
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F81" t="s">
-        <v>607</v>
+        <v>686</v>
       </c>
       <c r="G81" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H81" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I81" t="s">
-        <v>608</v>
+        <v>687</v>
       </c>
       <c r="J81" t="s">
-        <v>609</v>
+        <v>688</v>
       </c>
       <c r="K81" t="s">
-        <v>610</v>
+        <v>689</v>
       </c>
       <c r="L81" t="s">
-        <v>611</v>
+        <v>690</v>
       </c>
       <c r="M81" t="n">
         <v>4</v>
       </c>
       <c r="N81" t="s">
-        <v>612</v>
+        <v>691</v>
       </c>
       <c r="O81" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P81" t="n">
         <v>5</v>
@@ -8242,56 +8915,60 @@
         <v>0</v>
       </c>
       <c r="W81" t="s">
-        <v>613</v>
+        <v>692</v>
       </c>
       <c r="X81" t="s">
-        <v>614</v>
+        <v>693</v>
       </c>
       <c r="Y81" t="s">
-        <v>615</v>
+        <v>694</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
         <v>58520</v>
       </c>
-      <c r="B82" t="s"/>
-      <c r="C82" t="s"/>
+      <c r="B82" t="n">
+        <v>192490</v>
+      </c>
+      <c r="C82" t="s">
+        <v>695</v>
+      </c>
       <c r="D82" t="n">
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F82" t="s">
-        <v>616</v>
+        <v>696</v>
       </c>
       <c r="G82" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H82" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I82" t="s">
-        <v>617</v>
+        <v>697</v>
       </c>
       <c r="J82" t="s">
-        <v>618</v>
+        <v>698</v>
       </c>
       <c r="K82" t="s">
-        <v>619</v>
+        <v>699</v>
       </c>
       <c r="L82" t="s">
-        <v>620</v>
+        <v>700</v>
       </c>
       <c r="M82" t="n">
         <v>4</v>
       </c>
       <c r="N82" t="s">
-        <v>612</v>
+        <v>691</v>
       </c>
       <c r="O82" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="P82" t="n">
         <v>3</v>
@@ -8313,56 +8990,60 @@
         <v>0</v>
       </c>
       <c r="W82" t="s">
-        <v>613</v>
+        <v>692</v>
       </c>
       <c r="X82" t="s">
-        <v>614</v>
+        <v>693</v>
       </c>
       <c r="Y82" t="s">
-        <v>621</v>
+        <v>701</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
         <v>58520</v>
       </c>
-      <c r="B83" t="s"/>
-      <c r="C83" t="s"/>
+      <c r="B83" t="n">
+        <v>192491</v>
+      </c>
+      <c r="C83" t="s">
+        <v>702</v>
+      </c>
       <c r="D83" t="n">
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F83" t="s">
-        <v>622</v>
+        <v>703</v>
       </c>
       <c r="G83" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H83" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I83" t="s">
-        <v>623</v>
+        <v>704</v>
       </c>
       <c r="J83" t="s">
-        <v>624</v>
+        <v>705</v>
       </c>
       <c r="K83" t="s">
-        <v>625</v>
+        <v>706</v>
       </c>
       <c r="L83" t="s">
-        <v>626</v>
+        <v>707</v>
       </c>
       <c r="M83" t="n">
         <v>4</v>
       </c>
       <c r="N83" t="s">
-        <v>627</v>
+        <v>708</v>
       </c>
       <c r="O83" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P83" t="n">
         <v>4</v>
@@ -8386,50 +9067,54 @@
       <c r="W83" t="s"/>
       <c r="X83" t="s"/>
       <c r="Y83" t="s">
-        <v>626</v>
+        <v>707</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
         <v>58520</v>
       </c>
-      <c r="B84" t="s"/>
-      <c r="C84" t="s"/>
+      <c r="B84" t="n">
+        <v>192492</v>
+      </c>
+      <c r="C84" t="s">
+        <v>709</v>
+      </c>
       <c r="D84" t="n">
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F84" t="s">
-        <v>628</v>
+        <v>710</v>
       </c>
       <c r="G84" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H84" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I84" t="s">
-        <v>629</v>
+        <v>711</v>
       </c>
       <c r="J84" t="s">
-        <v>630</v>
+        <v>712</v>
       </c>
       <c r="K84" t="s">
-        <v>631</v>
+        <v>713</v>
       </c>
       <c r="L84" t="s">
-        <v>632</v>
+        <v>714</v>
       </c>
       <c r="M84" t="n">
         <v>4</v>
       </c>
       <c r="N84" t="s">
-        <v>633</v>
+        <v>715</v>
       </c>
       <c r="O84" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P84" t="n">
         <v>4</v>
@@ -8451,56 +9136,60 @@
         <v>0</v>
       </c>
       <c r="W84" t="s">
-        <v>634</v>
+        <v>716</v>
       </c>
       <c r="X84" t="s">
-        <v>635</v>
+        <v>717</v>
       </c>
       <c r="Y84" t="s">
-        <v>636</v>
+        <v>718</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
         <v>58520</v>
       </c>
-      <c r="B85" t="s"/>
-      <c r="C85" t="s"/>
+      <c r="B85" t="n">
+        <v>192493</v>
+      </c>
+      <c r="C85" t="s">
+        <v>719</v>
+      </c>
       <c r="D85" t="n">
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F85" t="s">
-        <v>637</v>
+        <v>720</v>
       </c>
       <c r="G85" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H85" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I85" t="s">
-        <v>638</v>
+        <v>721</v>
       </c>
       <c r="J85" t="s">
-        <v>630</v>
+        <v>712</v>
       </c>
       <c r="K85" t="s">
-        <v>639</v>
+        <v>722</v>
       </c>
       <c r="L85" t="s">
-        <v>640</v>
+        <v>723</v>
       </c>
       <c r="M85" t="n">
         <v>4</v>
       </c>
       <c r="N85" t="s">
-        <v>633</v>
+        <v>715</v>
       </c>
       <c r="O85" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P85" t="n">
         <v>4</v>
@@ -8524,50 +9213,54 @@
       <c r="W85" t="s"/>
       <c r="X85" t="s"/>
       <c r="Y85" t="s">
-        <v>640</v>
+        <v>723</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
         <v>58520</v>
       </c>
-      <c r="B86" t="s"/>
-      <c r="C86" t="s"/>
+      <c r="B86" t="n">
+        <v>192494</v>
+      </c>
+      <c r="C86" t="s">
+        <v>724</v>
+      </c>
       <c r="D86" t="n">
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F86" t="s">
-        <v>641</v>
+        <v>725</v>
       </c>
       <c r="G86" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H86" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I86" t="s">
-        <v>642</v>
+        <v>726</v>
       </c>
       <c r="J86" t="s">
-        <v>643</v>
+        <v>727</v>
       </c>
       <c r="K86" t="s">
-        <v>644</v>
+        <v>728</v>
       </c>
       <c r="L86" t="s">
-        <v>645</v>
+        <v>729</v>
       </c>
       <c r="M86" t="n">
         <v>3</v>
       </c>
       <c r="N86" t="s">
-        <v>646</v>
+        <v>730</v>
       </c>
       <c r="O86" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P86" t="n">
         <v>4</v>
@@ -8589,56 +9282,60 @@
         <v>0</v>
       </c>
       <c r="W86" t="s">
-        <v>647</v>
+        <v>731</v>
       </c>
       <c r="X86" t="s">
-        <v>648</v>
+        <v>732</v>
       </c>
       <c r="Y86" t="s">
-        <v>649</v>
+        <v>733</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
         <v>58520</v>
       </c>
-      <c r="B87" t="s"/>
-      <c r="C87" t="s"/>
+      <c r="B87" t="n">
+        <v>69899</v>
+      </c>
+      <c r="C87" t="s">
+        <v>734</v>
+      </c>
       <c r="D87" t="n">
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F87" t="s">
-        <v>650</v>
+        <v>735</v>
       </c>
       <c r="G87" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H87" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I87" t="s">
-        <v>651</v>
+        <v>736</v>
       </c>
       <c r="J87" t="s">
-        <v>652</v>
+        <v>737</v>
       </c>
       <c r="K87" t="s">
-        <v>653</v>
+        <v>738</v>
       </c>
       <c r="L87" t="s">
-        <v>654</v>
+        <v>739</v>
       </c>
       <c r="M87" t="n">
         <v>3</v>
       </c>
       <c r="N87" t="s">
-        <v>646</v>
+        <v>730</v>
       </c>
       <c r="O87" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P87" t="s"/>
       <c r="Q87" t="s"/>
@@ -8650,56 +9347,60 @@
         <v>0</v>
       </c>
       <c r="W87" t="s">
-        <v>634</v>
+        <v>716</v>
       </c>
       <c r="X87" t="s">
-        <v>635</v>
+        <v>717</v>
       </c>
       <c r="Y87" t="s">
-        <v>655</v>
+        <v>740</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
         <v>58520</v>
       </c>
-      <c r="B88" t="s"/>
-      <c r="C88" t="s"/>
+      <c r="B88" t="n">
+        <v>192495</v>
+      </c>
+      <c r="C88" t="s">
+        <v>741</v>
+      </c>
       <c r="D88" t="n">
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F88" t="s">
-        <v>656</v>
+        <v>742</v>
       </c>
       <c r="G88" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H88" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I88" t="s">
-        <v>657</v>
+        <v>743</v>
       </c>
       <c r="J88" t="s">
-        <v>658</v>
+        <v>744</v>
       </c>
       <c r="K88" t="s">
-        <v>659</v>
+        <v>745</v>
       </c>
       <c r="L88" t="s">
-        <v>660</v>
+        <v>746</v>
       </c>
       <c r="M88" t="n">
         <v>4</v>
       </c>
       <c r="N88" t="s">
-        <v>646</v>
+        <v>730</v>
       </c>
       <c r="O88" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="P88" t="n">
         <v>4</v>
@@ -8723,50 +9424,54 @@
       <c r="W88" t="s"/>
       <c r="X88" t="s"/>
       <c r="Y88" t="s">
-        <v>661</v>
+        <v>747</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
         <v>58520</v>
       </c>
-      <c r="B89" t="s"/>
-      <c r="C89" t="s"/>
+      <c r="B89" t="n">
+        <v>192496</v>
+      </c>
+      <c r="C89" t="s">
+        <v>748</v>
+      </c>
       <c r="D89" t="n">
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F89" t="s">
-        <v>662</v>
+        <v>749</v>
       </c>
       <c r="G89" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H89" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I89" t="s">
-        <v>663</v>
+        <v>750</v>
       </c>
       <c r="J89" t="s">
-        <v>664</v>
+        <v>751</v>
       </c>
       <c r="K89" t="s">
-        <v>665</v>
+        <v>752</v>
       </c>
       <c r="L89" t="s">
-        <v>666</v>
+        <v>753</v>
       </c>
       <c r="M89" t="n">
         <v>2</v>
       </c>
       <c r="N89" t="s">
-        <v>667</v>
+        <v>754</v>
       </c>
       <c r="O89" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P89" t="n">
         <v>1</v>
@@ -8786,56 +9491,60 @@
         <v>0</v>
       </c>
       <c r="W89" t="s">
-        <v>668</v>
+        <v>755</v>
       </c>
       <c r="X89" t="s">
-        <v>669</v>
+        <v>756</v>
       </c>
       <c r="Y89" t="s">
-        <v>670</v>
+        <v>757</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
         <v>58520</v>
       </c>
-      <c r="B90" t="s"/>
-      <c r="C90" t="s"/>
+      <c r="B90" t="n">
+        <v>192497</v>
+      </c>
+      <c r="C90" t="s">
+        <v>758</v>
+      </c>
       <c r="D90" t="n">
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F90" t="s">
-        <v>671</v>
+        <v>759</v>
       </c>
       <c r="G90" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H90" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I90" t="s">
-        <v>672</v>
+        <v>760</v>
       </c>
       <c r="J90" t="s">
-        <v>673</v>
+        <v>761</v>
       </c>
       <c r="K90" t="s">
-        <v>674</v>
+        <v>762</v>
       </c>
       <c r="L90" t="s">
-        <v>675</v>
+        <v>763</v>
       </c>
       <c r="M90" t="n">
         <v>4</v>
       </c>
       <c r="N90" t="s">
-        <v>667</v>
+        <v>754</v>
       </c>
       <c r="O90" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P90" t="n">
         <v>3</v>
@@ -8859,50 +9568,54 @@
       <c r="W90" t="s"/>
       <c r="X90" t="s"/>
       <c r="Y90" t="s">
-        <v>676</v>
+        <v>764</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
         <v>58520</v>
       </c>
-      <c r="B91" t="s"/>
-      <c r="C91" t="s"/>
+      <c r="B91" t="n">
+        <v>979</v>
+      </c>
+      <c r="C91" t="s">
+        <v>765</v>
+      </c>
       <c r="D91" t="n">
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F91" t="s">
-        <v>677</v>
+        <v>766</v>
       </c>
       <c r="G91" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H91" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I91" t="s">
-        <v>678</v>
+        <v>767</v>
       </c>
       <c r="J91" t="s">
-        <v>679</v>
+        <v>768</v>
       </c>
       <c r="K91" t="s">
-        <v>680</v>
+        <v>769</v>
       </c>
       <c r="L91" t="s">
-        <v>681</v>
+        <v>770</v>
       </c>
       <c r="M91" t="n">
         <v>5</v>
       </c>
       <c r="N91" t="s">
-        <v>667</v>
+        <v>754</v>
       </c>
       <c r="O91" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="P91" t="n">
         <v>5</v>
@@ -8926,50 +9639,54 @@
       <c r="W91" t="s"/>
       <c r="X91" t="s"/>
       <c r="Y91" t="s">
-        <v>681</v>
+        <v>770</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
         <v>58520</v>
       </c>
-      <c r="B92" t="s"/>
-      <c r="C92" t="s"/>
+      <c r="B92" t="n">
+        <v>192498</v>
+      </c>
+      <c r="C92" t="s">
+        <v>771</v>
+      </c>
       <c r="D92" t="n">
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F92" t="s">
-        <v>682</v>
+        <v>772</v>
       </c>
       <c r="G92" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H92" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I92" t="s">
-        <v>683</v>
+        <v>773</v>
       </c>
       <c r="J92" t="s">
-        <v>684</v>
+        <v>774</v>
       </c>
       <c r="K92" t="s">
-        <v>685</v>
+        <v>775</v>
       </c>
       <c r="L92" t="s">
-        <v>686</v>
+        <v>776</v>
       </c>
       <c r="M92" t="n">
         <v>5</v>
       </c>
       <c r="N92" t="s">
-        <v>687</v>
+        <v>777</v>
       </c>
       <c r="O92" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P92" t="n">
         <v>5</v>
@@ -8991,56 +9708,60 @@
         <v>0</v>
       </c>
       <c r="W92" t="s">
-        <v>688</v>
+        <v>778</v>
       </c>
       <c r="X92" t="s">
-        <v>689</v>
+        <v>779</v>
       </c>
       <c r="Y92" t="s">
-        <v>690</v>
+        <v>780</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
         <v>58520</v>
       </c>
-      <c r="B93" t="s"/>
-      <c r="C93" t="s"/>
+      <c r="B93" t="n">
+        <v>321</v>
+      </c>
+      <c r="C93" t="s">
+        <v>781</v>
+      </c>
       <c r="D93" t="n">
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F93" t="s">
-        <v>691</v>
+        <v>782</v>
       </c>
       <c r="G93" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H93" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I93" t="s">
-        <v>692</v>
+        <v>783</v>
       </c>
       <c r="J93" t="s">
-        <v>693</v>
+        <v>784</v>
       </c>
       <c r="K93" t="s">
-        <v>694</v>
+        <v>785</v>
       </c>
       <c r="L93" t="s">
-        <v>695</v>
+        <v>786</v>
       </c>
       <c r="M93" t="n">
         <v>4</v>
       </c>
       <c r="N93" t="s">
-        <v>687</v>
+        <v>777</v>
       </c>
       <c r="O93" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P93" t="n">
         <v>3</v>
@@ -9064,50 +9785,54 @@
       <c r="W93" t="s"/>
       <c r="X93" t="s"/>
       <c r="Y93" t="s">
-        <v>695</v>
+        <v>786</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
         <v>58520</v>
       </c>
-      <c r="B94" t="s"/>
-      <c r="C94" t="s"/>
+      <c r="B94" t="n">
+        <v>192499</v>
+      </c>
+      <c r="C94" t="s">
+        <v>787</v>
+      </c>
       <c r="D94" t="n">
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F94" t="s">
-        <v>696</v>
+        <v>788</v>
       </c>
       <c r="G94" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H94" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I94" t="s">
-        <v>697</v>
+        <v>789</v>
       </c>
       <c r="J94" t="s">
-        <v>698</v>
+        <v>790</v>
       </c>
       <c r="K94" t="s">
-        <v>699</v>
+        <v>791</v>
       </c>
       <c r="L94" t="s">
-        <v>700</v>
+        <v>792</v>
       </c>
       <c r="M94" t="n">
         <v>4</v>
       </c>
       <c r="N94" t="s">
-        <v>701</v>
+        <v>793</v>
       </c>
       <c r="O94" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P94" t="n">
         <v>3</v>
@@ -9131,50 +9856,54 @@
       <c r="W94" t="s"/>
       <c r="X94" t="s"/>
       <c r="Y94" t="s">
-        <v>700</v>
+        <v>792</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
         <v>58520</v>
       </c>
-      <c r="B95" t="s"/>
-      <c r="C95" t="s"/>
+      <c r="B95" t="n">
+        <v>192500</v>
+      </c>
+      <c r="C95" t="s">
+        <v>794</v>
+      </c>
       <c r="D95" t="n">
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F95" t="s">
-        <v>702</v>
+        <v>795</v>
       </c>
       <c r="G95" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H95" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I95" t="s">
-        <v>703</v>
+        <v>796</v>
       </c>
       <c r="J95" t="s">
-        <v>704</v>
+        <v>797</v>
       </c>
       <c r="K95" t="s">
-        <v>705</v>
+        <v>798</v>
       </c>
       <c r="L95" t="s">
-        <v>706</v>
+        <v>799</v>
       </c>
       <c r="M95" t="n">
         <v>4</v>
       </c>
       <c r="N95" t="s">
-        <v>707</v>
+        <v>800</v>
       </c>
       <c r="O95" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P95" t="n">
         <v>2</v>
@@ -9198,50 +9927,54 @@
       <c r="W95" t="s"/>
       <c r="X95" t="s"/>
       <c r="Y95" t="s">
-        <v>706</v>
+        <v>799</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
         <v>58520</v>
       </c>
-      <c r="B96" t="s"/>
-      <c r="C96" t="s"/>
+      <c r="B96" t="n">
+        <v>192501</v>
+      </c>
+      <c r="C96" t="s">
+        <v>801</v>
+      </c>
       <c r="D96" t="n">
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F96" t="s">
-        <v>708</v>
+        <v>802</v>
       </c>
       <c r="G96" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H96" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I96" t="s">
-        <v>709</v>
+        <v>803</v>
       </c>
       <c r="J96" t="s">
-        <v>710</v>
+        <v>804</v>
       </c>
       <c r="K96" t="s">
-        <v>711</v>
+        <v>805</v>
       </c>
       <c r="L96" t="s">
-        <v>712</v>
+        <v>806</v>
       </c>
       <c r="M96" t="n">
         <v>2</v>
       </c>
       <c r="N96" t="s">
-        <v>713</v>
+        <v>807</v>
       </c>
       <c r="O96" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="P96" t="n">
         <v>3</v>
@@ -9263,56 +9996,60 @@
         <v>0</v>
       </c>
       <c r="W96" t="s">
-        <v>714</v>
+        <v>808</v>
       </c>
       <c r="X96" t="s">
-        <v>715</v>
+        <v>809</v>
       </c>
       <c r="Y96" t="s">
-        <v>716</v>
+        <v>810</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
         <v>58520</v>
       </c>
-      <c r="B97" t="s"/>
-      <c r="C97" t="s"/>
+      <c r="B97" t="n">
+        <v>192502</v>
+      </c>
+      <c r="C97" t="s">
+        <v>811</v>
+      </c>
       <c r="D97" t="n">
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F97" t="s">
-        <v>717</v>
+        <v>812</v>
       </c>
       <c r="G97" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H97" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I97" t="s">
-        <v>718</v>
+        <v>813</v>
       </c>
       <c r="J97" t="s">
-        <v>710</v>
+        <v>804</v>
       </c>
       <c r="K97" t="s">
-        <v>719</v>
+        <v>814</v>
       </c>
       <c r="L97" t="s">
-        <v>720</v>
+        <v>815</v>
       </c>
       <c r="M97" t="n">
         <v>2</v>
       </c>
       <c r="N97" t="s">
-        <v>707</v>
+        <v>800</v>
       </c>
       <c r="O97" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P97" t="n">
         <v>3</v>
@@ -9334,56 +10071,60 @@
         <v>0</v>
       </c>
       <c r="W97" t="s">
-        <v>721</v>
+        <v>816</v>
       </c>
       <c r="X97" t="s">
-        <v>722</v>
+        <v>817</v>
       </c>
       <c r="Y97" t="s">
-        <v>723</v>
+        <v>818</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
         <v>58520</v>
       </c>
-      <c r="B98" t="s"/>
-      <c r="C98" t="s"/>
+      <c r="B98" t="n">
+        <v>192503</v>
+      </c>
+      <c r="C98" t="s">
+        <v>819</v>
+      </c>
       <c r="D98" t="n">
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F98" t="s">
-        <v>724</v>
+        <v>820</v>
       </c>
       <c r="G98" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H98" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I98" t="s">
-        <v>725</v>
+        <v>821</v>
       </c>
       <c r="J98" t="s">
-        <v>726</v>
+        <v>822</v>
       </c>
       <c r="K98" t="s">
-        <v>727</v>
+        <v>823</v>
       </c>
       <c r="L98" t="s">
-        <v>728</v>
+        <v>824</v>
       </c>
       <c r="M98" t="n">
         <v>4</v>
       </c>
       <c r="N98" t="s">
-        <v>713</v>
+        <v>807</v>
       </c>
       <c r="O98" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P98" t="n">
         <v>4</v>
@@ -9407,50 +10148,54 @@
       <c r="W98" t="s"/>
       <c r="X98" t="s"/>
       <c r="Y98" t="s">
-        <v>729</v>
+        <v>825</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
         <v>58520</v>
       </c>
-      <c r="B99" t="s"/>
-      <c r="C99" t="s"/>
+      <c r="B99" t="n">
+        <v>192504</v>
+      </c>
+      <c r="C99" t="s">
+        <v>826</v>
+      </c>
       <c r="D99" t="n">
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F99" t="s">
-        <v>730</v>
+        <v>827</v>
       </c>
       <c r="G99" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H99" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I99" t="s">
-        <v>731</v>
+        <v>828</v>
       </c>
       <c r="J99" t="s">
-        <v>732</v>
+        <v>829</v>
       </c>
       <c r="K99" t="s">
-        <v>733</v>
+        <v>830</v>
       </c>
       <c r="L99" t="s">
-        <v>734</v>
+        <v>831</v>
       </c>
       <c r="M99" t="n">
         <v>4</v>
       </c>
       <c r="N99" t="s">
-        <v>713</v>
+        <v>807</v>
       </c>
       <c r="O99" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P99" t="n">
         <v>4</v>
@@ -9474,50 +10219,54 @@
       <c r="W99" t="s"/>
       <c r="X99" t="s"/>
       <c r="Y99" t="s">
-        <v>734</v>
+        <v>831</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
         <v>58520</v>
       </c>
-      <c r="B100" t="s"/>
-      <c r="C100" t="s"/>
+      <c r="B100" t="n">
+        <v>192505</v>
+      </c>
+      <c r="C100" t="s">
+        <v>832</v>
+      </c>
       <c r="D100" t="n">
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F100" t="s">
-        <v>735</v>
+        <v>833</v>
       </c>
       <c r="G100" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H100" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I100" t="s">
-        <v>736</v>
+        <v>834</v>
       </c>
       <c r="J100" t="s">
-        <v>737</v>
+        <v>835</v>
       </c>
       <c r="K100" t="s">
-        <v>738</v>
+        <v>836</v>
       </c>
       <c r="L100" t="s">
-        <v>739</v>
+        <v>837</v>
       </c>
       <c r="M100" t="n">
         <v>4</v>
       </c>
       <c r="N100" t="s">
-        <v>740</v>
+        <v>838</v>
       </c>
       <c r="O100" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P100" t="n">
         <v>4</v>
@@ -9541,50 +10290,54 @@
       <c r="W100" t="s"/>
       <c r="X100" t="s"/>
       <c r="Y100" t="s">
-        <v>741</v>
+        <v>839</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
         <v>58520</v>
       </c>
-      <c r="B101" t="s"/>
-      <c r="C101" t="s"/>
+      <c r="B101" t="n">
+        <v>192506</v>
+      </c>
+      <c r="C101" t="s">
+        <v>840</v>
+      </c>
       <c r="D101" t="n">
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F101" t="s">
-        <v>742</v>
+        <v>841</v>
       </c>
       <c r="G101" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H101" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I101" t="s">
-        <v>743</v>
+        <v>842</v>
       </c>
       <c r="J101" t="s">
-        <v>744</v>
+        <v>843</v>
       </c>
       <c r="K101" t="s">
-        <v>745</v>
+        <v>844</v>
       </c>
       <c r="L101" t="s">
-        <v>746</v>
+        <v>845</v>
       </c>
       <c r="M101" t="n">
         <v>3</v>
       </c>
       <c r="N101" t="s">
-        <v>740</v>
+        <v>838</v>
       </c>
       <c r="O101" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P101" t="n">
         <v>3</v>
@@ -9608,50 +10361,54 @@
       <c r="W101" t="s"/>
       <c r="X101" t="s"/>
       <c r="Y101" t="s">
-        <v>747</v>
+        <v>846</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
         <v>58520</v>
       </c>
-      <c r="B102" t="s"/>
-      <c r="C102" t="s"/>
+      <c r="B102" t="n">
+        <v>192507</v>
+      </c>
+      <c r="C102" t="s">
+        <v>847</v>
+      </c>
       <c r="D102" t="n">
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F102" t="s">
-        <v>748</v>
+        <v>848</v>
       </c>
       <c r="G102" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H102" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I102" t="s">
-        <v>749</v>
+        <v>849</v>
       </c>
       <c r="J102" t="s">
-        <v>750</v>
+        <v>850</v>
       </c>
       <c r="K102" t="s">
-        <v>751</v>
+        <v>851</v>
       </c>
       <c r="L102" t="s">
-        <v>752</v>
+        <v>852</v>
       </c>
       <c r="M102" t="n">
         <v>4</v>
       </c>
       <c r="N102" t="s">
-        <v>740</v>
+        <v>838</v>
       </c>
       <c r="O102" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P102" t="n">
         <v>5</v>
@@ -9675,50 +10432,54 @@
       <c r="W102" t="s"/>
       <c r="X102" t="s"/>
       <c r="Y102" t="s">
-        <v>752</v>
+        <v>852</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
         <v>58520</v>
       </c>
-      <c r="B103" t="s"/>
-      <c r="C103" t="s"/>
+      <c r="B103" t="n">
+        <v>192508</v>
+      </c>
+      <c r="C103" t="s">
+        <v>853</v>
+      </c>
       <c r="D103" t="n">
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F103" t="s">
-        <v>753</v>
+        <v>854</v>
       </c>
       <c r="G103" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H103" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I103" t="s">
-        <v>754</v>
+        <v>855</v>
       </c>
       <c r="J103" t="s">
-        <v>755</v>
+        <v>856</v>
       </c>
       <c r="K103" t="s">
-        <v>756</v>
+        <v>857</v>
       </c>
       <c r="L103" t="s">
-        <v>757</v>
+        <v>858</v>
       </c>
       <c r="M103" t="n">
         <v>4</v>
       </c>
       <c r="N103" t="s">
-        <v>758</v>
+        <v>859</v>
       </c>
       <c r="O103" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P103" t="n">
         <v>4</v>
@@ -9742,50 +10503,54 @@
       <c r="W103" t="s"/>
       <c r="X103" t="s"/>
       <c r="Y103" t="s">
-        <v>757</v>
+        <v>858</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
         <v>58520</v>
       </c>
-      <c r="B104" t="s"/>
-      <c r="C104" t="s"/>
+      <c r="B104" t="n">
+        <v>52899</v>
+      </c>
+      <c r="C104" t="s">
+        <v>860</v>
+      </c>
       <c r="D104" t="n">
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F104" t="s">
-        <v>759</v>
+        <v>861</v>
       </c>
       <c r="G104" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H104" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I104" t="s">
-        <v>760</v>
+        <v>862</v>
       </c>
       <c r="J104" t="s">
-        <v>761</v>
+        <v>863</v>
       </c>
       <c r="K104" t="s">
-        <v>762</v>
+        <v>864</v>
       </c>
       <c r="L104" t="s">
-        <v>763</v>
+        <v>865</v>
       </c>
       <c r="M104" t="n">
         <v>3</v>
       </c>
       <c r="N104" t="s">
-        <v>764</v>
+        <v>866</v>
       </c>
       <c r="O104" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="P104" t="s"/>
       <c r="Q104" t="s"/>
@@ -9799,50 +10564,54 @@
       <c r="W104" t="s"/>
       <c r="X104" t="s"/>
       <c r="Y104" t="s">
-        <v>765</v>
+        <v>867</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
         <v>58520</v>
       </c>
-      <c r="B105" t="s"/>
-      <c r="C105" t="s"/>
+      <c r="B105" t="n">
+        <v>192509</v>
+      </c>
+      <c r="C105" t="s">
+        <v>868</v>
+      </c>
       <c r="D105" t="n">
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F105" t="s">
-        <v>766</v>
+        <v>869</v>
       </c>
       <c r="G105" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H105" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I105" t="s">
-        <v>767</v>
+        <v>870</v>
       </c>
       <c r="J105" t="s">
-        <v>768</v>
+        <v>871</v>
       </c>
       <c r="K105" t="s">
-        <v>769</v>
+        <v>872</v>
       </c>
       <c r="L105" t="s">
-        <v>770</v>
+        <v>873</v>
       </c>
       <c r="M105" t="n">
         <v>4</v>
       </c>
       <c r="N105" t="s">
-        <v>764</v>
+        <v>866</v>
       </c>
       <c r="O105" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P105" t="n">
         <v>5</v>
@@ -9866,50 +10635,54 @@
       <c r="W105" t="s"/>
       <c r="X105" t="s"/>
       <c r="Y105" t="s">
-        <v>771</v>
+        <v>874</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
         <v>58520</v>
       </c>
-      <c r="B106" t="s"/>
-      <c r="C106" t="s"/>
+      <c r="B106" t="n">
+        <v>192510</v>
+      </c>
+      <c r="C106" t="s">
+        <v>875</v>
+      </c>
       <c r="D106" t="n">
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F106" t="s">
-        <v>772</v>
+        <v>876</v>
       </c>
       <c r="G106" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H106" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I106" t="s">
-        <v>773</v>
+        <v>877</v>
       </c>
       <c r="J106" t="s">
-        <v>774</v>
+        <v>878</v>
       </c>
       <c r="K106" t="s">
-        <v>775</v>
+        <v>879</v>
       </c>
       <c r="L106" t="s">
-        <v>776</v>
+        <v>880</v>
       </c>
       <c r="M106" t="n">
         <v>4</v>
       </c>
       <c r="N106" t="s">
-        <v>764</v>
+        <v>866</v>
       </c>
       <c r="O106" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P106" t="n">
         <v>4</v>
@@ -9933,50 +10706,54 @@
       <c r="W106" t="s"/>
       <c r="X106" t="s"/>
       <c r="Y106" t="s">
-        <v>776</v>
+        <v>880</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
         <v>58520</v>
       </c>
-      <c r="B107" t="s"/>
-      <c r="C107" t="s"/>
+      <c r="B107" t="n">
+        <v>192511</v>
+      </c>
+      <c r="C107" t="s">
+        <v>881</v>
+      </c>
       <c r="D107" t="n">
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F107" t="s">
-        <v>777</v>
+        <v>882</v>
       </c>
       <c r="G107" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H107" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I107" t="s">
-        <v>778</v>
+        <v>883</v>
       </c>
       <c r="J107" t="s">
-        <v>779</v>
+        <v>884</v>
       </c>
       <c r="K107" t="s">
-        <v>780</v>
+        <v>885</v>
       </c>
       <c r="L107" t="s">
-        <v>781</v>
+        <v>886</v>
       </c>
       <c r="M107" t="n">
         <v>5</v>
       </c>
       <c r="N107" t="s">
-        <v>782</v>
+        <v>887</v>
       </c>
       <c r="O107" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P107" t="n">
         <v>5</v>
@@ -10000,50 +10777,54 @@
       <c r="W107" t="s"/>
       <c r="X107" t="s"/>
       <c r="Y107" t="s">
-        <v>781</v>
+        <v>886</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
         <v>58520</v>
       </c>
-      <c r="B108" t="s"/>
-      <c r="C108" t="s"/>
+      <c r="B108" t="n">
+        <v>148524</v>
+      </c>
+      <c r="C108" t="s">
+        <v>888</v>
+      </c>
       <c r="D108" t="n">
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F108" t="s">
-        <v>783</v>
+        <v>889</v>
       </c>
       <c r="G108" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H108" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I108" t="s">
-        <v>784</v>
+        <v>890</v>
       </c>
       <c r="J108" t="s">
-        <v>785</v>
+        <v>891</v>
       </c>
       <c r="K108" t="s">
-        <v>786</v>
+        <v>892</v>
       </c>
       <c r="L108" t="s">
-        <v>787</v>
+        <v>893</v>
       </c>
       <c r="M108" t="n">
         <v>4</v>
       </c>
       <c r="N108" t="s">
-        <v>788</v>
+        <v>894</v>
       </c>
       <c r="O108" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P108" t="n">
         <v>4</v>
@@ -10065,50 +10846,54 @@
       <c r="W108" t="s"/>
       <c r="X108" t="s"/>
       <c r="Y108" t="s">
-        <v>789</v>
+        <v>895</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
         <v>58520</v>
       </c>
-      <c r="B109" t="s"/>
-      <c r="C109" t="s"/>
+      <c r="B109" t="n">
+        <v>192512</v>
+      </c>
+      <c r="C109" t="s">
+        <v>896</v>
+      </c>
       <c r="D109" t="n">
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F109" t="s">
-        <v>790</v>
+        <v>897</v>
       </c>
       <c r="G109" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H109" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I109" t="s">
-        <v>791</v>
+        <v>898</v>
       </c>
       <c r="J109" t="s">
-        <v>792</v>
+        <v>899</v>
       </c>
       <c r="K109" t="s">
-        <v>793</v>
+        <v>900</v>
       </c>
       <c r="L109" t="s">
-        <v>794</v>
+        <v>901</v>
       </c>
       <c r="M109" t="n">
         <v>4</v>
       </c>
       <c r="N109" t="s">
-        <v>788</v>
+        <v>894</v>
       </c>
       <c r="O109" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P109" t="n">
         <v>5</v>
@@ -10132,50 +10917,54 @@
       <c r="W109" t="s"/>
       <c r="X109" t="s"/>
       <c r="Y109" t="s">
-        <v>795</v>
+        <v>902</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
         <v>58520</v>
       </c>
-      <c r="B110" t="s"/>
-      <c r="C110" t="s"/>
+      <c r="B110" t="n">
+        <v>192513</v>
+      </c>
+      <c r="C110" t="s">
+        <v>903</v>
+      </c>
       <c r="D110" t="n">
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F110" t="s">
-        <v>796</v>
+        <v>904</v>
       </c>
       <c r="G110" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H110" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I110" t="s">
-        <v>797</v>
+        <v>905</v>
       </c>
       <c r="J110" t="s">
-        <v>798</v>
+        <v>906</v>
       </c>
       <c r="K110" t="s">
-        <v>799</v>
+        <v>907</v>
       </c>
       <c r="L110" t="s">
-        <v>800</v>
+        <v>908</v>
       </c>
       <c r="M110" t="n">
         <v>4</v>
       </c>
       <c r="N110" t="s">
-        <v>758</v>
+        <v>859</v>
       </c>
       <c r="O110" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="P110" t="n">
         <v>5</v>
@@ -10197,50 +10986,54 @@
       <c r="W110" t="s"/>
       <c r="X110" t="s"/>
       <c r="Y110" t="s">
-        <v>800</v>
+        <v>908</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
         <v>58520</v>
       </c>
-      <c r="B111" t="s"/>
-      <c r="C111" t="s"/>
+      <c r="B111" t="n">
+        <v>192514</v>
+      </c>
+      <c r="C111" t="s">
+        <v>909</v>
+      </c>
       <c r="D111" t="n">
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F111" t="s">
-        <v>801</v>
+        <v>910</v>
       </c>
       <c r="G111" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H111" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I111" t="s">
-        <v>802</v>
+        <v>911</v>
       </c>
       <c r="J111" t="s">
-        <v>803</v>
+        <v>912</v>
       </c>
       <c r="K111" t="s">
-        <v>804</v>
+        <v>913</v>
       </c>
       <c r="L111" t="s">
-        <v>805</v>
+        <v>914</v>
       </c>
       <c r="M111" t="n">
         <v>4</v>
       </c>
       <c r="N111" t="s">
-        <v>806</v>
+        <v>915</v>
       </c>
       <c r="O111" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P111" t="n">
         <v>4</v>
@@ -10260,50 +11053,54 @@
       <c r="W111" t="s"/>
       <c r="X111" t="s"/>
       <c r="Y111" t="s">
-        <v>805</v>
+        <v>914</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
         <v>58520</v>
       </c>
-      <c r="B112" t="s"/>
-      <c r="C112" t="s"/>
+      <c r="B112" t="n">
+        <v>192515</v>
+      </c>
+      <c r="C112" t="s">
+        <v>916</v>
+      </c>
       <c r="D112" t="n">
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F112" t="s">
-        <v>807</v>
+        <v>917</v>
       </c>
       <c r="G112" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H112" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I112" t="s">
-        <v>808</v>
+        <v>918</v>
       </c>
       <c r="J112" t="s">
-        <v>809</v>
+        <v>919</v>
       </c>
       <c r="K112" t="s">
-        <v>810</v>
+        <v>920</v>
       </c>
       <c r="L112" t="s">
-        <v>811</v>
+        <v>921</v>
       </c>
       <c r="M112" t="n">
         <v>4</v>
       </c>
       <c r="N112" t="s">
-        <v>806</v>
+        <v>915</v>
       </c>
       <c r="O112" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P112" t="n">
         <v>3</v>
@@ -10323,50 +11120,54 @@
       <c r="W112" t="s"/>
       <c r="X112" t="s"/>
       <c r="Y112" t="s">
-        <v>812</v>
+        <v>922</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
         <v>58520</v>
       </c>
-      <c r="B113" t="s"/>
-      <c r="C113" t="s"/>
+      <c r="B113" t="n">
+        <v>192516</v>
+      </c>
+      <c r="C113" t="s">
+        <v>923</v>
+      </c>
       <c r="D113" t="n">
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F113" t="s">
-        <v>813</v>
+        <v>924</v>
       </c>
       <c r="G113" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H113" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I113" t="s">
-        <v>814</v>
+        <v>925</v>
       </c>
       <c r="J113" t="s">
-        <v>815</v>
+        <v>926</v>
       </c>
       <c r="K113" t="s">
-        <v>816</v>
+        <v>927</v>
       </c>
       <c r="L113" t="s">
-        <v>817</v>
+        <v>928</v>
       </c>
       <c r="M113" t="n">
         <v>2</v>
       </c>
       <c r="N113" t="s">
-        <v>818</v>
+        <v>929</v>
       </c>
       <c r="O113" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P113" t="n">
         <v>2</v>
@@ -10386,50 +11187,54 @@
       <c r="W113" t="s"/>
       <c r="X113" t="s"/>
       <c r="Y113" t="s">
-        <v>819</v>
+        <v>930</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
         <v>58520</v>
       </c>
-      <c r="B114" t="s"/>
-      <c r="C114" t="s"/>
+      <c r="B114" t="n">
+        <v>192517</v>
+      </c>
+      <c r="C114" t="s">
+        <v>931</v>
+      </c>
       <c r="D114" t="n">
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F114" t="s">
-        <v>820</v>
+        <v>932</v>
       </c>
       <c r="G114" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H114" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I114" t="s">
-        <v>821</v>
+        <v>933</v>
       </c>
       <c r="J114" t="s">
-        <v>822</v>
+        <v>934</v>
       </c>
       <c r="K114" t="s">
-        <v>823</v>
+        <v>935</v>
       </c>
       <c r="L114" t="s">
-        <v>824</v>
+        <v>936</v>
       </c>
       <c r="M114" t="n">
         <v>4</v>
       </c>
       <c r="N114" t="s">
-        <v>818</v>
+        <v>929</v>
       </c>
       <c r="O114" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="P114" t="n">
         <v>5</v>
@@ -10449,50 +11254,54 @@
       <c r="W114" t="s"/>
       <c r="X114" t="s"/>
       <c r="Y114" t="s">
-        <v>825</v>
+        <v>937</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
         <v>58520</v>
       </c>
-      <c r="B115" t="s"/>
-      <c r="C115" t="s"/>
+      <c r="B115" t="n">
+        <v>192518</v>
+      </c>
+      <c r="C115" t="s">
+        <v>938</v>
+      </c>
       <c r="D115" t="n">
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F115" t="s">
-        <v>826</v>
+        <v>939</v>
       </c>
       <c r="G115" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H115" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I115" t="s">
-        <v>827</v>
+        <v>940</v>
       </c>
       <c r="J115" t="s">
-        <v>828</v>
+        <v>941</v>
       </c>
       <c r="K115" t="s">
-        <v>829</v>
+        <v>942</v>
       </c>
       <c r="L115" t="s">
-        <v>830</v>
+        <v>943</v>
       </c>
       <c r="M115" t="n">
         <v>5</v>
       </c>
       <c r="N115" t="s">
-        <v>831</v>
+        <v>944</v>
       </c>
       <c r="O115" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P115" t="n">
         <v>5</v>
@@ -10512,50 +11321,54 @@
       <c r="W115" t="s"/>
       <c r="X115" t="s"/>
       <c r="Y115" t="s">
-        <v>830</v>
+        <v>943</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
         <v>58520</v>
       </c>
-      <c r="B116" t="s"/>
-      <c r="C116" t="s"/>
+      <c r="B116" t="n">
+        <v>192519</v>
+      </c>
+      <c r="C116" t="s">
+        <v>945</v>
+      </c>
       <c r="D116" t="n">
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F116" t="s">
-        <v>832</v>
+        <v>946</v>
       </c>
       <c r="G116" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H116" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I116" t="s">
-        <v>833</v>
+        <v>947</v>
       </c>
       <c r="J116" t="s">
-        <v>834</v>
+        <v>948</v>
       </c>
       <c r="K116" t="s">
-        <v>835</v>
+        <v>949</v>
       </c>
       <c r="L116" t="s">
-        <v>836</v>
+        <v>950</v>
       </c>
       <c r="M116" t="n">
         <v>5</v>
       </c>
       <c r="N116" t="s">
-        <v>837</v>
+        <v>951</v>
       </c>
       <c r="O116" t="s">
-        <v>838</v>
+        <v>952</v>
       </c>
       <c r="P116" t="n">
         <v>5</v>
@@ -10579,41 +11392,45 @@
       <c r="W116" t="s"/>
       <c r="X116" t="s"/>
       <c r="Y116" t="s">
-        <v>836</v>
+        <v>950</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
         <v>58520</v>
       </c>
-      <c r="B117" t="s"/>
-      <c r="C117" t="s"/>
+      <c r="B117" t="n">
+        <v>192520</v>
+      </c>
+      <c r="C117" t="s">
+        <v>953</v>
+      </c>
       <c r="D117" t="n">
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F117" t="s">
-        <v>839</v>
+        <v>954</v>
       </c>
       <c r="G117" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H117" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I117" t="s">
-        <v>840</v>
+        <v>955</v>
       </c>
       <c r="J117" t="s">
-        <v>841</v>
+        <v>956</v>
       </c>
       <c r="K117" t="s">
-        <v>842</v>
+        <v>957</v>
       </c>
       <c r="L117" t="s">
-        <v>843</v>
+        <v>958</v>
       </c>
       <c r="M117" t="n">
         <v>5</v>
@@ -10642,41 +11459,45 @@
       <c r="W117" t="s"/>
       <c r="X117" t="s"/>
       <c r="Y117" t="s">
-        <v>843</v>
+        <v>958</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
         <v>58520</v>
       </c>
-      <c r="B118" t="s"/>
-      <c r="C118" t="s"/>
+      <c r="B118" t="n">
+        <v>4552</v>
+      </c>
+      <c r="C118" t="s">
+        <v>959</v>
+      </c>
       <c r="D118" t="n">
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F118" t="s">
-        <v>844</v>
+        <v>960</v>
       </c>
       <c r="G118" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H118" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I118" t="s">
-        <v>845</v>
+        <v>961</v>
       </c>
       <c r="J118" t="s">
-        <v>846</v>
+        <v>962</v>
       </c>
       <c r="K118" t="s">
-        <v>847</v>
+        <v>963</v>
       </c>
       <c r="L118" t="s">
-        <v>848</v>
+        <v>964</v>
       </c>
       <c r="M118" t="n">
         <v>5</v>
@@ -10705,50 +11526,54 @@
       <c r="W118" t="s"/>
       <c r="X118" t="s"/>
       <c r="Y118" t="s">
-        <v>848</v>
+        <v>964</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
         <v>58520</v>
       </c>
-      <c r="B119" t="s"/>
-      <c r="C119" t="s"/>
+      <c r="B119" t="n">
+        <v>192521</v>
+      </c>
+      <c r="C119" t="s">
+        <v>965</v>
+      </c>
       <c r="D119" t="n">
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F119" t="s">
-        <v>849</v>
+        <v>966</v>
       </c>
       <c r="G119" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H119" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I119" t="s">
-        <v>850</v>
+        <v>967</v>
       </c>
       <c r="J119" t="s">
-        <v>851</v>
+        <v>968</v>
       </c>
       <c r="K119" t="s">
-        <v>852</v>
+        <v>969</v>
       </c>
       <c r="L119" t="s">
-        <v>853</v>
+        <v>970</v>
       </c>
       <c r="M119" t="n">
         <v>4</v>
       </c>
       <c r="N119" t="s">
-        <v>854</v>
+        <v>971</v>
       </c>
       <c r="O119" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="P119" t="n">
         <v>4</v>
@@ -10772,50 +11597,54 @@
       <c r="W119" t="s"/>
       <c r="X119" t="s"/>
       <c r="Y119" t="s">
-        <v>855</v>
+        <v>972</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
         <v>58520</v>
       </c>
-      <c r="B120" t="s"/>
-      <c r="C120" t="s"/>
+      <c r="B120" t="n">
+        <v>41508</v>
+      </c>
+      <c r="C120" t="s">
+        <v>973</v>
+      </c>
       <c r="D120" t="n">
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F120" t="s">
-        <v>856</v>
+        <v>974</v>
       </c>
       <c r="G120" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H120" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I120" t="s">
-        <v>857</v>
+        <v>975</v>
       </c>
       <c r="J120" t="s">
-        <v>858</v>
+        <v>976</v>
       </c>
       <c r="K120" t="s">
-        <v>859</v>
+        <v>977</v>
       </c>
       <c r="L120" t="s">
-        <v>860</v>
+        <v>978</v>
       </c>
       <c r="M120" t="n">
         <v>5</v>
       </c>
       <c r="N120" t="s">
-        <v>861</v>
+        <v>979</v>
       </c>
       <c r="O120" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P120" t="n">
         <v>4</v>
@@ -10839,50 +11668,54 @@
       <c r="W120" t="s"/>
       <c r="X120" t="s"/>
       <c r="Y120" t="s">
-        <v>860</v>
+        <v>978</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
         <v>58520</v>
       </c>
-      <c r="B121" t="s"/>
-      <c r="C121" t="s"/>
+      <c r="B121" t="n">
+        <v>192522</v>
+      </c>
+      <c r="C121" t="s">
+        <v>980</v>
+      </c>
       <c r="D121" t="n">
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F121" t="s">
-        <v>862</v>
+        <v>981</v>
       </c>
       <c r="G121" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H121" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I121" t="s">
-        <v>863</v>
+        <v>982</v>
       </c>
       <c r="J121" t="s">
-        <v>864</v>
+        <v>983</v>
       </c>
       <c r="K121" t="s">
-        <v>865</v>
+        <v>984</v>
       </c>
       <c r="L121" t="s">
-        <v>866</v>
+        <v>985</v>
       </c>
       <c r="M121" t="n">
         <v>5</v>
       </c>
       <c r="N121" t="s">
-        <v>867</v>
+        <v>986</v>
       </c>
       <c r="O121" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P121" t="n">
         <v>4</v>
@@ -10906,7 +11739,7 @@
       <c r="W121" t="s"/>
       <c r="X121" t="s"/>
       <c r="Y121" t="s">
-        <v>868</v>
+        <v>987</v>
       </c>
     </row>
   </sheetData>
